--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685833C3-EFFD-8141-940F-948D2C2DBF0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CF0DA-44F5-0341-95E8-1461948A6F72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
     <sheet name="book-list" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,6 +521,12 @@
         <f>WEEKNUM(A4)</f>
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -540,6 +546,12 @@
       </c>
       <c r="E5">
         <f>WEEKNUM(A5)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CF0DA-44F5-0341-95E8-1461948A6F72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1802B8D3-14DF-7347-9A5D-18FB9CB67F83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,6 +575,12 @@
         <f t="shared" ref="E6:E69" si="3">WEEKNUM(A6)</f>
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -596,6 +602,12 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -617,6 +629,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -637,6 +655,12 @@
       <c r="E9">
         <f t="shared" si="3"/>
         <v>2</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Mobile Documents/com~apple~CloudDocs/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1802B8D3-14DF-7347-9A5D-18FB9CB67F83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30D2BA-B788-B24C-AB88-86A8CFD452B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
+    <workbookView xWindow="720" yWindow="800" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,6 +682,12 @@
       <c r="E10">
         <f t="shared" si="3"/>
         <v>2</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Mobile Documents/com~apple~CloudDocs/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30D2BA-B788-B24C-AB88-86A8CFD452B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A80DBD-3CB6-BE47-B8D4-6AC82D36DCEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="800" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Mobile Documents/com~apple~CloudDocs/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A80DBD-3CB6-BE47-B8D4-6AC82D36DCEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4C2EDD-796A-8B4A-941D-8C0B8AF0F241}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="800" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
+    <workbookView xWindow="720" yWindow="800" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Joaquin M. Fuster</t>
+  </si>
+  <si>
+    <t>Steven J. Luck</t>
+  </si>
+  <si>
+    <t>An Introduction to the Event-Related Potential Technique (2nd e.)</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F081B7-288B-1045-AB76-1CD03FBCB65E}">
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,19 +566,19 @@
         <v>43469</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B69" si="0">YEAR(A6)</f>
+        <f t="shared" ref="B6:B70" si="0">YEAR(A6)</f>
         <v>2019</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C69" si="1">MONTH(A6)</f>
+        <f t="shared" ref="C6:C70" si="1">MONTH(A6)</f>
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D69" si="2">DAY(A6)</f>
+        <f t="shared" ref="D6:D70" si="2">DAY(A6)</f>
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E69" si="3">WEEKNUM(A6)</f>
+        <f t="shared" ref="E6:E70" si="3">WEEKNUM(A6)</f>
         <v>1</v>
       </c>
       <c r="F6">
@@ -692,28 +698,34 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43474</v>
+        <v>43473</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B11" si="4">YEAR(A11)</f>
         <v>2019</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C11" si="5">MONTH(A11)</f>
         <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="D11" si="6">DAY(A11)</f>
+        <v>8</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E11" si="7">WEEKNUM(A11)</f>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43475</v>
+        <v>43474</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -725,7 +737,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
@@ -734,7 +746,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43476</v>
+        <v>43475</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -746,7 +758,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
@@ -755,7 +767,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43477</v>
+        <v>43476</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -767,7 +779,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
@@ -776,7 +788,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43478</v>
+        <v>43477</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -788,16 +800,16 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43479</v>
+        <v>43478</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -809,7 +821,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
@@ -818,7 +830,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43480</v>
+        <v>43479</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -830,7 +842,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
@@ -839,7 +851,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43481</v>
+        <v>43480</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -851,7 +863,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
@@ -860,7 +872,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43482</v>
+        <v>43481</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -872,7 +884,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
@@ -881,7 +893,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43483</v>
+        <v>43482</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -893,7 +905,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
@@ -902,7 +914,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43484</v>
+        <v>43483</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -914,7 +926,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
@@ -923,7 +935,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43485</v>
+        <v>43484</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -935,16 +947,16 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43486</v>
+        <v>43485</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -956,7 +968,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
@@ -965,7 +977,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43487</v>
+        <v>43486</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -977,7 +989,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
@@ -986,7 +998,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43488</v>
+        <v>43487</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -998,7 +1010,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
@@ -1007,7 +1019,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43489</v>
+        <v>43488</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -1019,7 +1031,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
@@ -1028,7 +1040,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -1040,7 +1052,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
@@ -1049,7 +1061,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43491</v>
+        <v>43490</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -1061,7 +1073,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
@@ -1070,7 +1082,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43492</v>
+        <v>43491</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -1082,16 +1094,16 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43493</v>
+        <v>43492</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -1103,7 +1115,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
@@ -1112,7 +1124,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43494</v>
+        <v>43493</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -1124,7 +1136,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
@@ -1133,7 +1145,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43495</v>
+        <v>43494</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -1145,7 +1157,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
@@ -1154,7 +1166,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43496</v>
+        <v>43495</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -1166,7 +1178,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
@@ -1175,7 +1187,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43497</v>
+        <v>43496</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -1183,11 +1195,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
@@ -1196,7 +1208,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43498</v>
+        <v>43497</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -1208,7 +1220,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
@@ -1217,7 +1229,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43499</v>
+        <v>43498</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -1229,16 +1241,16 @@
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43500</v>
+        <v>43499</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -1250,7 +1262,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
@@ -1259,7 +1271,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43501</v>
+        <v>43500</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -1271,7 +1283,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
@@ -1280,7 +1292,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43502</v>
+        <v>43501</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -1292,7 +1304,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
@@ -1301,7 +1313,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43503</v>
+        <v>43502</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -1313,7 +1325,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
@@ -1322,7 +1334,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43504</v>
+        <v>43503</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -1334,7 +1346,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
@@ -1343,7 +1355,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43505</v>
+        <v>43504</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -1355,7 +1367,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
@@ -1364,7 +1376,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43506</v>
+        <v>43505</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -1376,16 +1388,16 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43507</v>
+        <v>43506</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -1397,7 +1409,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
@@ -1406,7 +1418,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43508</v>
+        <v>43507</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -1418,7 +1430,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
@@ -1427,7 +1439,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43509</v>
+        <v>43508</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -1439,7 +1451,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
@@ -1448,7 +1460,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43510</v>
+        <v>43509</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -1460,7 +1472,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
@@ -1469,7 +1481,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43511</v>
+        <v>43510</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -1481,7 +1493,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
@@ -1490,7 +1502,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43512</v>
+        <v>43511</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -1502,7 +1514,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
@@ -1511,7 +1523,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43513</v>
+        <v>43512</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -1523,16 +1535,16 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43514</v>
+        <v>43513</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -1544,7 +1556,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
@@ -1553,7 +1565,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43515</v>
+        <v>43514</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -1565,7 +1577,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
@@ -1574,7 +1586,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43516</v>
+        <v>43515</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -1586,7 +1598,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
@@ -1595,7 +1607,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43517</v>
+        <v>43516</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
@@ -1607,7 +1619,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
@@ -1616,7 +1628,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43518</v>
+        <v>43517</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
@@ -1628,7 +1640,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
@@ -1637,7 +1649,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43519</v>
+        <v>43518</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
@@ -1649,7 +1661,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
@@ -1658,7 +1670,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43520</v>
+        <v>43519</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
@@ -1670,16 +1682,16 @@
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43521</v>
+        <v>43520</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
@@ -1691,7 +1703,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
@@ -1700,7 +1712,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43522</v>
+        <v>43521</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
@@ -1712,7 +1724,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
@@ -1721,7 +1733,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43523</v>
+        <v>43522</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
@@ -1733,7 +1745,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
@@ -1742,7 +1754,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43524</v>
+        <v>43523</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
@@ -1754,7 +1766,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
@@ -1763,7 +1775,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43525</v>
+        <v>43524</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -1771,11 +1783,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
@@ -1784,7 +1796,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43526</v>
+        <v>43525</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
@@ -1796,7 +1808,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
@@ -1805,7 +1817,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43527</v>
+        <v>43526</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
@@ -1817,16 +1829,16 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43528</v>
+        <v>43527</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
@@ -1838,7 +1850,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
@@ -1847,7 +1859,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43529</v>
+        <v>43528</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
@@ -1859,7 +1871,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <f t="shared" si="3"/>
@@ -1868,7 +1880,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43530</v>
+        <v>43529</v>
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
@@ -1880,7 +1892,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67">
         <f t="shared" si="3"/>
@@ -1889,7 +1901,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43531</v>
+        <v>43530</v>
       </c>
       <c r="B68">
         <f t="shared" si="0"/>
@@ -1901,7 +1913,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <f t="shared" si="3"/>
@@ -1910,7 +1922,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43532</v>
+        <v>43531</v>
       </c>
       <c r="B69">
         <f t="shared" si="0"/>
@@ -1922,7 +1934,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <f t="shared" si="3"/>
@@ -1931,6259 +1943,6280 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43533</v>
+        <v>43532</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B133" si="4">YEAR(A70)</f>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:C133" si="5">MONTH(A70)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D133" si="6">DAY(A70)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E133" si="7">WEEKNUM(A70)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43534</v>
+        <v>43533</v>
       </c>
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B71:B134" si="8">YEAR(A71)</f>
         <v>2019</v>
       </c>
       <c r="C71">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C71:C134" si="9">MONTH(A71)</f>
         <v>3</v>
       </c>
       <c r="D71">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D71:D134" si="10">DAY(A71)</f>
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:E134" si="11">WEEKNUM(A71)</f>
         <v>10</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="7"/>
-        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43535</v>
+        <v>43534</v>
       </c>
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D72">
-        <f t="shared" si="6"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="E72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43536</v>
+        <v>43535</v>
       </c>
       <c r="B73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D73">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="E73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43537</v>
+        <v>43536</v>
       </c>
       <c r="B74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D74">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="E74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43538</v>
+        <v>43537</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D75">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="E75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43539</v>
+        <v>43538</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D76">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>14</v>
       </c>
       <c r="E76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43540</v>
+        <v>43539</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D77">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="E77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43541</v>
+        <v>43540</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D78">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="E78">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43542</v>
+        <v>43541</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D79">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="E79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43543</v>
+        <v>43542</v>
       </c>
       <c r="B80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D80">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="E80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43544</v>
+        <v>43543</v>
       </c>
       <c r="B81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D81">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="E81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43545</v>
+        <v>43544</v>
       </c>
       <c r="B82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D82">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="E82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43546</v>
+        <v>43545</v>
       </c>
       <c r="B83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D83">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="E83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43547</v>
+        <v>43546</v>
       </c>
       <c r="B84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D84">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f t="shared" si="10"/>
+        <v>22</v>
       </c>
       <c r="E84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43548</v>
+        <v>43547</v>
       </c>
       <c r="B85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D85">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" si="10"/>
+        <v>23</v>
       </c>
       <c r="E85">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43549</v>
+        <v>43548</v>
       </c>
       <c r="B86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D86">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f t="shared" si="10"/>
+        <v>24</v>
       </c>
       <c r="E86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43550</v>
+        <v>43549</v>
       </c>
       <c r="B87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D87">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="10"/>
+        <v>25</v>
       </c>
       <c r="E87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43551</v>
+        <v>43550</v>
       </c>
       <c r="B88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D88">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f t="shared" si="10"/>
+        <v>26</v>
       </c>
       <c r="E88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43552</v>
+        <v>43551</v>
       </c>
       <c r="B89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D89">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="10"/>
+        <v>27</v>
       </c>
       <c r="E89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43553</v>
+        <v>43552</v>
       </c>
       <c r="B90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D90">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <f t="shared" si="10"/>
+        <v>28</v>
       </c>
       <c r="E90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43554</v>
+        <v>43553</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D91">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="10"/>
+        <v>29</v>
       </c>
       <c r="E91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43555</v>
+        <v>43554</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D92">
-        <f t="shared" si="6"/>
-        <v>31</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="E92">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43556</v>
+        <v>43555</v>
       </c>
       <c r="B93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C93">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="D93">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>31</v>
       </c>
       <c r="E93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43557</v>
+        <v>43556</v>
       </c>
       <c r="B94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D94">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D95">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="E95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="B96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D96">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="E96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43560</v>
+        <v>43559</v>
       </c>
       <c r="B97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D97">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="E97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43561</v>
+        <v>43560</v>
       </c>
       <c r="B98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D98">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="E98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43562</v>
+        <v>43561</v>
       </c>
       <c r="B99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D99">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="E99">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43563</v>
+        <v>43562</v>
       </c>
       <c r="B100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D100">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="E100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43564</v>
+        <v>43563</v>
       </c>
       <c r="B101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="E101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43565</v>
+        <v>43564</v>
       </c>
       <c r="B102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D102">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="E102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43566</v>
+        <v>43565</v>
       </c>
       <c r="B103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D103">
-        <f t="shared" si="6"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="E103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43567</v>
+        <v>43566</v>
       </c>
       <c r="B104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D104">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="E104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43568</v>
+        <v>43567</v>
       </c>
       <c r="B105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D105">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="E105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43569</v>
+        <v>43568</v>
       </c>
       <c r="B106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D106">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="E106">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43570</v>
+        <v>43569</v>
       </c>
       <c r="B107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D107">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>14</v>
       </c>
       <c r="E107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43571</v>
+        <v>43570</v>
       </c>
       <c r="B108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D108">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="E108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43572</v>
+        <v>43571</v>
       </c>
       <c r="B109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D109">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="E109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43573</v>
+        <v>43572</v>
       </c>
       <c r="B110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D110">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="E110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43574</v>
+        <v>43573</v>
       </c>
       <c r="B111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D111">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="E111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43575</v>
+        <v>43574</v>
       </c>
       <c r="B112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D112">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="E112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43576</v>
+        <v>43575</v>
       </c>
       <c r="B113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D113">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="E113">
-        <f t="shared" si="7"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43577</v>
+        <v>43576</v>
       </c>
       <c r="B114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D114">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="E114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43578</v>
+        <v>43577</v>
       </c>
       <c r="B115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D115">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f t="shared" si="10"/>
+        <v>22</v>
       </c>
       <c r="E115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43579</v>
+        <v>43578</v>
       </c>
       <c r="B116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D116">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" si="10"/>
+        <v>23</v>
       </c>
       <c r="E116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43580</v>
+        <v>43579</v>
       </c>
       <c r="B117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D117">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f t="shared" si="10"/>
+        <v>24</v>
       </c>
       <c r="E117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43581</v>
+        <v>43580</v>
       </c>
       <c r="B118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D118">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="10"/>
+        <v>25</v>
       </c>
       <c r="E118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43582</v>
+        <v>43581</v>
       </c>
       <c r="B119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D119">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f t="shared" si="10"/>
+        <v>26</v>
       </c>
       <c r="E119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43583</v>
+        <v>43582</v>
       </c>
       <c r="B120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D120">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="10"/>
+        <v>27</v>
       </c>
       <c r="E120">
-        <f t="shared" si="7"/>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43584</v>
+        <v>43583</v>
       </c>
       <c r="B121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D121">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <f t="shared" si="10"/>
+        <v>28</v>
       </c>
       <c r="E121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43585</v>
+        <v>43584</v>
       </c>
       <c r="B122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D122">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="10"/>
+        <v>29</v>
       </c>
       <c r="E122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43586</v>
+        <v>43585</v>
       </c>
       <c r="B123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C123">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="D123">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="E123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43587</v>
+        <v>43586</v>
       </c>
       <c r="B124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D124">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43588</v>
+        <v>43587</v>
       </c>
       <c r="B125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D125">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="E125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43589</v>
+        <v>43588</v>
       </c>
       <c r="B126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D126">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="E126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43590</v>
+        <v>43589</v>
       </c>
       <c r="B127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D127">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="E127">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43591</v>
+        <v>43590</v>
       </c>
       <c r="B128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D128">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="E128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43592</v>
+        <v>43591</v>
       </c>
       <c r="B129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D129">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="E129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43593</v>
+        <v>43592</v>
       </c>
       <c r="B130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D130">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="E130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43594</v>
+        <v>43593</v>
       </c>
       <c r="B131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D131">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="E131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43595</v>
+        <v>43594</v>
       </c>
       <c r="B132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D132">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="E132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43596</v>
+        <v>43595</v>
       </c>
       <c r="B133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D133">
-        <f t="shared" si="6"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="E133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43597</v>
+        <v>43596</v>
       </c>
       <c r="B134">
-        <f t="shared" ref="B134:B197" si="8">YEAR(A134)</f>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C197" si="9">MONTH(A134)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D134">
-        <f t="shared" ref="D134:D197" si="10">DAY(A134)</f>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="E134">
-        <f t="shared" ref="E134:E197" si="11">WEEKNUM(A134)</f>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43598</v>
+        <v>43597</v>
       </c>
       <c r="B135">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B135:B198" si="12">YEAR(A135)</f>
         <v>2019</v>
       </c>
       <c r="C135">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C135:C198" si="13">MONTH(A135)</f>
         <v>5</v>
       </c>
       <c r="D135">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" ref="D135:D198" si="14">DAY(A135)</f>
+        <v>12</v>
       </c>
       <c r="E135">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E135:E198" si="15">WEEKNUM(A135)</f>
         <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43599</v>
+        <v>43598</v>
       </c>
       <c r="B136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D136">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" si="14"/>
+        <v>13</v>
       </c>
       <c r="E136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43600</v>
+        <v>43599</v>
       </c>
       <c r="B137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D137">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="E137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43601</v>
+        <v>43600</v>
       </c>
       <c r="B138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D138">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="E138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43602</v>
+        <v>43601</v>
       </c>
       <c r="B139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D139">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
       <c r="E139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43603</v>
+        <v>43602</v>
       </c>
       <c r="B140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D140">
-        <f t="shared" si="10"/>
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>17</v>
       </c>
       <c r="E140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43604</v>
+        <v>43603</v>
       </c>
       <c r="B141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D141">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
       <c r="E141">
-        <f t="shared" si="11"/>
-        <v>21</v>
+        <f t="shared" si="15"/>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43605</v>
+        <v>43604</v>
       </c>
       <c r="B142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D142">
-        <f t="shared" si="10"/>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
       <c r="E142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>43606</v>
+        <v>43605</v>
       </c>
       <c r="B143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D143">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="E143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>43607</v>
+        <v>43606</v>
       </c>
       <c r="B144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D144">
-        <f t="shared" si="10"/>
-        <v>22</v>
+        <f t="shared" si="14"/>
+        <v>21</v>
       </c>
       <c r="E144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>43608</v>
+        <v>43607</v>
       </c>
       <c r="B145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D145">
-        <f t="shared" si="10"/>
-        <v>23</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="E145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>43609</v>
+        <v>43608</v>
       </c>
       <c r="B146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D146">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="14"/>
+        <v>23</v>
       </c>
       <c r="E146">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>43610</v>
+        <v>43609</v>
       </c>
       <c r="B147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D147">
-        <f t="shared" si="10"/>
-        <v>25</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="E147">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>43611</v>
+        <v>43610</v>
       </c>
       <c r="B148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D148">
-        <f t="shared" si="10"/>
-        <v>26</v>
+        <f t="shared" si="14"/>
+        <v>25</v>
       </c>
       <c r="E148">
-        <f t="shared" si="11"/>
-        <v>22</v>
+        <f t="shared" si="15"/>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>43612</v>
+        <v>43611</v>
       </c>
       <c r="B149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D149">
-        <f t="shared" si="10"/>
-        <v>27</v>
+        <f t="shared" si="14"/>
+        <v>26</v>
       </c>
       <c r="E149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>43613</v>
+        <v>43612</v>
       </c>
       <c r="B150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D150">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <f t="shared" si="14"/>
+        <v>27</v>
       </c>
       <c r="E150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>43614</v>
+        <v>43613</v>
       </c>
       <c r="B151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D151">
-        <f t="shared" si="10"/>
-        <v>29</v>
+        <f t="shared" si="14"/>
+        <v>28</v>
       </c>
       <c r="E151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>43615</v>
+        <v>43614</v>
       </c>
       <c r="B152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D152">
-        <f t="shared" si="10"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>29</v>
       </c>
       <c r="E152">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>43616</v>
+        <v>43615</v>
       </c>
       <c r="B153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D153">
-        <f t="shared" si="10"/>
-        <v>31</v>
+        <f t="shared" si="14"/>
+        <v>30</v>
       </c>
       <c r="E153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>43617</v>
+        <v>43616</v>
       </c>
       <c r="B154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C154">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="D154">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>31</v>
       </c>
       <c r="E154">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>43618</v>
+        <v>43617</v>
       </c>
       <c r="B155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D155">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="E155">
-        <f t="shared" si="11"/>
-        <v>23</v>
+        <f t="shared" si="15"/>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>43619</v>
+        <v>43618</v>
       </c>
       <c r="B156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D156">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="E156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>43620</v>
+        <v>43619</v>
       </c>
       <c r="B157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D157">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="E157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>43621</v>
+        <v>43620</v>
       </c>
       <c r="B158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D158">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="E158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>43622</v>
+        <v>43621</v>
       </c>
       <c r="B159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D159">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="E159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>43623</v>
+        <v>43622</v>
       </c>
       <c r="B160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D160">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="E160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>43624</v>
+        <v>43623</v>
       </c>
       <c r="B161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D161">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
       <c r="E161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>43625</v>
+        <v>43624</v>
       </c>
       <c r="B162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D162">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
       <c r="E162">
-        <f t="shared" si="11"/>
-        <v>24</v>
+        <f t="shared" si="15"/>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>43626</v>
+        <v>43625</v>
       </c>
       <c r="B163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D163">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>9</v>
       </c>
       <c r="E163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>43627</v>
+        <v>43626</v>
       </c>
       <c r="B164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D164">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>10</v>
       </c>
       <c r="E164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>43628</v>
+        <v>43627</v>
       </c>
       <c r="B165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D165">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="E165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>43629</v>
+        <v>43628</v>
       </c>
       <c r="B166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D166">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
       <c r="E166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>43630</v>
+        <v>43629</v>
       </c>
       <c r="B167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D167">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" si="14"/>
+        <v>13</v>
       </c>
       <c r="E167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>43631</v>
+        <v>43630</v>
       </c>
       <c r="B168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D168">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="E168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>43632</v>
+        <v>43631</v>
       </c>
       <c r="B169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D169">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="E169">
-        <f t="shared" si="11"/>
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>43633</v>
+        <v>43632</v>
       </c>
       <c r="B170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D170">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
       <c r="E170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>43634</v>
+        <v>43633</v>
       </c>
       <c r="B171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D171">
-        <f t="shared" si="10"/>
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>17</v>
       </c>
       <c r="E171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>43635</v>
+        <v>43634</v>
       </c>
       <c r="B172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D172">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
       <c r="E172">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>43636</v>
+        <v>43635</v>
       </c>
       <c r="B173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D173">
-        <f t="shared" si="10"/>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
       <c r="E173">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>43637</v>
+        <v>43636</v>
       </c>
       <c r="B174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D174">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="E174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>43638</v>
+        <v>43637</v>
       </c>
       <c r="B175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D175">
-        <f t="shared" si="10"/>
-        <v>22</v>
+        <f t="shared" si="14"/>
+        <v>21</v>
       </c>
       <c r="E175">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>43639</v>
+        <v>43638</v>
       </c>
       <c r="B176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D176">
-        <f t="shared" si="10"/>
-        <v>23</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="E176">
-        <f t="shared" si="11"/>
-        <v>26</v>
+        <f t="shared" si="15"/>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>43640</v>
+        <v>43639</v>
       </c>
       <c r="B177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D177">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="14"/>
+        <v>23</v>
       </c>
       <c r="E177">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>43641</v>
+        <v>43640</v>
       </c>
       <c r="B178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D178">
-        <f t="shared" si="10"/>
-        <v>25</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="E178">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>43642</v>
+        <v>43641</v>
       </c>
       <c r="B179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D179">
-        <f t="shared" si="10"/>
-        <v>26</v>
+        <f t="shared" si="14"/>
+        <v>25</v>
       </c>
       <c r="E179">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>43643</v>
+        <v>43642</v>
       </c>
       <c r="B180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D180">
-        <f t="shared" si="10"/>
-        <v>27</v>
+        <f t="shared" si="14"/>
+        <v>26</v>
       </c>
       <c r="E180">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="B181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D181">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <f t="shared" si="14"/>
+        <v>27</v>
       </c>
       <c r="E181">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>43645</v>
+        <v>43644</v>
       </c>
       <c r="B182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D182">
-        <f t="shared" si="10"/>
-        <v>29</v>
+        <f t="shared" si="14"/>
+        <v>28</v>
       </c>
       <c r="E182">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>43646</v>
+        <v>43645</v>
       </c>
       <c r="B183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D183">
-        <f t="shared" si="10"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>29</v>
       </c>
       <c r="E183">
-        <f t="shared" si="11"/>
-        <v>27</v>
+        <f t="shared" si="15"/>
+        <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>43647</v>
+        <v>43646</v>
       </c>
       <c r="B184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C184">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="D184">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>30</v>
       </c>
       <c r="E184">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>43648</v>
+        <v>43647</v>
       </c>
       <c r="B185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D185">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="E185">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>43649</v>
+        <v>43648</v>
       </c>
       <c r="B186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D186">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="E186">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>43650</v>
+        <v>43649</v>
       </c>
       <c r="B187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D187">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="E187">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>43651</v>
+        <v>43650</v>
       </c>
       <c r="B188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D188">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="E188">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>43652</v>
+        <v>43651</v>
       </c>
       <c r="B189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D189">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="E189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>43653</v>
+        <v>43652</v>
       </c>
       <c r="B190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D190">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="E190">
-        <f t="shared" si="11"/>
-        <v>28</v>
+        <f t="shared" si="15"/>
+        <v>27</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>43654</v>
+        <v>43653</v>
       </c>
       <c r="B191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D191">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
       <c r="E191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>43655</v>
+        <v>43654</v>
       </c>
       <c r="B192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D192">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
       <c r="E192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>43656</v>
+        <v>43655</v>
       </c>
       <c r="B193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D193">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>9</v>
       </c>
       <c r="E193">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>43657</v>
+        <v>43656</v>
       </c>
       <c r="B194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D194">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>10</v>
       </c>
       <c r="E194">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>43658</v>
+        <v>43657</v>
       </c>
       <c r="B195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D195">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="E195">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>43659</v>
+        <v>43658</v>
       </c>
       <c r="B196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D196">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
       <c r="E196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>43660</v>
+        <v>43659</v>
       </c>
       <c r="B197">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D197">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" si="14"/>
+        <v>13</v>
       </c>
       <c r="E197">
-        <f t="shared" si="11"/>
-        <v>29</v>
+        <f t="shared" si="15"/>
+        <v>28</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>43661</v>
+        <v>43660</v>
       </c>
       <c r="B198">
-        <f t="shared" ref="B198:B261" si="12">YEAR(A198)</f>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:C261" si="13">MONTH(A198)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D198">
-        <f t="shared" ref="D198:D261" si="14">DAY(A198)</f>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="E198">
-        <f t="shared" ref="E198:E261" si="15">WEEKNUM(A198)</f>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>43662</v>
+        <v>43661</v>
       </c>
       <c r="B199">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B199:B262" si="16">YEAR(A199)</f>
         <v>2019</v>
       </c>
       <c r="C199">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C199:C262" si="17">MONTH(A199)</f>
         <v>7</v>
       </c>
       <c r="D199">
-        <f t="shared" si="14"/>
-        <v>16</v>
+        <f t="shared" ref="D199:D262" si="18">DAY(A199)</f>
+        <v>15</v>
       </c>
       <c r="E199">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E199:E262" si="19">WEEKNUM(A199)</f>
         <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>43663</v>
+        <v>43662</v>
       </c>
       <c r="B200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D200">
-        <f t="shared" si="14"/>
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>16</v>
       </c>
       <c r="E200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="B201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D201">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
       <c r="E201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="B202">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C202">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D202">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="E202">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="B203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C203">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D203">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
       <c r="E203">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>43667</v>
+        <v>43666</v>
       </c>
       <c r="B204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C204">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D204">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="E204">
-        <f t="shared" si="15"/>
-        <v>30</v>
+        <f t="shared" si="19"/>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>43668</v>
+        <v>43667</v>
       </c>
       <c r="B205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C205">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D205">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <f t="shared" si="18"/>
+        <v>21</v>
       </c>
       <c r="E205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>43669</v>
+        <v>43668</v>
       </c>
       <c r="B206">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C206">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D206">
-        <f t="shared" si="14"/>
-        <v>23</v>
+        <f t="shared" si="18"/>
+        <v>22</v>
       </c>
       <c r="E206">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>43670</v>
+        <v>43669</v>
       </c>
       <c r="B207">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C207">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D207">
-        <f t="shared" si="14"/>
-        <v>24</v>
+        <f t="shared" si="18"/>
+        <v>23</v>
       </c>
       <c r="E207">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>43671</v>
+        <v>43670</v>
       </c>
       <c r="B208">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C208">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D208">
-        <f t="shared" si="14"/>
-        <v>25</v>
+        <f t="shared" si="18"/>
+        <v>24</v>
       </c>
       <c r="E208">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>43672</v>
+        <v>43671</v>
       </c>
       <c r="B209">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C209">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D209">
-        <f t="shared" si="14"/>
-        <v>26</v>
+        <f t="shared" si="18"/>
+        <v>25</v>
       </c>
       <c r="E209">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>43673</v>
+        <v>43672</v>
       </c>
       <c r="B210">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C210">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D210">
-        <f t="shared" si="14"/>
-        <v>27</v>
+        <f t="shared" si="18"/>
+        <v>26</v>
       </c>
       <c r="E210">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>43674</v>
+        <v>43673</v>
       </c>
       <c r="B211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C211">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D211">
-        <f t="shared" si="14"/>
-        <v>28</v>
+        <f t="shared" si="18"/>
+        <v>27</v>
       </c>
       <c r="E211">
-        <f t="shared" si="15"/>
-        <v>31</v>
+        <f t="shared" si="19"/>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>43675</v>
+        <v>43674</v>
       </c>
       <c r="B212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C212">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D212">
-        <f t="shared" si="14"/>
-        <v>29</v>
+        <f t="shared" si="18"/>
+        <v>28</v>
       </c>
       <c r="E212">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>43676</v>
+        <v>43675</v>
       </c>
       <c r="B213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D213">
-        <f t="shared" si="14"/>
-        <v>30</v>
+        <f t="shared" si="18"/>
+        <v>29</v>
       </c>
       <c r="E213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>43677</v>
+        <v>43676</v>
       </c>
       <c r="B214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D214">
-        <f t="shared" si="14"/>
-        <v>31</v>
+        <f t="shared" si="18"/>
+        <v>30</v>
       </c>
       <c r="E214">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>43678</v>
+        <v>43677</v>
       </c>
       <c r="B215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C215">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f t="shared" si="17"/>
+        <v>7</v>
       </c>
       <c r="D215">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>31</v>
       </c>
       <c r="E215">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>43679</v>
+        <v>43678</v>
       </c>
       <c r="B216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C216">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D216">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="E216">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>43680</v>
+        <v>43679</v>
       </c>
       <c r="B217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C217">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D217">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="E217">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>43681</v>
+        <v>43680</v>
       </c>
       <c r="B218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C218">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D218">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="E218">
-        <f t="shared" si="15"/>
-        <v>32</v>
+        <f t="shared" si="19"/>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>43682</v>
+        <v>43681</v>
       </c>
       <c r="B219">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C219">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D219">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="E219">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>43683</v>
+        <v>43682</v>
       </c>
       <c r="B220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C220">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D220">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="E220">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>43684</v>
+        <v>43683</v>
       </c>
       <c r="B221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C221">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D221">
-        <f t="shared" si="14"/>
-        <v>7</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="E221">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="B222">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C222">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D222">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="18"/>
+        <v>7</v>
       </c>
       <c r="E222">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="B223">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C223">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D223">
-        <f t="shared" si="14"/>
-        <v>9</v>
+        <f t="shared" si="18"/>
+        <v>8</v>
       </c>
       <c r="E223">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>43687</v>
+        <v>43686</v>
       </c>
       <c r="B224">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C224">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D224">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>9</v>
       </c>
       <c r="E224">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>43688</v>
+        <v>43687</v>
       </c>
       <c r="B225">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C225">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D225">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="E225">
-        <f t="shared" si="15"/>
-        <v>33</v>
+        <f t="shared" si="19"/>
+        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>43689</v>
+        <v>43688</v>
       </c>
       <c r="B226">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C226">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D226">
-        <f t="shared" si="14"/>
-        <v>12</v>
+        <f t="shared" si="18"/>
+        <v>11</v>
       </c>
       <c r="E226">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>43690</v>
+        <v>43689</v>
       </c>
       <c r="B227">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C227">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D227">
-        <f t="shared" si="14"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>12</v>
       </c>
       <c r="E227">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>43691</v>
+        <v>43690</v>
       </c>
       <c r="B228">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C228">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D228">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>13</v>
       </c>
       <c r="E228">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>43692</v>
+        <v>43691</v>
       </c>
       <c r="B229">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C229">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D229">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="E229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>43693</v>
+        <v>43692</v>
       </c>
       <c r="B230">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C230">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D230">
-        <f t="shared" si="14"/>
-        <v>16</v>
+        <f t="shared" si="18"/>
+        <v>15</v>
       </c>
       <c r="E230">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>43694</v>
+        <v>43693</v>
       </c>
       <c r="B231">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D231">
-        <f t="shared" si="14"/>
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>16</v>
       </c>
       <c r="E231">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>43695</v>
+        <v>43694</v>
       </c>
       <c r="B232">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C232">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D232">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
       <c r="E232">
-        <f t="shared" si="15"/>
-        <v>34</v>
+        <f t="shared" si="19"/>
+        <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>43696</v>
+        <v>43695</v>
       </c>
       <c r="B233">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C233">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D233">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="E233">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>43697</v>
+        <v>43696</v>
       </c>
       <c r="B234">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C234">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D234">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
       <c r="E234">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>43698</v>
+        <v>43697</v>
       </c>
       <c r="B235">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C235">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D235">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="E235">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>43699</v>
+        <v>43698</v>
       </c>
       <c r="B236">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C236">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D236">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <f t="shared" si="18"/>
+        <v>21</v>
       </c>
       <c r="E236">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>43700</v>
+        <v>43699</v>
       </c>
       <c r="B237">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C237">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D237">
-        <f t="shared" si="14"/>
-        <v>23</v>
+        <f t="shared" si="18"/>
+        <v>22</v>
       </c>
       <c r="E237">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>43701</v>
+        <v>43700</v>
       </c>
       <c r="B238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C238">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D238">
-        <f t="shared" si="14"/>
-        <v>24</v>
+        <f t="shared" si="18"/>
+        <v>23</v>
       </c>
       <c r="E238">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>43702</v>
+        <v>43701</v>
       </c>
       <c r="B239">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C239">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D239">
-        <f t="shared" si="14"/>
-        <v>25</v>
+        <f t="shared" si="18"/>
+        <v>24</v>
       </c>
       <c r="E239">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <f t="shared" si="19"/>
+        <v>34</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>43703</v>
+        <v>43702</v>
       </c>
       <c r="B240">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C240">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D240">
-        <f t="shared" si="14"/>
-        <v>26</v>
+        <f t="shared" si="18"/>
+        <v>25</v>
       </c>
       <c r="E240">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>43704</v>
+        <v>43703</v>
       </c>
       <c r="B241">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C241">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D241">
-        <f t="shared" si="14"/>
-        <v>27</v>
+        <f t="shared" si="18"/>
+        <v>26</v>
       </c>
       <c r="E241">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>43705</v>
+        <v>43704</v>
       </c>
       <c r="B242">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D242">
-        <f t="shared" si="14"/>
-        <v>28</v>
+        <f t="shared" si="18"/>
+        <v>27</v>
       </c>
       <c r="E242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>43706</v>
+        <v>43705</v>
       </c>
       <c r="B243">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C243">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D243">
-        <f t="shared" si="14"/>
-        <v>29</v>
+        <f t="shared" si="18"/>
+        <v>28</v>
       </c>
       <c r="E243">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>43707</v>
+        <v>43706</v>
       </c>
       <c r="B244">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C244">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D244">
-        <f t="shared" si="14"/>
-        <v>30</v>
+        <f t="shared" si="18"/>
+        <v>29</v>
       </c>
       <c r="E244">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>43708</v>
+        <v>43707</v>
       </c>
       <c r="B245">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C245">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="D245">
-        <f t="shared" si="14"/>
-        <v>31</v>
+        <f t="shared" si="18"/>
+        <v>30</v>
       </c>
       <c r="E245">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>43709</v>
+        <v>43708</v>
       </c>
       <c r="B246">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C246">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="D246">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>31</v>
       </c>
       <c r="E246">
-        <f t="shared" si="15"/>
-        <v>36</v>
+        <f t="shared" si="19"/>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>43710</v>
+        <v>43709</v>
       </c>
       <c r="B247">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C247">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D247">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="E247">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>43711</v>
+        <v>43710</v>
       </c>
       <c r="B248">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C248">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D248">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="E248">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>43712</v>
+        <v>43711</v>
       </c>
       <c r="B249">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C249">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D249">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="E249">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>43713</v>
+        <v>43712</v>
       </c>
       <c r="B250">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C250">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D250">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="E250">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>43714</v>
+        <v>43713</v>
       </c>
       <c r="B251">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C251">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D251">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="E251">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>43715</v>
+        <v>43714</v>
       </c>
       <c r="B252">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C252">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D252">
-        <f t="shared" si="14"/>
-        <v>7</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="E252">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>43716</v>
+        <v>43715</v>
       </c>
       <c r="B253">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C253">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D253">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="18"/>
+        <v>7</v>
       </c>
       <c r="E253">
-        <f t="shared" si="15"/>
-        <v>37</v>
+        <f t="shared" si="19"/>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>43717</v>
+        <v>43716</v>
       </c>
       <c r="B254">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C254">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D254">
-        <f t="shared" si="14"/>
-        <v>9</v>
+        <f t="shared" si="18"/>
+        <v>8</v>
       </c>
       <c r="E254">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>43718</v>
+        <v>43717</v>
       </c>
       <c r="B255">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C255">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D255">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>9</v>
       </c>
       <c r="E255">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>43719</v>
+        <v>43718</v>
       </c>
       <c r="B256">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C256">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D256">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="E256">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>43720</v>
+        <v>43719</v>
       </c>
       <c r="B257">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C257">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D257">
-        <f t="shared" si="14"/>
-        <v>12</v>
+        <f t="shared" si="18"/>
+        <v>11</v>
       </c>
       <c r="E257">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="B258">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C258">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D258">
-        <f t="shared" si="14"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>12</v>
       </c>
       <c r="E258">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>43722</v>
+        <v>43721</v>
       </c>
       <c r="B259">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C259">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D259">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>13</v>
       </c>
       <c r="E259">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="B260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D260">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="E260">
-        <f t="shared" si="15"/>
-        <v>38</v>
+        <f t="shared" si="19"/>
+        <v>37</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43724</v>
+        <v>43723</v>
       </c>
       <c r="B261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D261">
-        <f t="shared" si="14"/>
-        <v>16</v>
+        <f t="shared" si="18"/>
+        <v>15</v>
       </c>
       <c r="E261">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>38</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>43725</v>
+        <v>43724</v>
       </c>
       <c r="B262">
-        <f t="shared" ref="B262:B325" si="16">YEAR(A262)</f>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C262">
-        <f t="shared" ref="C262:C325" si="17">MONTH(A262)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="D262">
-        <f t="shared" ref="D262:D325" si="18">DAY(A262)</f>
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>16</v>
       </c>
       <c r="E262">
-        <f t="shared" ref="E262:E325" si="19">WEEKNUM(A262)</f>
+        <f t="shared" si="19"/>
         <v>38</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>43726</v>
+        <v>43725</v>
       </c>
       <c r="B263">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B263:B326" si="20">YEAR(A263)</f>
         <v>2019</v>
       </c>
       <c r="C263">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="C263:C326" si="21">MONTH(A263)</f>
         <v>9</v>
       </c>
       <c r="D263">
-        <f t="shared" si="18"/>
-        <v>18</v>
+        <f t="shared" ref="D263:D326" si="22">DAY(A263)</f>
+        <v>17</v>
       </c>
       <c r="E263">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="E263:E326" si="23">WEEKNUM(A263)</f>
         <v>38</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43727</v>
+        <v>43726</v>
       </c>
       <c r="B264">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C264">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D264">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="22"/>
+        <v>18</v>
       </c>
       <c r="E264">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>43728</v>
+        <v>43727</v>
       </c>
       <c r="B265">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C265">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D265">
-        <f t="shared" si="18"/>
-        <v>20</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="E265">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>43729</v>
+        <v>43728</v>
       </c>
       <c r="B266">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C266">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D266">
-        <f t="shared" si="18"/>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>20</v>
       </c>
       <c r="E266">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>43730</v>
+        <v>43729</v>
       </c>
       <c r="B267">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C267">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D267">
-        <f t="shared" si="18"/>
-        <v>22</v>
+        <f t="shared" si="22"/>
+        <v>21</v>
       </c>
       <c r="E267">
-        <f t="shared" si="19"/>
-        <v>39</v>
+        <f t="shared" si="23"/>
+        <v>38</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>43731</v>
+        <v>43730</v>
       </c>
       <c r="B268">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C268">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D268">
-        <f t="shared" si="18"/>
-        <v>23</v>
+        <f t="shared" si="22"/>
+        <v>22</v>
       </c>
       <c r="E268">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>39</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="B269">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C269">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D269">
-        <f t="shared" si="18"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>23</v>
       </c>
       <c r="E269">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>39</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>43733</v>
+        <v>43732</v>
       </c>
       <c r="B270">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C270">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D270">
-        <f t="shared" si="18"/>
-        <v>25</v>
+        <f t="shared" si="22"/>
+        <v>24</v>
       </c>
       <c r="E270">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>39</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>43734</v>
+        <v>43733</v>
       </c>
       <c r="B271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C271">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D271">
-        <f t="shared" si="18"/>
-        <v>26</v>
+        <f t="shared" si="22"/>
+        <v>25</v>
       </c>
       <c r="E271">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>39</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>43735</v>
+        <v>43734</v>
       </c>
       <c r="B272">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C272">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D272">
-        <f t="shared" si="18"/>
-        <v>27</v>
+        <f t="shared" si="22"/>
+        <v>26</v>
       </c>
       <c r="E272">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>39</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>43736</v>
+        <v>43735</v>
       </c>
       <c r="B273">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C273">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D273">
-        <f t="shared" si="18"/>
-        <v>28</v>
+        <f t="shared" si="22"/>
+        <v>27</v>
       </c>
       <c r="E273">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>39</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>43737</v>
+        <v>43736</v>
       </c>
       <c r="B274">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C274">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D274">
-        <f t="shared" si="18"/>
-        <v>29</v>
+        <f t="shared" si="22"/>
+        <v>28</v>
       </c>
       <c r="E274">
-        <f t="shared" si="19"/>
-        <v>40</v>
+        <f t="shared" si="23"/>
+        <v>39</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>43738</v>
+        <v>43737</v>
       </c>
       <c r="B275">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C275">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D275">
-        <f t="shared" si="18"/>
-        <v>30</v>
+        <f t="shared" si="22"/>
+        <v>29</v>
       </c>
       <c r="E275">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>43739</v>
+        <v>43738</v>
       </c>
       <c r="B276">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C276">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="21"/>
+        <v>9</v>
       </c>
       <c r="D276">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>30</v>
       </c>
       <c r="E276">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>43740</v>
+        <v>43739</v>
       </c>
       <c r="B277">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D277">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="E277">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>43741</v>
+        <v>43740</v>
       </c>
       <c r="B278">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C278">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D278">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="E278">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>43742</v>
+        <v>43741</v>
       </c>
       <c r="B279">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C279">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D279">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="E279">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>43743</v>
+        <v>43742</v>
       </c>
       <c r="B280">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D280">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="E280">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>43744</v>
+        <v>43743</v>
       </c>
       <c r="B281">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C281">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D281">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
       <c r="E281">
-        <f t="shared" si="19"/>
-        <v>41</v>
+        <f t="shared" si="23"/>
+        <v>40</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>43745</v>
+        <v>43744</v>
       </c>
       <c r="B282">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C282">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D282">
-        <f t="shared" si="18"/>
-        <v>7</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
       <c r="E282">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>43746</v>
+        <v>43745</v>
       </c>
       <c r="B283">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C283">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D283">
-        <f t="shared" si="18"/>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="E283">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>43747</v>
+        <v>43746</v>
       </c>
       <c r="B284">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C284">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D284">
-        <f t="shared" si="18"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>8</v>
       </c>
       <c r="E284">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>43748</v>
+        <v>43747</v>
       </c>
       <c r="B285">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C285">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D285">
-        <f t="shared" si="18"/>
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="E285">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>43749</v>
+        <v>43748</v>
       </c>
       <c r="B286">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C286">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D286">
-        <f t="shared" si="18"/>
-        <v>11</v>
+        <f t="shared" si="22"/>
+        <v>10</v>
       </c>
       <c r="E286">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>43750</v>
+        <v>43749</v>
       </c>
       <c r="B287">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C287">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D287">
-        <f t="shared" si="18"/>
-        <v>12</v>
+        <f t="shared" si="22"/>
+        <v>11</v>
       </c>
       <c r="E287">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>43751</v>
+        <v>43750</v>
       </c>
       <c r="B288">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C288">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D288">
-        <f t="shared" si="18"/>
-        <v>13</v>
+        <f t="shared" si="22"/>
+        <v>12</v>
       </c>
       <c r="E288">
-        <f t="shared" si="19"/>
-        <v>42</v>
+        <f t="shared" si="23"/>
+        <v>41</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>43752</v>
+        <v>43751</v>
       </c>
       <c r="B289">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C289">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D289">
-        <f t="shared" si="18"/>
-        <v>14</v>
+        <f t="shared" si="22"/>
+        <v>13</v>
       </c>
       <c r="E289">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>43753</v>
+        <v>43752</v>
       </c>
       <c r="B290">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C290">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D290">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="22"/>
+        <v>14</v>
       </c>
       <c r="E290">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>43754</v>
+        <v>43753</v>
       </c>
       <c r="B291">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C291">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D291">
-        <f t="shared" si="18"/>
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="E291">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>43755</v>
+        <v>43754</v>
       </c>
       <c r="B292">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C292">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D292">
-        <f t="shared" si="18"/>
-        <v>17</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="E292">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>43756</v>
+        <v>43755</v>
       </c>
       <c r="B293">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C293">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D293">
-        <f t="shared" si="18"/>
-        <v>18</v>
+        <f t="shared" si="22"/>
+        <v>17</v>
       </c>
       <c r="E293">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>43757</v>
+        <v>43756</v>
       </c>
       <c r="B294">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C294">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D294">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="22"/>
+        <v>18</v>
       </c>
       <c r="E294">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>43758</v>
+        <v>43757</v>
       </c>
       <c r="B295">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C295">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D295">
-        <f t="shared" si="18"/>
-        <v>20</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="E295">
-        <f t="shared" si="19"/>
-        <v>43</v>
+        <f t="shared" si="23"/>
+        <v>42</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>43759</v>
+        <v>43758</v>
       </c>
       <c r="B296">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C296">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D296">
-        <f t="shared" si="18"/>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>20</v>
       </c>
       <c r="E296">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>43760</v>
+        <v>43759</v>
       </c>
       <c r="B297">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C297">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D297">
-        <f t="shared" si="18"/>
-        <v>22</v>
+        <f t="shared" si="22"/>
+        <v>21</v>
       </c>
       <c r="E297">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>43761</v>
+        <v>43760</v>
       </c>
       <c r="B298">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C298">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D298">
-        <f t="shared" si="18"/>
-        <v>23</v>
+        <f t="shared" si="22"/>
+        <v>22</v>
       </c>
       <c r="E298">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>43762</v>
+        <v>43761</v>
       </c>
       <c r="B299">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C299">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D299">
-        <f t="shared" si="18"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>23</v>
       </c>
       <c r="E299">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B300">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C300">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D300">
-        <f t="shared" si="18"/>
-        <v>25</v>
+        <f t="shared" si="22"/>
+        <v>24</v>
       </c>
       <c r="E300">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B301">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C301">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D301">
-        <f t="shared" si="18"/>
-        <v>26</v>
+        <f t="shared" si="22"/>
+        <v>25</v>
       </c>
       <c r="E301">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>43765</v>
+        <v>43764</v>
       </c>
       <c r="B302">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C302">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D302">
-        <f t="shared" si="18"/>
-        <v>27</v>
+        <f t="shared" si="22"/>
+        <v>26</v>
       </c>
       <c r="E302">
-        <f t="shared" si="19"/>
-        <v>44</v>
+        <f t="shared" si="23"/>
+        <v>43</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>43766</v>
+        <v>43765</v>
       </c>
       <c r="B303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C303">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D303">
-        <f t="shared" si="18"/>
-        <v>28</v>
+        <f t="shared" si="22"/>
+        <v>27</v>
       </c>
       <c r="E303">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>44</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="B304">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D304">
-        <f t="shared" si="18"/>
-        <v>29</v>
+        <f t="shared" si="22"/>
+        <v>28</v>
       </c>
       <c r="E304">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>44</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>43768</v>
+        <v>43767</v>
       </c>
       <c r="B305">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C305">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D305">
-        <f t="shared" si="18"/>
-        <v>30</v>
+        <f t="shared" si="22"/>
+        <v>29</v>
       </c>
       <c r="E305">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>44</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>43769</v>
+        <v>43768</v>
       </c>
       <c r="B306">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C306">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D306">
-        <f t="shared" si="18"/>
-        <v>31</v>
+        <f t="shared" si="22"/>
+        <v>30</v>
       </c>
       <c r="E306">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>44</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>43770</v>
+        <v>43769</v>
       </c>
       <c r="B307">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C307">
-        <f t="shared" si="17"/>
-        <v>11</v>
+        <f t="shared" si="21"/>
+        <v>10</v>
       </c>
       <c r="D307">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>31</v>
       </c>
       <c r="E307">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>44</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>43771</v>
+        <v>43770</v>
       </c>
       <c r="B308">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C308">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D308">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="E308">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>43772</v>
+        <v>43771</v>
       </c>
       <c r="B309">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C309">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D309">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="E309">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <f t="shared" si="23"/>
+        <v>44</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>43773</v>
+        <v>43772</v>
       </c>
       <c r="B310">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C310">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D310">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="E310">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>43774</v>
+        <v>43773</v>
       </c>
       <c r="B311">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C311">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D311">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="E311">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>43775</v>
+        <v>43774</v>
       </c>
       <c r="B312">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C312">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D312">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
       <c r="E312">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>43776</v>
+        <v>43775</v>
       </c>
       <c r="B313">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C313">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D313">
-        <f t="shared" si="18"/>
-        <v>7</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
       <c r="E313">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>43777</v>
+        <v>43776</v>
       </c>
       <c r="B314">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C314">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D314">
-        <f t="shared" si="18"/>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="E314">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>43778</v>
+        <v>43777</v>
       </c>
       <c r="B315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C315">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D315">
-        <f t="shared" si="18"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>8</v>
       </c>
       <c r="E315">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>43779</v>
+        <v>43778</v>
       </c>
       <c r="B316">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C316">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D316">
-        <f t="shared" si="18"/>
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="E316">
-        <f t="shared" si="19"/>
-        <v>46</v>
+        <f t="shared" si="23"/>
+        <v>45</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>43780</v>
+        <v>43779</v>
       </c>
       <c r="B317">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C317">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D317">
-        <f t="shared" si="18"/>
-        <v>11</v>
+        <f t="shared" si="22"/>
+        <v>10</v>
       </c>
       <c r="E317">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>46</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="B318">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C318">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D318">
-        <f t="shared" si="18"/>
-        <v>12</v>
+        <f t="shared" si="22"/>
+        <v>11</v>
       </c>
       <c r="E318">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>46</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>43782</v>
+        <v>43781</v>
       </c>
       <c r="B319">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C319">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D319">
-        <f t="shared" si="18"/>
-        <v>13</v>
+        <f t="shared" si="22"/>
+        <v>12</v>
       </c>
       <c r="E319">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>46</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>43783</v>
+        <v>43782</v>
       </c>
       <c r="B320">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C320">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D320">
-        <f t="shared" si="18"/>
-        <v>14</v>
+        <f t="shared" si="22"/>
+        <v>13</v>
       </c>
       <c r="E320">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>46</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>43784</v>
+        <v>43783</v>
       </c>
       <c r="B321">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C321">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D321">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="22"/>
+        <v>14</v>
       </c>
       <c r="E321">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>46</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>43785</v>
+        <v>43784</v>
       </c>
       <c r="B322">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C322">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D322">
-        <f t="shared" si="18"/>
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="E322">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>46</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>43786</v>
+        <v>43785</v>
       </c>
       <c r="B323">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C323">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D323">
-        <f t="shared" si="18"/>
-        <v>17</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="E323">
-        <f t="shared" si="19"/>
-        <v>47</v>
+        <f t="shared" si="23"/>
+        <v>46</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>43787</v>
+        <v>43786</v>
       </c>
       <c r="B324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C324">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D324">
-        <f t="shared" si="18"/>
-        <v>18</v>
+        <f t="shared" si="22"/>
+        <v>17</v>
       </c>
       <c r="E324">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>47</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>43788</v>
+        <v>43787</v>
       </c>
       <c r="B325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C325">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D325">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="22"/>
+        <v>18</v>
       </c>
       <c r="E325">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>47</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>43789</v>
+        <v>43788</v>
       </c>
       <c r="B326">
-        <f t="shared" ref="B326:B367" si="20">YEAR(A326)</f>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C326">
-        <f t="shared" ref="C326:C367" si="21">MONTH(A326)</f>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="D326">
-        <f t="shared" ref="D326:D367" si="22">DAY(A326)</f>
-        <v>20</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="E326">
-        <f t="shared" ref="E326:E367" si="23">WEEKNUM(A326)</f>
+        <f t="shared" si="23"/>
         <v>47</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>43790</v>
+        <v>43789</v>
       </c>
       <c r="B327">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="B327:B368" si="24">YEAR(A327)</f>
         <v>2019</v>
       </c>
       <c r="C327">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="C327:C368" si="25">MONTH(A327)</f>
         <v>11</v>
       </c>
       <c r="D327">
-        <f t="shared" si="22"/>
-        <v>21</v>
+        <f t="shared" ref="D327:D368" si="26">DAY(A327)</f>
+        <v>20</v>
       </c>
       <c r="E327">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="E327:E368" si="27">WEEKNUM(A327)</f>
         <v>47</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>43791</v>
+        <v>43790</v>
       </c>
       <c r="B328">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C328">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D328">
-        <f t="shared" si="22"/>
-        <v>22</v>
+        <f t="shared" si="26"/>
+        <v>21</v>
       </c>
       <c r="E328">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>43792</v>
+        <v>43791</v>
       </c>
       <c r="B329">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C329">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D329">
-        <f t="shared" si="22"/>
-        <v>23</v>
+        <f t="shared" si="26"/>
+        <v>22</v>
       </c>
       <c r="E329">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>43793</v>
+        <v>43792</v>
       </c>
       <c r="B330">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C330">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D330">
-        <f t="shared" si="22"/>
-        <v>24</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
       <c r="E330">
-        <f t="shared" si="23"/>
-        <v>48</v>
+        <f t="shared" si="27"/>
+        <v>47</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>43794</v>
+        <v>43793</v>
       </c>
       <c r="B331">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C331">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D331">
-        <f t="shared" si="22"/>
-        <v>25</v>
+        <f t="shared" si="26"/>
+        <v>24</v>
       </c>
       <c r="E331">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>43795</v>
+        <v>43794</v>
       </c>
       <c r="B332">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C332">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D332">
-        <f t="shared" si="22"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>25</v>
       </c>
       <c r="E332">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>43796</v>
+        <v>43795</v>
       </c>
       <c r="B333">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C333">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D333">
-        <f t="shared" si="22"/>
-        <v>27</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
       <c r="E333">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="B334">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C334">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D334">
-        <f t="shared" si="22"/>
-        <v>28</v>
+        <f t="shared" si="26"/>
+        <v>27</v>
       </c>
       <c r="E334">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>43798</v>
+        <v>43797</v>
       </c>
       <c r="B335">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C335">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D335">
-        <f t="shared" si="22"/>
-        <v>29</v>
+        <f t="shared" si="26"/>
+        <v>28</v>
       </c>
       <c r="E335">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>43799</v>
+        <v>43798</v>
       </c>
       <c r="B336">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C336">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D336">
-        <f t="shared" si="22"/>
-        <v>30</v>
+        <f t="shared" si="26"/>
+        <v>29</v>
       </c>
       <c r="E336">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>43800</v>
+        <v>43799</v>
       </c>
       <c r="B337">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C337">
-        <f t="shared" si="21"/>
-        <v>12</v>
+        <f t="shared" si="25"/>
+        <v>11</v>
       </c>
       <c r="D337">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>30</v>
       </c>
       <c r="E337">
-        <f t="shared" si="23"/>
-        <v>49</v>
+        <f t="shared" si="27"/>
+        <v>48</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>43801</v>
+        <v>43800</v>
       </c>
       <c r="B338">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C338">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D338">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E338">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>43802</v>
+        <v>43801</v>
       </c>
       <c r="B339">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C339">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D339">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="E339">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>43803</v>
+        <v>43802</v>
       </c>
       <c r="B340">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C340">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D340">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>3</v>
       </c>
       <c r="E340">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>43804</v>
+        <v>43803</v>
       </c>
       <c r="B341">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C341">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D341">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="E341">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>43805</v>
+        <v>43804</v>
       </c>
       <c r="B342">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C342">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D342">
-        <f t="shared" si="22"/>
-        <v>6</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="E342">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>43806</v>
+        <v>43805</v>
       </c>
       <c r="B343">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C343">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D343">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="E343">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>43807</v>
+        <v>43806</v>
       </c>
       <c r="B344">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C344">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D344">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="26"/>
+        <v>7</v>
       </c>
       <c r="E344">
-        <f t="shared" si="23"/>
-        <v>50</v>
+        <f t="shared" si="27"/>
+        <v>49</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>43808</v>
+        <v>43807</v>
       </c>
       <c r="B345">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C345">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D345">
-        <f t="shared" si="22"/>
-        <v>9</v>
+        <f t="shared" si="26"/>
+        <v>8</v>
       </c>
       <c r="E345">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>43809</v>
+        <v>43808</v>
       </c>
       <c r="B346">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C346">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D346">
-        <f t="shared" si="22"/>
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>9</v>
       </c>
       <c r="E346">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>43810</v>
+        <v>43809</v>
       </c>
       <c r="B347">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C347">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D347">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="26"/>
+        <v>10</v>
       </c>
       <c r="E347">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>43811</v>
+        <v>43810</v>
       </c>
       <c r="B348">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C348">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D348">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" si="26"/>
+        <v>11</v>
       </c>
       <c r="E348">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="B349">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C349">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D349">
-        <f t="shared" si="22"/>
-        <v>13</v>
+        <f t="shared" si="26"/>
+        <v>12</v>
       </c>
       <c r="E349">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>43813</v>
+        <v>43812</v>
       </c>
       <c r="B350">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C350">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D350">
-        <f t="shared" si="22"/>
-        <v>14</v>
+        <f t="shared" si="26"/>
+        <v>13</v>
       </c>
       <c r="E350">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>43814</v>
+        <v>43813</v>
       </c>
       <c r="B351">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C351">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D351">
-        <f t="shared" si="22"/>
-        <v>15</v>
+        <f t="shared" si="26"/>
+        <v>14</v>
       </c>
       <c r="E351">
-        <f t="shared" si="23"/>
-        <v>51</v>
+        <f t="shared" si="27"/>
+        <v>50</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>43815</v>
+        <v>43814</v>
       </c>
       <c r="B352">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C352">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D352">
-        <f t="shared" si="22"/>
-        <v>16</v>
+        <f t="shared" si="26"/>
+        <v>15</v>
       </c>
       <c r="E352">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>51</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="B353">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C353">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D353">
-        <f t="shared" si="22"/>
-        <v>17</v>
+        <f t="shared" si="26"/>
+        <v>16</v>
       </c>
       <c r="E353">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>51</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>43817</v>
+        <v>43816</v>
       </c>
       <c r="B354">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C354">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D354">
-        <f t="shared" si="22"/>
-        <v>18</v>
+        <f t="shared" si="26"/>
+        <v>17</v>
       </c>
       <c r="E354">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>51</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>43818</v>
+        <v>43817</v>
       </c>
       <c r="B355">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C355">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D355">
-        <f t="shared" si="22"/>
-        <v>19</v>
+        <f t="shared" si="26"/>
+        <v>18</v>
       </c>
       <c r="E355">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>51</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>43819</v>
+        <v>43818</v>
       </c>
       <c r="B356">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C356">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D356">
-        <f t="shared" si="22"/>
-        <v>20</v>
+        <f t="shared" si="26"/>
+        <v>19</v>
       </c>
       <c r="E356">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>51</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>43820</v>
+        <v>43819</v>
       </c>
       <c r="B357">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C357">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D357">
-        <f t="shared" si="22"/>
-        <v>21</v>
+        <f t="shared" si="26"/>
+        <v>20</v>
       </c>
       <c r="E357">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>51</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>43821</v>
+        <v>43820</v>
       </c>
       <c r="B358">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C358">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D358">
-        <f t="shared" si="22"/>
-        <v>22</v>
+        <f t="shared" si="26"/>
+        <v>21</v>
       </c>
       <c r="E358">
-        <f t="shared" si="23"/>
-        <v>52</v>
+        <f t="shared" si="27"/>
+        <v>51</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>43822</v>
+        <v>43821</v>
       </c>
       <c r="B359">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C359">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D359">
-        <f t="shared" si="22"/>
-        <v>23</v>
+        <f t="shared" si="26"/>
+        <v>22</v>
       </c>
       <c r="E359">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>52</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>43823</v>
+        <v>43822</v>
       </c>
       <c r="B360">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C360">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D360">
-        <f t="shared" si="22"/>
-        <v>24</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
       <c r="E360">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>52</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>43824</v>
+        <v>43823</v>
       </c>
       <c r="B361">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C361">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D361">
-        <f t="shared" si="22"/>
-        <v>25</v>
+        <f t="shared" si="26"/>
+        <v>24</v>
       </c>
       <c r="E361">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>52</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>43825</v>
+        <v>43824</v>
       </c>
       <c r="B362">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C362">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D362">
-        <f t="shared" si="22"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>25</v>
       </c>
       <c r="E362">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>52</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>43826</v>
+        <v>43825</v>
       </c>
       <c r="B363">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C363">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D363">
-        <f t="shared" si="22"/>
-        <v>27</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
       <c r="E363">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>52</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>43827</v>
+        <v>43826</v>
       </c>
       <c r="B364">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C364">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D364">
-        <f t="shared" si="22"/>
-        <v>28</v>
+        <f t="shared" si="26"/>
+        <v>27</v>
       </c>
       <c r="E364">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>52</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>43828</v>
+        <v>43827</v>
       </c>
       <c r="B365">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C365">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D365">
-        <f t="shared" si="22"/>
-        <v>29</v>
+        <f t="shared" si="26"/>
+        <v>28</v>
       </c>
       <c r="E365">
-        <f t="shared" si="23"/>
-        <v>53</v>
+        <f t="shared" si="27"/>
+        <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>43829</v>
+        <v>43828</v>
       </c>
       <c r="B366">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C366">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="D366">
-        <f t="shared" si="22"/>
-        <v>30</v>
+        <f t="shared" si="26"/>
+        <v>29</v>
       </c>
       <c r="E366">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>53</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B367">
+        <f t="shared" si="24"/>
+        <v>2019</v>
+      </c>
+      <c r="C367">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="26"/>
+        <v>30</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="27"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
         <v>43830</v>
       </c>
-      <c r="B367">
-        <f t="shared" si="20"/>
-        <v>2019</v>
-      </c>
-      <c r="C367">
-        <f t="shared" si="21"/>
+      <c r="B368">
+        <f t="shared" si="24"/>
+        <v>2019</v>
+      </c>
+      <c r="C368">
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="D367">
-        <f t="shared" si="22"/>
+      <c r="D368">
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="E367">
-        <f t="shared" si="23"/>
+      <c r="E368">
+        <f t="shared" si="27"/>
         <v>53</v>
       </c>
     </row>
@@ -8194,19 +8227,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082B48B6-1501-774C-818C-F75B39B01AEE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8214,18 +8248,38 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>2013</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2014</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Mobile Documents/com~apple~CloudDocs/Desktop/github-website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4C2EDD-796A-8B4A-941D-8C0B8AF0F241}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1665D229-13C8-C247-9203-D216451B9DCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="800" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
+    <workbookView xWindow="160" yWindow="800" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>An Introduction to the Event-Related Potential Technique (2nd e.)</t>
+  </si>
+  <si>
+    <t>book.year</t>
   </si>
 </sst>
 </file>
@@ -8230,13 +8233,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8248,7 +8251,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1665D229-13C8-C247-9203-D216451B9DCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D859485D-814D-B14B-8FCB-03E3F33713CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="800" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
+    <workbookView xWindow="160" yWindow="800" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F081B7-288B-1045-AB76-1CD03FBCB65E}">
   <dimension ref="A1:G368"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,6 +746,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -767,6 +773,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -788,6 +800,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -809,6 +827,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -829,6 +853,12 @@
       <c r="E16">
         <f t="shared" si="3"/>
         <v>3</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -8232,7 +8262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082B48B6-1501-774C-818C-F75B39B01AEE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Mobile Documents/com~apple~CloudDocs/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D859485D-814D-B14B-8FCB-03E3F33713CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B8ADD3-C516-904C-836C-C76C1121C480}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="800" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
+    <workbookView xWindow="5980" yWindow="1540" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>book.year</t>
+  </si>
+  <si>
+    <t>Analyzing Neural Time Series Data: Theory and Practice</t>
+  </si>
+  <si>
+    <t>Mike X Cohen</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F081B7-288B-1045-AB76-1CD03FBCB65E}">
-  <dimension ref="A1:G368"/>
+  <dimension ref="A1:G369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,19 +575,19 @@
         <v>43469</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B70" si="0">YEAR(A6)</f>
+        <f t="shared" ref="B6:B71" si="0">YEAR(A6)</f>
         <v>2019</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C70" si="1">MONTH(A6)</f>
+        <f t="shared" ref="C6:C71" si="1">MONTH(A6)</f>
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D70" si="2">DAY(A6)</f>
+        <f t="shared" ref="D6:D71" si="2">DAY(A6)</f>
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E70" si="3">WEEKNUM(A6)</f>
+        <f t="shared" ref="E6:E71" si="3">WEEKNUM(A6)</f>
         <v>1</v>
       </c>
       <c r="F6">
@@ -855,13 +861,13 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43479</v>
       </c>
@@ -881,8 +887,14 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43480</v>
       </c>
@@ -902,8 +914,14 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43481</v>
       </c>
@@ -923,8 +941,14 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43482</v>
       </c>
@@ -944,8 +968,14 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43483</v>
       </c>
@@ -965,8 +995,14 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43484</v>
       </c>
@@ -986,8 +1022,14 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43485</v>
       </c>
@@ -1007,8 +1049,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43486</v>
       </c>
@@ -1028,8 +1076,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43487</v>
       </c>
@@ -1049,8 +1103,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43488</v>
       </c>
@@ -1070,8 +1130,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43489</v>
       </c>
@@ -1091,8 +1157,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43490</v>
       </c>
@@ -1112,8 +1184,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43491</v>
       </c>
@@ -1133,8 +1211,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43492</v>
       </c>
@@ -1154,8 +1238,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43493</v>
       </c>
@@ -1175,8 +1265,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43494</v>
       </c>
@@ -1196,8 +1292,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43495</v>
       </c>
@@ -1217,8 +1319,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43496</v>
       </c>
@@ -1238,8 +1346,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43497</v>
       </c>
@@ -1259,8 +1373,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43498</v>
       </c>
@@ -1280,8 +1400,14 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43499</v>
       </c>
@@ -1301,8 +1427,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43500</v>
       </c>
@@ -1322,8 +1454,14 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43501</v>
       </c>
@@ -1343,31 +1481,43 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
+        <v>43501</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="8">YEAR(A40)</f>
+        <v>2019</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="9">MONTH(A40)</f>
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="10">DAY(A40)</f>
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="11">WEEKNUM(A40)</f>
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>43502</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43503</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -1379,16 +1529,22 @@
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43504</v>
+        <v>43503</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -1400,16 +1556,16 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43505</v>
+        <v>43504</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -1421,16 +1577,16 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43506</v>
+        <v>43505</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -1442,16 +1598,16 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43507</v>
+        <v>43506</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -1463,16 +1619,16 @@
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43508</v>
+        <v>43507</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -1484,16 +1640,16 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43509</v>
+        <v>43508</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -1505,16 +1661,16 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43510</v>
+        <v>43509</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -1526,7 +1682,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
@@ -1535,7 +1691,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43511</v>
+        <v>43510</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -1547,7 +1703,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
@@ -1556,7 +1712,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43512</v>
+        <v>43511</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -1568,7 +1724,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
@@ -1577,7 +1733,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43513</v>
+        <v>43512</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -1589,16 +1745,16 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43514</v>
+        <v>43513</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -1610,7 +1766,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
@@ -1619,7 +1775,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43515</v>
+        <v>43514</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -1631,7 +1787,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
@@ -1640,7 +1796,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43516</v>
+        <v>43515</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
@@ -1652,7 +1808,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
@@ -1661,7 +1817,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43517</v>
+        <v>43516</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
@@ -1673,7 +1829,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
@@ -1682,7 +1838,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43518</v>
+        <v>43517</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
@@ -1694,7 +1850,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
@@ -1703,7 +1859,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43519</v>
+        <v>43518</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
@@ -1715,7 +1871,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
@@ -1724,7 +1880,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43520</v>
+        <v>43519</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
@@ -1736,16 +1892,16 @@
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43521</v>
+        <v>43520</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
@@ -1757,7 +1913,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
@@ -1766,7 +1922,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43522</v>
+        <v>43521</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
@@ -1778,7 +1934,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
@@ -1787,7 +1943,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43523</v>
+        <v>43522</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
@@ -1799,7 +1955,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
@@ -1808,7 +1964,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43524</v>
+        <v>43523</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -1820,7 +1976,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
@@ -1829,7 +1985,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43525</v>
+        <v>43524</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
@@ -1837,11 +1993,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
@@ -1850,7 +2006,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43526</v>
+        <v>43525</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
@@ -1862,7 +2018,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
@@ -1871,7 +2027,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43527</v>
+        <v>43526</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
@@ -1883,16 +2039,16 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43528</v>
+        <v>43527</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
@@ -1904,7 +2060,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <f t="shared" si="3"/>
@@ -1913,7 +2069,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43529</v>
+        <v>43528</v>
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
@@ -1925,7 +2081,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <f t="shared" si="3"/>
@@ -1934,7 +2090,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43530</v>
+        <v>43529</v>
       </c>
       <c r="B68">
         <f t="shared" si="0"/>
@@ -1946,7 +2102,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68">
         <f t="shared" si="3"/>
@@ -1955,7 +2111,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43531</v>
+        <v>43530</v>
       </c>
       <c r="B69">
         <f t="shared" si="0"/>
@@ -1967,7 +2123,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <f t="shared" si="3"/>
@@ -1976,7 +2132,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43532</v>
+        <v>43531</v>
       </c>
       <c r="B70">
         <f t="shared" si="0"/>
@@ -1988,7 +2144,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <f t="shared" si="3"/>
@@ -1997,6259 +2153,6280 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43533</v>
+        <v>43532</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:B134" si="8">YEAR(A71)</f>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C134" si="9">MONTH(A71)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71:D134" si="10">DAY(A71)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:E134" si="11">WEEKNUM(A71)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43534</v>
+        <v>43533</v>
       </c>
       <c r="B72">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B72:B135" si="12">YEAR(A72)</f>
         <v>2019</v>
       </c>
       <c r="C72">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C72:C135" si="13">MONTH(A72)</f>
         <v>3</v>
       </c>
       <c r="D72">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D72:D135" si="14">DAY(A72)</f>
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:E135" si="15">WEEKNUM(A72)</f>
         <v>10</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="11"/>
-        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43535</v>
+        <v>43534</v>
       </c>
       <c r="B73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D73">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>10</v>
       </c>
       <c r="E73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43536</v>
+        <v>43535</v>
       </c>
       <c r="B74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D74">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="E74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43537</v>
+        <v>43536</v>
       </c>
       <c r="B75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D75">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
       <c r="E75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43538</v>
+        <v>43537</v>
       </c>
       <c r="B76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D76">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" si="14"/>
+        <v>13</v>
       </c>
       <c r="E76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43539</v>
+        <v>43538</v>
       </c>
       <c r="B77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D77">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="E77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43540</v>
+        <v>43539</v>
       </c>
       <c r="B78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D78">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="E78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43541</v>
+        <v>43540</v>
       </c>
       <c r="B79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D79">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
       <c r="E79">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="15"/>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43542</v>
+        <v>43541</v>
       </c>
       <c r="B80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D80">
-        <f t="shared" si="10"/>
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>17</v>
       </c>
       <c r="E80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43543</v>
+        <v>43542</v>
       </c>
       <c r="B81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D81">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
       <c r="E81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43544</v>
+        <v>43543</v>
       </c>
       <c r="B82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D82">
-        <f t="shared" si="10"/>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
       <c r="E82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43545</v>
+        <v>43544</v>
       </c>
       <c r="B83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D83">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="E83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43546</v>
+        <v>43545</v>
       </c>
       <c r="B84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D84">
-        <f t="shared" si="10"/>
-        <v>22</v>
+        <f t="shared" si="14"/>
+        <v>21</v>
       </c>
       <c r="E84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43547</v>
+        <v>43546</v>
       </c>
       <c r="B85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D85">
-        <f t="shared" si="10"/>
-        <v>23</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="E85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43548</v>
+        <v>43547</v>
       </c>
       <c r="B86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D86">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="14"/>
+        <v>23</v>
       </c>
       <c r="E86">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="15"/>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43549</v>
+        <v>43548</v>
       </c>
       <c r="B87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D87">
-        <f t="shared" si="10"/>
-        <v>25</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="E87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43550</v>
+        <v>43549</v>
       </c>
       <c r="B88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D88">
-        <f t="shared" si="10"/>
-        <v>26</v>
+        <f t="shared" si="14"/>
+        <v>25</v>
       </c>
       <c r="E88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43551</v>
+        <v>43550</v>
       </c>
       <c r="B89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D89">
-        <f t="shared" si="10"/>
-        <v>27</v>
+        <f t="shared" si="14"/>
+        <v>26</v>
       </c>
       <c r="E89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43552</v>
+        <v>43551</v>
       </c>
       <c r="B90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D90">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <f t="shared" si="14"/>
+        <v>27</v>
       </c>
       <c r="E90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43553</v>
+        <v>43552</v>
       </c>
       <c r="B91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D91">
-        <f t="shared" si="10"/>
-        <v>29</v>
+        <f t="shared" si="14"/>
+        <v>28</v>
       </c>
       <c r="E91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43554</v>
+        <v>43553</v>
       </c>
       <c r="B92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D92">
-        <f t="shared" si="10"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>29</v>
       </c>
       <c r="E92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43555</v>
+        <v>43554</v>
       </c>
       <c r="B93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D93">
-        <f t="shared" si="10"/>
-        <v>31</v>
+        <f t="shared" si="14"/>
+        <v>30</v>
       </c>
       <c r="E93">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="15"/>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43556</v>
+        <v>43555</v>
       </c>
       <c r="B94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C94">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="D94">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>31</v>
       </c>
       <c r="E94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43557</v>
+        <v>43556</v>
       </c>
       <c r="B95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D95">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="E95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D96">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="E96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="B97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D97">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="E97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43560</v>
+        <v>43559</v>
       </c>
       <c r="B98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D98">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="E98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>43561</v>
+        <v>43560</v>
       </c>
       <c r="B99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D99">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="E99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43562</v>
+        <v>43561</v>
       </c>
       <c r="B100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D100">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="E100">
-        <f t="shared" si="11"/>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43563</v>
+        <v>43562</v>
       </c>
       <c r="B101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D101">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
       <c r="E101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>43564</v>
+        <v>43563</v>
       </c>
       <c r="B102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D102">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
       <c r="E102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43565</v>
+        <v>43564</v>
       </c>
       <c r="B103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D103">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>9</v>
       </c>
       <c r="E103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>43566</v>
+        <v>43565</v>
       </c>
       <c r="B104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D104">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>10</v>
       </c>
       <c r="E104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43567</v>
+        <v>43566</v>
       </c>
       <c r="B105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D105">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="E105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43568</v>
+        <v>43567</v>
       </c>
       <c r="B106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D106">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
       <c r="E106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43569</v>
+        <v>43568</v>
       </c>
       <c r="B107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D107">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" si="14"/>
+        <v>13</v>
       </c>
       <c r="E107">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43570</v>
+        <v>43569</v>
       </c>
       <c r="B108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D108">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="E108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43571</v>
+        <v>43570</v>
       </c>
       <c r="B109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D109">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="E109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43572</v>
+        <v>43571</v>
       </c>
       <c r="B110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D110">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
       <c r="E110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43573</v>
+        <v>43572</v>
       </c>
       <c r="B111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D111">
-        <f t="shared" si="10"/>
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>17</v>
       </c>
       <c r="E111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43574</v>
+        <v>43573</v>
       </c>
       <c r="B112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D112">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
       <c r="E112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43575</v>
+        <v>43574</v>
       </c>
       <c r="B113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D113">
-        <f t="shared" si="10"/>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
       <c r="E113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43576</v>
+        <v>43575</v>
       </c>
       <c r="B114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D114">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="E114">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <f t="shared" si="15"/>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43577</v>
+        <v>43576</v>
       </c>
       <c r="B115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D115">
-        <f t="shared" si="10"/>
-        <v>22</v>
+        <f t="shared" si="14"/>
+        <v>21</v>
       </c>
       <c r="E115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43578</v>
+        <v>43577</v>
       </c>
       <c r="B116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D116">
-        <f t="shared" si="10"/>
-        <v>23</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="E116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43579</v>
+        <v>43578</v>
       </c>
       <c r="B117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D117">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" si="14"/>
+        <v>23</v>
       </c>
       <c r="E117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43580</v>
+        <v>43579</v>
       </c>
       <c r="B118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D118">
-        <f t="shared" si="10"/>
-        <v>25</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="E118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43581</v>
+        <v>43580</v>
       </c>
       <c r="B119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D119">
-        <f t="shared" si="10"/>
-        <v>26</v>
+        <f t="shared" si="14"/>
+        <v>25</v>
       </c>
       <c r="E119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43582</v>
+        <v>43581</v>
       </c>
       <c r="B120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D120">
-        <f t="shared" si="10"/>
-        <v>27</v>
+        <f t="shared" si="14"/>
+        <v>26</v>
       </c>
       <c r="E120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43583</v>
+        <v>43582</v>
       </c>
       <c r="B121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D121">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <f t="shared" si="14"/>
+        <v>27</v>
       </c>
       <c r="E121">
-        <f t="shared" si="11"/>
-        <v>18</v>
+        <f t="shared" si="15"/>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43584</v>
+        <v>43583</v>
       </c>
       <c r="B122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D122">
-        <f t="shared" si="10"/>
-        <v>29</v>
+        <f t="shared" si="14"/>
+        <v>28</v>
       </c>
       <c r="E122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43585</v>
+        <v>43584</v>
       </c>
       <c r="B123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D123">
-        <f t="shared" si="10"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>29</v>
       </c>
       <c r="E123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43586</v>
+        <v>43585</v>
       </c>
       <c r="B124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C124">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="D124">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>30</v>
       </c>
       <c r="E124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43587</v>
+        <v>43586</v>
       </c>
       <c r="B125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D125">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="E125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43588</v>
+        <v>43587</v>
       </c>
       <c r="B126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D126">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="E126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43589</v>
+        <v>43588</v>
       </c>
       <c r="B127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D127">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="E127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43590</v>
+        <v>43589</v>
       </c>
       <c r="B128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D128">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="E128">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <f t="shared" si="15"/>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43591</v>
+        <v>43590</v>
       </c>
       <c r="B129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D129">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="E129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43592</v>
+        <v>43591</v>
       </c>
       <c r="B130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D130">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="E130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43593</v>
+        <v>43592</v>
       </c>
       <c r="B131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D131">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
       <c r="E131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43594</v>
+        <v>43593</v>
       </c>
       <c r="B132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D132">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
       <c r="E132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43595</v>
+        <v>43594</v>
       </c>
       <c r="B133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D133">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>9</v>
       </c>
       <c r="E133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43596</v>
+        <v>43595</v>
       </c>
       <c r="B134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D134">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>10</v>
       </c>
       <c r="E134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43597</v>
+        <v>43596</v>
       </c>
       <c r="B135">
-        <f t="shared" ref="B135:B198" si="12">YEAR(A135)</f>
+        <f t="shared" si="12"/>
         <v>2019</v>
       </c>
       <c r="C135">
-        <f t="shared" ref="C135:C198" si="13">MONTH(A135)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D135">
-        <f t="shared" ref="D135:D198" si="14">DAY(A135)</f>
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="E135">
-        <f t="shared" ref="E135:E198" si="15">WEEKNUM(A135)</f>
-        <v>20</v>
+        <f t="shared" si="15"/>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43598</v>
+        <v>43597</v>
       </c>
       <c r="B136">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B136:B199" si="16">YEAR(A136)</f>
         <v>2019</v>
       </c>
       <c r="C136">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C136:C199" si="17">MONTH(A136)</f>
         <v>5</v>
       </c>
       <c r="D136">
-        <f t="shared" si="14"/>
-        <v>13</v>
+        <f t="shared" ref="D136:D199" si="18">DAY(A136)</f>
+        <v>12</v>
       </c>
       <c r="E136">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E136:E199" si="19">WEEKNUM(A136)</f>
         <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43599</v>
+        <v>43598</v>
       </c>
       <c r="B137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D137">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>13</v>
       </c>
       <c r="E137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43600</v>
+        <v>43599</v>
       </c>
       <c r="B138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D138">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="E138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43601</v>
+        <v>43600</v>
       </c>
       <c r="B139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D139">
-        <f t="shared" si="14"/>
-        <v>16</v>
+        <f t="shared" si="18"/>
+        <v>15</v>
       </c>
       <c r="E139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43602</v>
+        <v>43601</v>
       </c>
       <c r="B140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D140">
-        <f t="shared" si="14"/>
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>16</v>
       </c>
       <c r="E140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43603</v>
+        <v>43602</v>
       </c>
       <c r="B141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D141">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
       <c r="E141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43604</v>
+        <v>43603</v>
       </c>
       <c r="B142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D142">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="E142">
-        <f t="shared" si="15"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>43605</v>
+        <v>43604</v>
       </c>
       <c r="B143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D143">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
       <c r="E143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>43606</v>
+        <v>43605</v>
       </c>
       <c r="B144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D144">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="E144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>43607</v>
+        <v>43606</v>
       </c>
       <c r="B145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D145">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <f t="shared" si="18"/>
+        <v>21</v>
       </c>
       <c r="E145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>43608</v>
+        <v>43607</v>
       </c>
       <c r="B146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D146">
-        <f t="shared" si="14"/>
-        <v>23</v>
+        <f t="shared" si="18"/>
+        <v>22</v>
       </c>
       <c r="E146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>43609</v>
+        <v>43608</v>
       </c>
       <c r="B147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D147">
-        <f t="shared" si="14"/>
-        <v>24</v>
+        <f t="shared" si="18"/>
+        <v>23</v>
       </c>
       <c r="E147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>43610</v>
+        <v>43609</v>
       </c>
       <c r="B148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D148">
-        <f t="shared" si="14"/>
-        <v>25</v>
+        <f t="shared" si="18"/>
+        <v>24</v>
       </c>
       <c r="E148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>43611</v>
+        <v>43610</v>
       </c>
       <c r="B149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D149">
-        <f t="shared" si="14"/>
-        <v>26</v>
+        <f t="shared" si="18"/>
+        <v>25</v>
       </c>
       <c r="E149">
-        <f t="shared" si="15"/>
-        <v>22</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>43612</v>
+        <v>43611</v>
       </c>
       <c r="B150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D150">
-        <f t="shared" si="14"/>
-        <v>27</v>
+        <f t="shared" si="18"/>
+        <v>26</v>
       </c>
       <c r="E150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>43613</v>
+        <v>43612</v>
       </c>
       <c r="B151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D151">
-        <f t="shared" si="14"/>
-        <v>28</v>
+        <f t="shared" si="18"/>
+        <v>27</v>
       </c>
       <c r="E151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>43614</v>
+        <v>43613</v>
       </c>
       <c r="B152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D152">
-        <f t="shared" si="14"/>
-        <v>29</v>
+        <f t="shared" si="18"/>
+        <v>28</v>
       </c>
       <c r="E152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>43615</v>
+        <v>43614</v>
       </c>
       <c r="B153">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D153">
-        <f t="shared" si="14"/>
-        <v>30</v>
+        <f t="shared" si="18"/>
+        <v>29</v>
       </c>
       <c r="E153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>43616</v>
+        <v>43615</v>
       </c>
       <c r="B154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="D154">
-        <f t="shared" si="14"/>
-        <v>31</v>
+        <f t="shared" si="18"/>
+        <v>30</v>
       </c>
       <c r="E154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>43617</v>
+        <v>43616</v>
       </c>
       <c r="B155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C155">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="D155">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>31</v>
       </c>
       <c r="E155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>43618</v>
+        <v>43617</v>
       </c>
       <c r="B156">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C156">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D156">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="E156">
-        <f t="shared" si="15"/>
-        <v>23</v>
+        <f t="shared" si="19"/>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>43619</v>
+        <v>43618</v>
       </c>
       <c r="B157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D157">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="E157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>43620</v>
+        <v>43619</v>
       </c>
       <c r="B158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C158">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D158">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="E158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>43621</v>
+        <v>43620</v>
       </c>
       <c r="B159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D159">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="E159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>43622</v>
+        <v>43621</v>
       </c>
       <c r="B160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D160">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="E160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>43623</v>
+        <v>43622</v>
       </c>
       <c r="B161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D161">
-        <f t="shared" si="14"/>
-        <v>7</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="E161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>43624</v>
+        <v>43623</v>
       </c>
       <c r="B162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D162">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="18"/>
+        <v>7</v>
       </c>
       <c r="E162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>43625</v>
+        <v>43624</v>
       </c>
       <c r="B163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D163">
-        <f t="shared" si="14"/>
-        <v>9</v>
+        <f t="shared" si="18"/>
+        <v>8</v>
       </c>
       <c r="E163">
-        <f t="shared" si="15"/>
-        <v>24</v>
+        <f t="shared" si="19"/>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>43626</v>
+        <v>43625</v>
       </c>
       <c r="B164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D164">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>9</v>
       </c>
       <c r="E164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>43627</v>
+        <v>43626</v>
       </c>
       <c r="B165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D165">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="E165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>43628</v>
+        <v>43627</v>
       </c>
       <c r="B166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D166">
-        <f t="shared" si="14"/>
-        <v>12</v>
+        <f t="shared" si="18"/>
+        <v>11</v>
       </c>
       <c r="E166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>43629</v>
+        <v>43628</v>
       </c>
       <c r="B167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D167">
-        <f t="shared" si="14"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>12</v>
       </c>
       <c r="E167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>43630</v>
+        <v>43629</v>
       </c>
       <c r="B168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D168">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>13</v>
       </c>
       <c r="E168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>43631</v>
+        <v>43630</v>
       </c>
       <c r="B169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D169">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="E169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>43632</v>
+        <v>43631</v>
       </c>
       <c r="B170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D170">
-        <f t="shared" si="14"/>
-        <v>16</v>
+        <f t="shared" si="18"/>
+        <v>15</v>
       </c>
       <c r="E170">
-        <f t="shared" si="15"/>
-        <v>25</v>
+        <f t="shared" si="19"/>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>43633</v>
+        <v>43632</v>
       </c>
       <c r="B171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D171">
-        <f t="shared" si="14"/>
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>16</v>
       </c>
       <c r="E171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>43634</v>
+        <v>43633</v>
       </c>
       <c r="B172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D172">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
       <c r="E172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>43635</v>
+        <v>43634</v>
       </c>
       <c r="B173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D173">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="E173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>43636</v>
+        <v>43635</v>
       </c>
       <c r="B174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D174">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
       <c r="E174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>43637</v>
+        <v>43636</v>
       </c>
       <c r="B175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D175">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="E175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>43638</v>
+        <v>43637</v>
       </c>
       <c r="B176">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C176">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D176">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <f t="shared" si="18"/>
+        <v>21</v>
       </c>
       <c r="E176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>43639</v>
+        <v>43638</v>
       </c>
       <c r="B177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C177">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D177">
-        <f t="shared" si="14"/>
-        <v>23</v>
+        <f t="shared" si="18"/>
+        <v>22</v>
       </c>
       <c r="E177">
-        <f t="shared" si="15"/>
-        <v>26</v>
+        <f t="shared" si="19"/>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>43640</v>
+        <v>43639</v>
       </c>
       <c r="B178">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C178">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D178">
-        <f t="shared" si="14"/>
-        <v>24</v>
+        <f t="shared" si="18"/>
+        <v>23</v>
       </c>
       <c r="E178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>43641</v>
+        <v>43640</v>
       </c>
       <c r="B179">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D179">
-        <f t="shared" si="14"/>
-        <v>25</v>
+        <f t="shared" si="18"/>
+        <v>24</v>
       </c>
       <c r="E179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>43642</v>
+        <v>43641</v>
       </c>
       <c r="B180">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C180">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D180">
-        <f t="shared" si="14"/>
-        <v>26</v>
+        <f t="shared" si="18"/>
+        <v>25</v>
       </c>
       <c r="E180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>43643</v>
+        <v>43642</v>
       </c>
       <c r="B181">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C181">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D181">
-        <f t="shared" si="14"/>
-        <v>27</v>
+        <f t="shared" si="18"/>
+        <v>26</v>
       </c>
       <c r="E181">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="B182">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C182">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D182">
-        <f t="shared" si="14"/>
-        <v>28</v>
+        <f t="shared" si="18"/>
+        <v>27</v>
       </c>
       <c r="E182">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>43645</v>
+        <v>43644</v>
       </c>
       <c r="B183">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C183">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D183">
-        <f t="shared" si="14"/>
-        <v>29</v>
+        <f t="shared" si="18"/>
+        <v>28</v>
       </c>
       <c r="E183">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>43646</v>
+        <v>43645</v>
       </c>
       <c r="B184">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="D184">
-        <f t="shared" si="14"/>
-        <v>30</v>
+        <f t="shared" si="18"/>
+        <v>29</v>
       </c>
       <c r="E184">
-        <f t="shared" si="15"/>
-        <v>27</v>
+        <f t="shared" si="19"/>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>43647</v>
+        <v>43646</v>
       </c>
       <c r="B185">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C185">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="17"/>
+        <v>6</v>
       </c>
       <c r="D185">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>30</v>
       </c>
       <c r="E185">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>43648</v>
+        <v>43647</v>
       </c>
       <c r="B186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D186">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="E186">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>43649</v>
+        <v>43648</v>
       </c>
       <c r="B187">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C187">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D187">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="E187">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>43650</v>
+        <v>43649</v>
       </c>
       <c r="B188">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C188">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D188">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="E188">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>43651</v>
+        <v>43650</v>
       </c>
       <c r="B189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D189">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="E189">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>43652</v>
+        <v>43651</v>
       </c>
       <c r="B190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D190">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="E190">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>43653</v>
+        <v>43652</v>
       </c>
       <c r="B191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D191">
-        <f t="shared" si="14"/>
-        <v>7</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="E191">
-        <f t="shared" si="15"/>
-        <v>28</v>
+        <f t="shared" si="19"/>
+        <v>27</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>43654</v>
+        <v>43653</v>
       </c>
       <c r="B192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D192">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="18"/>
+        <v>7</v>
       </c>
       <c r="E192">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>43655</v>
+        <v>43654</v>
       </c>
       <c r="B193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C193">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D193">
-        <f t="shared" si="14"/>
-        <v>9</v>
+        <f t="shared" si="18"/>
+        <v>8</v>
       </c>
       <c r="E193">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>43656</v>
+        <v>43655</v>
       </c>
       <c r="B194">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D194">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>9</v>
       </c>
       <c r="E194">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>43657</v>
+        <v>43656</v>
       </c>
       <c r="B195">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C195">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D195">
-        <f t="shared" si="14"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="E195">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>43658</v>
+        <v>43657</v>
       </c>
       <c r="B196">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C196">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D196">
-        <f t="shared" si="14"/>
-        <v>12</v>
+        <f t="shared" si="18"/>
+        <v>11</v>
       </c>
       <c r="E196">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>43659</v>
+        <v>43658</v>
       </c>
       <c r="B197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C197">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D197">
-        <f t="shared" si="14"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>12</v>
       </c>
       <c r="E197">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>43660</v>
+        <v>43659</v>
       </c>
       <c r="B198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D198">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>13</v>
       </c>
       <c r="E198">
-        <f t="shared" si="15"/>
-        <v>29</v>
+        <f t="shared" si="19"/>
+        <v>28</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>43661</v>
+        <v>43660</v>
       </c>
       <c r="B199">
-        <f t="shared" ref="B199:B262" si="16">YEAR(A199)</f>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="C199">
-        <f t="shared" ref="C199:C262" si="17">MONTH(A199)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="D199">
-        <f t="shared" ref="D199:D262" si="18">DAY(A199)</f>
-        <v>15</v>
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="E199">
-        <f t="shared" ref="E199:E262" si="19">WEEKNUM(A199)</f>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>43662</v>
+        <v>43661</v>
       </c>
       <c r="B200">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B200:B263" si="20">YEAR(A200)</f>
         <v>2019</v>
       </c>
       <c r="C200">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="C200:C263" si="21">MONTH(A200)</f>
         <v>7</v>
       </c>
       <c r="D200">
-        <f t="shared" si="18"/>
-        <v>16</v>
+        <f t="shared" ref="D200:D263" si="22">DAY(A200)</f>
+        <v>15</v>
       </c>
       <c r="E200">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="E200:E263" si="23">WEEKNUM(A200)</f>
         <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>43663</v>
+        <v>43662</v>
       </c>
       <c r="B201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D201">
-        <f t="shared" si="18"/>
-        <v>17</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="E201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="B202">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C202">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D202">
-        <f t="shared" si="18"/>
-        <v>18</v>
+        <f t="shared" si="22"/>
+        <v>17</v>
       </c>
       <c r="E202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="B203">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C203">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D203">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="22"/>
+        <v>18</v>
       </c>
       <c r="E203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="B204">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C204">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D204">
-        <f t="shared" si="18"/>
-        <v>20</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="E204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>43667</v>
+        <v>43666</v>
       </c>
       <c r="B205">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C205">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D205">
-        <f t="shared" si="18"/>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>20</v>
       </c>
       <c r="E205">
-        <f t="shared" si="19"/>
-        <v>30</v>
+        <f t="shared" si="23"/>
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>43668</v>
+        <v>43667</v>
       </c>
       <c r="B206">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C206">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D206">
-        <f t="shared" si="18"/>
-        <v>22</v>
+        <f t="shared" si="22"/>
+        <v>21</v>
       </c>
       <c r="E206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>43669</v>
+        <v>43668</v>
       </c>
       <c r="B207">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C207">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D207">
-        <f t="shared" si="18"/>
-        <v>23</v>
+        <f t="shared" si="22"/>
+        <v>22</v>
       </c>
       <c r="E207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>43670</v>
+        <v>43669</v>
       </c>
       <c r="B208">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C208">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D208">
-        <f t="shared" si="18"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>23</v>
       </c>
       <c r="E208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>43671</v>
+        <v>43670</v>
       </c>
       <c r="B209">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C209">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D209">
-        <f t="shared" si="18"/>
-        <v>25</v>
+        <f t="shared" si="22"/>
+        <v>24</v>
       </c>
       <c r="E209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>43672</v>
+        <v>43671</v>
       </c>
       <c r="B210">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C210">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D210">
-        <f t="shared" si="18"/>
-        <v>26</v>
+        <f t="shared" si="22"/>
+        <v>25</v>
       </c>
       <c r="E210">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>43673</v>
+        <v>43672</v>
       </c>
       <c r="B211">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C211">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D211">
-        <f t="shared" si="18"/>
-        <v>27</v>
+        <f t="shared" si="22"/>
+        <v>26</v>
       </c>
       <c r="E211">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>43674</v>
+        <v>43673</v>
       </c>
       <c r="B212">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C212">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D212">
-        <f t="shared" si="18"/>
-        <v>28</v>
+        <f t="shared" si="22"/>
+        <v>27</v>
       </c>
       <c r="E212">
-        <f t="shared" si="19"/>
-        <v>31</v>
+        <f t="shared" si="23"/>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>43675</v>
+        <v>43674</v>
       </c>
       <c r="B213">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C213">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D213">
-        <f t="shared" si="18"/>
-        <v>29</v>
+        <f t="shared" si="22"/>
+        <v>28</v>
       </c>
       <c r="E213">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>43676</v>
+        <v>43675</v>
       </c>
       <c r="B214">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D214">
-        <f t="shared" si="18"/>
-        <v>30</v>
+        <f t="shared" si="22"/>
+        <v>29</v>
       </c>
       <c r="E214">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>43677</v>
+        <v>43676</v>
       </c>
       <c r="B215">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C215">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="D215">
-        <f t="shared" si="18"/>
-        <v>31</v>
+        <f t="shared" si="22"/>
+        <v>30</v>
       </c>
       <c r="E215">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>43678</v>
+        <v>43677</v>
       </c>
       <c r="B216">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C216">
-        <f t="shared" si="17"/>
-        <v>8</v>
+        <f t="shared" si="21"/>
+        <v>7</v>
       </c>
       <c r="D216">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>31</v>
       </c>
       <c r="E216">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>43679</v>
+        <v>43678</v>
       </c>
       <c r="B217">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C217">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D217">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="E217">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>43680</v>
+        <v>43679</v>
       </c>
       <c r="B218">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C218">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D218">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="E218">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>43681</v>
+        <v>43680</v>
       </c>
       <c r="B219">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C219">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D219">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="E219">
-        <f t="shared" si="19"/>
-        <v>32</v>
+        <f t="shared" si="23"/>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>43682</v>
+        <v>43681</v>
       </c>
       <c r="B220">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C220">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D220">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="E220">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>43683</v>
+        <v>43682</v>
       </c>
       <c r="B221">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C221">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D221">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
       <c r="E221">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>43684</v>
+        <v>43683</v>
       </c>
       <c r="B222">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C222">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D222">
-        <f t="shared" si="18"/>
-        <v>7</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
       <c r="E222">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="B223">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C223">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D223">
-        <f t="shared" si="18"/>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="E223">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="B224">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C224">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D224">
-        <f t="shared" si="18"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>8</v>
       </c>
       <c r="E224">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>43687</v>
+        <v>43686</v>
       </c>
       <c r="B225">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C225">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D225">
-        <f t="shared" si="18"/>
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="E225">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>43688</v>
+        <v>43687</v>
       </c>
       <c r="B226">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C226">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D226">
-        <f t="shared" si="18"/>
-        <v>11</v>
+        <f t="shared" si="22"/>
+        <v>10</v>
       </c>
       <c r="E226">
-        <f t="shared" si="19"/>
-        <v>33</v>
+        <f t="shared" si="23"/>
+        <v>32</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>43689</v>
+        <v>43688</v>
       </c>
       <c r="B227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C227">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D227">
-        <f t="shared" si="18"/>
-        <v>12</v>
+        <f t="shared" si="22"/>
+        <v>11</v>
       </c>
       <c r="E227">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>43690</v>
+        <v>43689</v>
       </c>
       <c r="B228">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C228">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D228">
-        <f t="shared" si="18"/>
-        <v>13</v>
+        <f t="shared" si="22"/>
+        <v>12</v>
       </c>
       <c r="E228">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>43691</v>
+        <v>43690</v>
       </c>
       <c r="B229">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C229">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D229">
-        <f t="shared" si="18"/>
-        <v>14</v>
+        <f t="shared" si="22"/>
+        <v>13</v>
       </c>
       <c r="E229">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>43692</v>
+        <v>43691</v>
       </c>
       <c r="B230">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C230">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D230">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="22"/>
+        <v>14</v>
       </c>
       <c r="E230">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>43693</v>
+        <v>43692</v>
       </c>
       <c r="B231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C231">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D231">
-        <f t="shared" si="18"/>
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="E231">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>43694</v>
+        <v>43693</v>
       </c>
       <c r="B232">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C232">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D232">
-        <f t="shared" si="18"/>
-        <v>17</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="E232">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>43695</v>
+        <v>43694</v>
       </c>
       <c r="B233">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C233">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D233">
-        <f t="shared" si="18"/>
-        <v>18</v>
+        <f t="shared" si="22"/>
+        <v>17</v>
       </c>
       <c r="E233">
-        <f t="shared" si="19"/>
-        <v>34</v>
+        <f t="shared" si="23"/>
+        <v>33</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>43696</v>
+        <v>43695</v>
       </c>
       <c r="B234">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C234">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D234">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="22"/>
+        <v>18</v>
       </c>
       <c r="E234">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>43697</v>
+        <v>43696</v>
       </c>
       <c r="B235">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C235">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D235">
-        <f t="shared" si="18"/>
-        <v>20</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="E235">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>43698</v>
+        <v>43697</v>
       </c>
       <c r="B236">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C236">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D236">
-        <f t="shared" si="18"/>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>20</v>
       </c>
       <c r="E236">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>43699</v>
+        <v>43698</v>
       </c>
       <c r="B237">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C237">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D237">
-        <f t="shared" si="18"/>
-        <v>22</v>
+        <f t="shared" si="22"/>
+        <v>21</v>
       </c>
       <c r="E237">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>43700</v>
+        <v>43699</v>
       </c>
       <c r="B238">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C238">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D238">
-        <f t="shared" si="18"/>
-        <v>23</v>
+        <f t="shared" si="22"/>
+        <v>22</v>
       </c>
       <c r="E238">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>43701</v>
+        <v>43700</v>
       </c>
       <c r="B239">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C239">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D239">
-        <f t="shared" si="18"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>23</v>
       </c>
       <c r="E239">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>43702</v>
+        <v>43701</v>
       </c>
       <c r="B240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C240">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D240">
-        <f t="shared" si="18"/>
-        <v>25</v>
+        <f t="shared" si="22"/>
+        <v>24</v>
       </c>
       <c r="E240">
-        <f t="shared" si="19"/>
-        <v>35</v>
+        <f t="shared" si="23"/>
+        <v>34</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>43703</v>
+        <v>43702</v>
       </c>
       <c r="B241">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D241">
-        <f t="shared" si="18"/>
-        <v>26</v>
+        <f t="shared" si="22"/>
+        <v>25</v>
       </c>
       <c r="E241">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>43704</v>
+        <v>43703</v>
       </c>
       <c r="B242">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C242">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D242">
-        <f t="shared" si="18"/>
-        <v>27</v>
+        <f t="shared" si="22"/>
+        <v>26</v>
       </c>
       <c r="E242">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>43705</v>
+        <v>43704</v>
       </c>
       <c r="B243">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C243">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D243">
-        <f t="shared" si="18"/>
-        <v>28</v>
+        <f t="shared" si="22"/>
+        <v>27</v>
       </c>
       <c r="E243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>43706</v>
+        <v>43705</v>
       </c>
       <c r="B244">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C244">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D244">
-        <f t="shared" si="18"/>
-        <v>29</v>
+        <f t="shared" si="22"/>
+        <v>28</v>
       </c>
       <c r="E244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>43707</v>
+        <v>43706</v>
       </c>
       <c r="B245">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C245">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D245">
-        <f t="shared" si="18"/>
-        <v>30</v>
+        <f t="shared" si="22"/>
+        <v>29</v>
       </c>
       <c r="E245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>43708</v>
+        <v>43707</v>
       </c>
       <c r="B246">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C246">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="D246">
-        <f t="shared" si="18"/>
-        <v>31</v>
+        <f t="shared" si="22"/>
+        <v>30</v>
       </c>
       <c r="E246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>43709</v>
+        <v>43708</v>
       </c>
       <c r="B247">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C247">
-        <f t="shared" si="17"/>
-        <v>9</v>
+        <f t="shared" si="21"/>
+        <v>8</v>
       </c>
       <c r="D247">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>31</v>
       </c>
       <c r="E247">
-        <f t="shared" si="19"/>
-        <v>36</v>
+        <f t="shared" si="23"/>
+        <v>35</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>43710</v>
+        <v>43709</v>
       </c>
       <c r="B248">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C248">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D248">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="E248">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>43711</v>
+        <v>43710</v>
       </c>
       <c r="B249">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C249">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D249">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="E249">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>43712</v>
+        <v>43711</v>
       </c>
       <c r="B250">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C250">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D250">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="E250">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>43713</v>
+        <v>43712</v>
       </c>
       <c r="B251">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C251">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D251">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="E251">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>43714</v>
+        <v>43713</v>
       </c>
       <c r="B252">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C252">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D252">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
       <c r="E252">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>43715</v>
+        <v>43714</v>
       </c>
       <c r="B253">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C253">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D253">
-        <f t="shared" si="18"/>
-        <v>7</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
       <c r="E253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>43716</v>
+        <v>43715</v>
       </c>
       <c r="B254">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C254">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D254">
-        <f t="shared" si="18"/>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="E254">
-        <f t="shared" si="19"/>
-        <v>37</v>
+        <f t="shared" si="23"/>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>43717</v>
+        <v>43716</v>
       </c>
       <c r="B255">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C255">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D255">
-        <f t="shared" si="18"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>8</v>
       </c>
       <c r="E255">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>43718</v>
+        <v>43717</v>
       </c>
       <c r="B256">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C256">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D256">
-        <f t="shared" si="18"/>
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="E256">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>43719</v>
+        <v>43718</v>
       </c>
       <c r="B257">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C257">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D257">
-        <f t="shared" si="18"/>
-        <v>11</v>
+        <f t="shared" si="22"/>
+        <v>10</v>
       </c>
       <c r="E257">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>43720</v>
+        <v>43719</v>
       </c>
       <c r="B258">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C258">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D258">
-        <f t="shared" si="18"/>
-        <v>12</v>
+        <f t="shared" si="22"/>
+        <v>11</v>
       </c>
       <c r="E258">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="B259">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C259">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D259">
-        <f t="shared" si="18"/>
-        <v>13</v>
+        <f t="shared" si="22"/>
+        <v>12</v>
       </c>
       <c r="E259">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43722</v>
+        <v>43721</v>
       </c>
       <c r="B260">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C260">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D260">
-        <f t="shared" si="18"/>
-        <v>14</v>
+        <f t="shared" si="22"/>
+        <v>13</v>
       </c>
       <c r="E260">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="B261">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C261">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D261">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="22"/>
+        <v>14</v>
       </c>
       <c r="E261">
-        <f t="shared" si="19"/>
-        <v>38</v>
+        <f t="shared" si="23"/>
+        <v>37</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>43724</v>
+        <v>43723</v>
       </c>
       <c r="B262">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C262">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D262">
-        <f t="shared" si="18"/>
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="E262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>43725</v>
+        <v>43724</v>
       </c>
       <c r="B263">
-        <f t="shared" ref="B263:B326" si="20">YEAR(A263)</f>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C263">
-        <f t="shared" ref="C263:C326" si="21">MONTH(A263)</f>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D263">
-        <f t="shared" ref="D263:D326" si="22">DAY(A263)</f>
-        <v>17</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="E263">
-        <f t="shared" ref="E263:E326" si="23">WEEKNUM(A263)</f>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43726</v>
+        <v>43725</v>
       </c>
       <c r="B264">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="B264:B327" si="24">YEAR(A264)</f>
         <v>2019</v>
       </c>
       <c r="C264">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="C264:C327" si="25">MONTH(A264)</f>
         <v>9</v>
       </c>
       <c r="D264">
-        <f t="shared" si="22"/>
-        <v>18</v>
+        <f t="shared" ref="D264:D327" si="26">DAY(A264)</f>
+        <v>17</v>
       </c>
       <c r="E264">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="E264:E327" si="27">WEEKNUM(A264)</f>
         <v>38</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>43727</v>
+        <v>43726</v>
       </c>
       <c r="B265">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C265">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D265">
-        <f t="shared" si="22"/>
-        <v>19</v>
+        <f t="shared" si="26"/>
+        <v>18</v>
       </c>
       <c r="E265">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>43728</v>
+        <v>43727</v>
       </c>
       <c r="B266">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C266">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D266">
-        <f t="shared" si="22"/>
-        <v>20</v>
+        <f t="shared" si="26"/>
+        <v>19</v>
       </c>
       <c r="E266">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>43729</v>
+        <v>43728</v>
       </c>
       <c r="B267">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C267">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D267">
-        <f t="shared" si="22"/>
-        <v>21</v>
+        <f t="shared" si="26"/>
+        <v>20</v>
       </c>
       <c r="E267">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>43730</v>
+        <v>43729</v>
       </c>
       <c r="B268">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C268">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D268">
-        <f t="shared" si="22"/>
-        <v>22</v>
+        <f t="shared" si="26"/>
+        <v>21</v>
       </c>
       <c r="E268">
-        <f t="shared" si="23"/>
-        <v>39</v>
+        <f t="shared" si="27"/>
+        <v>38</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>43731</v>
+        <v>43730</v>
       </c>
       <c r="B269">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C269">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D269">
-        <f t="shared" si="22"/>
-        <v>23</v>
+        <f t="shared" si="26"/>
+        <v>22</v>
       </c>
       <c r="E269">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>39</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="B270">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C270">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D270">
-        <f t="shared" si="22"/>
-        <v>24</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
       <c r="E270">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>39</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>43733</v>
+        <v>43732</v>
       </c>
       <c r="B271">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C271">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D271">
-        <f t="shared" si="22"/>
-        <v>25</v>
+        <f t="shared" si="26"/>
+        <v>24</v>
       </c>
       <c r="E271">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>39</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>43734</v>
+        <v>43733</v>
       </c>
       <c r="B272">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C272">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D272">
-        <f t="shared" si="22"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>25</v>
       </c>
       <c r="E272">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>39</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>43735</v>
+        <v>43734</v>
       </c>
       <c r="B273">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C273">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D273">
-        <f t="shared" si="22"/>
-        <v>27</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
       <c r="E273">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>39</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>43736</v>
+        <v>43735</v>
       </c>
       <c r="B274">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C274">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D274">
-        <f t="shared" si="22"/>
-        <v>28</v>
+        <f t="shared" si="26"/>
+        <v>27</v>
       </c>
       <c r="E274">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>39</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>43737</v>
+        <v>43736</v>
       </c>
       <c r="B275">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C275">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D275">
-        <f t="shared" si="22"/>
-        <v>29</v>
+        <f t="shared" si="26"/>
+        <v>28</v>
       </c>
       <c r="E275">
-        <f t="shared" si="23"/>
-        <v>40</v>
+        <f t="shared" si="27"/>
+        <v>39</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>43738</v>
+        <v>43737</v>
       </c>
       <c r="B276">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C276">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="D276">
-        <f t="shared" si="22"/>
-        <v>30</v>
+        <f t="shared" si="26"/>
+        <v>29</v>
       </c>
       <c r="E276">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>43739</v>
+        <v>43738</v>
       </c>
       <c r="B277">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C277">
-        <f t="shared" si="21"/>
-        <v>10</v>
+        <f t="shared" si="25"/>
+        <v>9</v>
       </c>
       <c r="D277">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>30</v>
       </c>
       <c r="E277">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>43740</v>
+        <v>43739</v>
       </c>
       <c r="B278">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C278">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D278">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E278">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>43741</v>
+        <v>43740</v>
       </c>
       <c r="B279">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C279">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D279">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="E279">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>43742</v>
+        <v>43741</v>
       </c>
       <c r="B280">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C280">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D280">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>3</v>
       </c>
       <c r="E280">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>43743</v>
+        <v>43742</v>
       </c>
       <c r="B281">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C281">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D281">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="E281">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>43744</v>
+        <v>43743</v>
       </c>
       <c r="B282">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C282">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D282">
-        <f t="shared" si="22"/>
-        <v>6</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="E282">
-        <f t="shared" si="23"/>
-        <v>41</v>
+        <f t="shared" si="27"/>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>43745</v>
+        <v>43744</v>
       </c>
       <c r="B283">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C283">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D283">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="E283">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>43746</v>
+        <v>43745</v>
       </c>
       <c r="B284">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C284">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D284">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="26"/>
+        <v>7</v>
       </c>
       <c r="E284">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>43747</v>
+        <v>43746</v>
       </c>
       <c r="B285">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C285">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D285">
-        <f t="shared" si="22"/>
-        <v>9</v>
+        <f t="shared" si="26"/>
+        <v>8</v>
       </c>
       <c r="E285">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>43748</v>
+        <v>43747</v>
       </c>
       <c r="B286">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C286">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D286">
-        <f t="shared" si="22"/>
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>9</v>
       </c>
       <c r="E286">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>43749</v>
+        <v>43748</v>
       </c>
       <c r="B287">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C287">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D287">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="26"/>
+        <v>10</v>
       </c>
       <c r="E287">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>43750</v>
+        <v>43749</v>
       </c>
       <c r="B288">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C288">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D288">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" si="26"/>
+        <v>11</v>
       </c>
       <c r="E288">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>43751</v>
+        <v>43750</v>
       </c>
       <c r="B289">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C289">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D289">
-        <f t="shared" si="22"/>
-        <v>13</v>
+        <f t="shared" si="26"/>
+        <v>12</v>
       </c>
       <c r="E289">
-        <f t="shared" si="23"/>
-        <v>42</v>
+        <f t="shared" si="27"/>
+        <v>41</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>43752</v>
+        <v>43751</v>
       </c>
       <c r="B290">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C290">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D290">
-        <f t="shared" si="22"/>
-        <v>14</v>
+        <f t="shared" si="26"/>
+        <v>13</v>
       </c>
       <c r="E290">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>43753</v>
+        <v>43752</v>
       </c>
       <c r="B291">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C291">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D291">
-        <f t="shared" si="22"/>
-        <v>15</v>
+        <f t="shared" si="26"/>
+        <v>14</v>
       </c>
       <c r="E291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>43754</v>
+        <v>43753</v>
       </c>
       <c r="B292">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C292">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D292">
-        <f t="shared" si="22"/>
-        <v>16</v>
+        <f t="shared" si="26"/>
+        <v>15</v>
       </c>
       <c r="E292">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>43755</v>
+        <v>43754</v>
       </c>
       <c r="B293">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C293">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D293">
-        <f t="shared" si="22"/>
-        <v>17</v>
+        <f t="shared" si="26"/>
+        <v>16</v>
       </c>
       <c r="E293">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>43756</v>
+        <v>43755</v>
       </c>
       <c r="B294">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C294">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D294">
-        <f t="shared" si="22"/>
-        <v>18</v>
+        <f t="shared" si="26"/>
+        <v>17</v>
       </c>
       <c r="E294">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>43757</v>
+        <v>43756</v>
       </c>
       <c r="B295">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C295">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D295">
-        <f t="shared" si="22"/>
-        <v>19</v>
+        <f t="shared" si="26"/>
+        <v>18</v>
       </c>
       <c r="E295">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>43758</v>
+        <v>43757</v>
       </c>
       <c r="B296">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C296">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D296">
-        <f t="shared" si="22"/>
-        <v>20</v>
+        <f t="shared" si="26"/>
+        <v>19</v>
       </c>
       <c r="E296">
-        <f t="shared" si="23"/>
-        <v>43</v>
+        <f t="shared" si="27"/>
+        <v>42</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>43759</v>
+        <v>43758</v>
       </c>
       <c r="B297">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C297">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D297">
-        <f t="shared" si="22"/>
-        <v>21</v>
+        <f t="shared" si="26"/>
+        <v>20</v>
       </c>
       <c r="E297">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>43760</v>
+        <v>43759</v>
       </c>
       <c r="B298">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C298">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D298">
-        <f t="shared" si="22"/>
-        <v>22</v>
+        <f t="shared" si="26"/>
+        <v>21</v>
       </c>
       <c r="E298">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>43761</v>
+        <v>43760</v>
       </c>
       <c r="B299">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C299">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D299">
-        <f t="shared" si="22"/>
-        <v>23</v>
+        <f t="shared" si="26"/>
+        <v>22</v>
       </c>
       <c r="E299">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>43762</v>
+        <v>43761</v>
       </c>
       <c r="B300">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C300">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D300">
-        <f t="shared" si="22"/>
-        <v>24</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
       <c r="E300">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B301">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C301">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D301">
-        <f t="shared" si="22"/>
-        <v>25</v>
+        <f t="shared" si="26"/>
+        <v>24</v>
       </c>
       <c r="E301">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B302">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C302">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D302">
-        <f t="shared" si="22"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>25</v>
       </c>
       <c r="E302">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>43765</v>
+        <v>43764</v>
       </c>
       <c r="B303">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C303">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D303">
-        <f t="shared" si="22"/>
-        <v>27</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
       <c r="E303">
-        <f t="shared" si="23"/>
-        <v>44</v>
+        <f t="shared" si="27"/>
+        <v>43</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>43766</v>
+        <v>43765</v>
       </c>
       <c r="B304">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C304">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D304">
-        <f t="shared" si="22"/>
-        <v>28</v>
+        <f t="shared" si="26"/>
+        <v>27</v>
       </c>
       <c r="E304">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="B305">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C305">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D305">
-        <f t="shared" si="22"/>
-        <v>29</v>
+        <f t="shared" si="26"/>
+        <v>28</v>
       </c>
       <c r="E305">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>43768</v>
+        <v>43767</v>
       </c>
       <c r="B306">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C306">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D306">
-        <f t="shared" si="22"/>
-        <v>30</v>
+        <f t="shared" si="26"/>
+        <v>29</v>
       </c>
       <c r="E306">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>43769</v>
+        <v>43768</v>
       </c>
       <c r="B307">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C307">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="D307">
-        <f t="shared" si="22"/>
-        <v>31</v>
+        <f t="shared" si="26"/>
+        <v>30</v>
       </c>
       <c r="E307">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>43770</v>
+        <v>43769</v>
       </c>
       <c r="B308">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C308">
-        <f t="shared" si="21"/>
-        <v>11</v>
+        <f t="shared" si="25"/>
+        <v>10</v>
       </c>
       <c r="D308">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>31</v>
       </c>
       <c r="E308">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>43771</v>
+        <v>43770</v>
       </c>
       <c r="B309">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C309">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D309">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E309">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>43772</v>
+        <v>43771</v>
       </c>
       <c r="B310">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C310">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D310">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="E310">
-        <f t="shared" si="23"/>
-        <v>45</v>
+        <f t="shared" si="27"/>
+        <v>44</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>43773</v>
+        <v>43772</v>
       </c>
       <c r="B311">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C311">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D311">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>3</v>
       </c>
       <c r="E311">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>43774</v>
+        <v>43773</v>
       </c>
       <c r="B312">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C312">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D312">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="E312">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>43775</v>
+        <v>43774</v>
       </c>
       <c r="B313">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C313">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D313">
-        <f t="shared" si="22"/>
-        <v>6</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="E313">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>43776</v>
+        <v>43775</v>
       </c>
       <c r="B314">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C314">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D314">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="E314">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>43777</v>
+        <v>43776</v>
       </c>
       <c r="B315">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C315">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D315">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="26"/>
+        <v>7</v>
       </c>
       <c r="E315">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>43778</v>
+        <v>43777</v>
       </c>
       <c r="B316">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C316">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D316">
-        <f t="shared" si="22"/>
-        <v>9</v>
+        <f t="shared" si="26"/>
+        <v>8</v>
       </c>
       <c r="E316">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>43779</v>
+        <v>43778</v>
       </c>
       <c r="B317">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C317">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D317">
-        <f t="shared" si="22"/>
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>9</v>
       </c>
       <c r="E317">
-        <f t="shared" si="23"/>
-        <v>46</v>
+        <f t="shared" si="27"/>
+        <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>43780</v>
+        <v>43779</v>
       </c>
       <c r="B318">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C318">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D318">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="26"/>
+        <v>10</v>
       </c>
       <c r="E318">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>46</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="B319">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C319">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D319">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" si="26"/>
+        <v>11</v>
       </c>
       <c r="E319">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>46</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>43782</v>
+        <v>43781</v>
       </c>
       <c r="B320">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C320">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D320">
-        <f t="shared" si="22"/>
-        <v>13</v>
+        <f t="shared" si="26"/>
+        <v>12</v>
       </c>
       <c r="E320">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>46</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>43783</v>
+        <v>43782</v>
       </c>
       <c r="B321">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C321">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D321">
-        <f t="shared" si="22"/>
-        <v>14</v>
+        <f t="shared" si="26"/>
+        <v>13</v>
       </c>
       <c r="E321">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>46</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>43784</v>
+        <v>43783</v>
       </c>
       <c r="B322">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C322">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D322">
-        <f t="shared" si="22"/>
-        <v>15</v>
+        <f t="shared" si="26"/>
+        <v>14</v>
       </c>
       <c r="E322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>46</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>43785</v>
+        <v>43784</v>
       </c>
       <c r="B323">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C323">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D323">
-        <f t="shared" si="22"/>
-        <v>16</v>
+        <f t="shared" si="26"/>
+        <v>15</v>
       </c>
       <c r="E323">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>46</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>43786</v>
+        <v>43785</v>
       </c>
       <c r="B324">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C324">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D324">
-        <f t="shared" si="22"/>
-        <v>17</v>
+        <f t="shared" si="26"/>
+        <v>16</v>
       </c>
       <c r="E324">
-        <f t="shared" si="23"/>
-        <v>47</v>
+        <f t="shared" si="27"/>
+        <v>46</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>43787</v>
+        <v>43786</v>
       </c>
       <c r="B325">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C325">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D325">
-        <f t="shared" si="22"/>
-        <v>18</v>
+        <f t="shared" si="26"/>
+        <v>17</v>
       </c>
       <c r="E325">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>43788</v>
+        <v>43787</v>
       </c>
       <c r="B326">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C326">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D326">
-        <f t="shared" si="22"/>
-        <v>19</v>
+        <f t="shared" si="26"/>
+        <v>18</v>
       </c>
       <c r="E326">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>43789</v>
+        <v>43788</v>
       </c>
       <c r="B327">
-        <f t="shared" ref="B327:B368" si="24">YEAR(A327)</f>
+        <f t="shared" si="24"/>
         <v>2019</v>
       </c>
       <c r="C327">
-        <f t="shared" ref="C327:C368" si="25">MONTH(A327)</f>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="D327">
-        <f t="shared" ref="D327:D368" si="26">DAY(A327)</f>
-        <v>20</v>
+        <f t="shared" si="26"/>
+        <v>19</v>
       </c>
       <c r="E327">
-        <f t="shared" ref="E327:E368" si="27">WEEKNUM(A327)</f>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>43790</v>
+        <v>43789</v>
       </c>
       <c r="B328">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="B328:B369" si="28">YEAR(A328)</f>
         <v>2019</v>
       </c>
       <c r="C328">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="C328:C369" si="29">MONTH(A328)</f>
         <v>11</v>
       </c>
       <c r="D328">
-        <f t="shared" si="26"/>
-        <v>21</v>
+        <f t="shared" ref="D328:D369" si="30">DAY(A328)</f>
+        <v>20</v>
       </c>
       <c r="E328">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="E328:E369" si="31">WEEKNUM(A328)</f>
         <v>47</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>43791</v>
+        <v>43790</v>
       </c>
       <c r="B329">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C329">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D329">
-        <f t="shared" si="26"/>
-        <v>22</v>
+        <f t="shared" si="30"/>
+        <v>21</v>
       </c>
       <c r="E329">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>43792</v>
+        <v>43791</v>
       </c>
       <c r="B330">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C330">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D330">
-        <f t="shared" si="26"/>
-        <v>23</v>
+        <f t="shared" si="30"/>
+        <v>22</v>
       </c>
       <c r="E330">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>43793</v>
+        <v>43792</v>
       </c>
       <c r="B331">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C331">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D331">
-        <f t="shared" si="26"/>
-        <v>24</v>
+        <f t="shared" si="30"/>
+        <v>23</v>
       </c>
       <c r="E331">
-        <f t="shared" si="27"/>
-        <v>48</v>
+        <f t="shared" si="31"/>
+        <v>47</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>43794</v>
+        <v>43793</v>
       </c>
       <c r="B332">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C332">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D332">
-        <f t="shared" si="26"/>
-        <v>25</v>
+        <f t="shared" si="30"/>
+        <v>24</v>
       </c>
       <c r="E332">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>48</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>43795</v>
+        <v>43794</v>
       </c>
       <c r="B333">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C333">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D333">
-        <f t="shared" si="26"/>
-        <v>26</v>
+        <f t="shared" si="30"/>
+        <v>25</v>
       </c>
       <c r="E333">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>48</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>43796</v>
+        <v>43795</v>
       </c>
       <c r="B334">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C334">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D334">
-        <f t="shared" si="26"/>
-        <v>27</v>
+        <f t="shared" si="30"/>
+        <v>26</v>
       </c>
       <c r="E334">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>48</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="B335">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C335">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D335">
-        <f t="shared" si="26"/>
-        <v>28</v>
+        <f t="shared" si="30"/>
+        <v>27</v>
       </c>
       <c r="E335">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>48</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>43798</v>
+        <v>43797</v>
       </c>
       <c r="B336">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C336">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D336">
-        <f t="shared" si="26"/>
-        <v>29</v>
+        <f t="shared" si="30"/>
+        <v>28</v>
       </c>
       <c r="E336">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>48</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>43799</v>
+        <v>43798</v>
       </c>
       <c r="B337">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C337">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D337">
-        <f t="shared" si="26"/>
-        <v>30</v>
+        <f t="shared" si="30"/>
+        <v>29</v>
       </c>
       <c r="E337">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>48</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>43800</v>
+        <v>43799</v>
       </c>
       <c r="B338">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C338">
-        <f t="shared" si="25"/>
-        <v>12</v>
+        <f t="shared" si="29"/>
+        <v>11</v>
       </c>
       <c r="D338">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>30</v>
       </c>
       <c r="E338">
-        <f t="shared" si="27"/>
-        <v>49</v>
+        <f t="shared" si="31"/>
+        <v>48</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>43801</v>
+        <v>43800</v>
       </c>
       <c r="B339">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C339">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D339">
-        <f t="shared" si="26"/>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="E339">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>43802</v>
+        <v>43801</v>
       </c>
       <c r="B340">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C340">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D340">
-        <f t="shared" si="26"/>
-        <v>3</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
       <c r="E340">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>43803</v>
+        <v>43802</v>
       </c>
       <c r="B341">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C341">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D341">
-        <f t="shared" si="26"/>
-        <v>4</v>
+        <f t="shared" si="30"/>
+        <v>3</v>
       </c>
       <c r="E341">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>43804</v>
+        <v>43803</v>
       </c>
       <c r="B342">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C342">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D342">
-        <f t="shared" si="26"/>
-        <v>5</v>
+        <f t="shared" si="30"/>
+        <v>4</v>
       </c>
       <c r="E342">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>43805</v>
+        <v>43804</v>
       </c>
       <c r="B343">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C343">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D343">
-        <f t="shared" si="26"/>
-        <v>6</v>
+        <f t="shared" si="30"/>
+        <v>5</v>
       </c>
       <c r="E343">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>43806</v>
+        <v>43805</v>
       </c>
       <c r="B344">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C344">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D344">
-        <f t="shared" si="26"/>
-        <v>7</v>
+        <f t="shared" si="30"/>
+        <v>6</v>
       </c>
       <c r="E344">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>43807</v>
+        <v>43806</v>
       </c>
       <c r="B345">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C345">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D345">
-        <f t="shared" si="26"/>
-        <v>8</v>
+        <f t="shared" si="30"/>
+        <v>7</v>
       </c>
       <c r="E345">
-        <f t="shared" si="27"/>
-        <v>50</v>
+        <f t="shared" si="31"/>
+        <v>49</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>43808</v>
+        <v>43807</v>
       </c>
       <c r="B346">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C346">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D346">
-        <f t="shared" si="26"/>
-        <v>9</v>
+        <f t="shared" si="30"/>
+        <v>8</v>
       </c>
       <c r="E346">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>43809</v>
+        <v>43808</v>
       </c>
       <c r="B347">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C347">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D347">
-        <f t="shared" si="26"/>
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>9</v>
       </c>
       <c r="E347">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>43810</v>
+        <v>43809</v>
       </c>
       <c r="B348">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C348">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D348">
-        <f t="shared" si="26"/>
-        <v>11</v>
+        <f t="shared" si="30"/>
+        <v>10</v>
       </c>
       <c r="E348">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>43811</v>
+        <v>43810</v>
       </c>
       <c r="B349">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C349">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D349">
-        <f t="shared" si="26"/>
-        <v>12</v>
+        <f t="shared" si="30"/>
+        <v>11</v>
       </c>
       <c r="E349">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="B350">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C350">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D350">
-        <f t="shared" si="26"/>
-        <v>13</v>
+        <f t="shared" si="30"/>
+        <v>12</v>
       </c>
       <c r="E350">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>43813</v>
+        <v>43812</v>
       </c>
       <c r="B351">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C351">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D351">
-        <f t="shared" si="26"/>
-        <v>14</v>
+        <f t="shared" si="30"/>
+        <v>13</v>
       </c>
       <c r="E351">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>43814</v>
+        <v>43813</v>
       </c>
       <c r="B352">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C352">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D352">
-        <f t="shared" si="26"/>
-        <v>15</v>
+        <f t="shared" si="30"/>
+        <v>14</v>
       </c>
       <c r="E352">
-        <f t="shared" si="27"/>
-        <v>51</v>
+        <f t="shared" si="31"/>
+        <v>50</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>43815</v>
+        <v>43814</v>
       </c>
       <c r="B353">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C353">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D353">
-        <f t="shared" si="26"/>
-        <v>16</v>
+        <f t="shared" si="30"/>
+        <v>15</v>
       </c>
       <c r="E353">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="B354">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C354">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D354">
-        <f t="shared" si="26"/>
-        <v>17</v>
+        <f t="shared" si="30"/>
+        <v>16</v>
       </c>
       <c r="E354">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>43817</v>
+        <v>43816</v>
       </c>
       <c r="B355">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C355">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D355">
-        <f t="shared" si="26"/>
-        <v>18</v>
+        <f t="shared" si="30"/>
+        <v>17</v>
       </c>
       <c r="E355">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>43818</v>
+        <v>43817</v>
       </c>
       <c r="B356">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C356">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D356">
-        <f t="shared" si="26"/>
-        <v>19</v>
+        <f t="shared" si="30"/>
+        <v>18</v>
       </c>
       <c r="E356">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>43819</v>
+        <v>43818</v>
       </c>
       <c r="B357">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C357">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D357">
-        <f t="shared" si="26"/>
-        <v>20</v>
+        <f t="shared" si="30"/>
+        <v>19</v>
       </c>
       <c r="E357">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>43820</v>
+        <v>43819</v>
       </c>
       <c r="B358">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C358">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D358">
-        <f t="shared" si="26"/>
-        <v>21</v>
+        <f t="shared" si="30"/>
+        <v>20</v>
       </c>
       <c r="E358">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>43821</v>
+        <v>43820</v>
       </c>
       <c r="B359">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C359">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D359">
-        <f t="shared" si="26"/>
-        <v>22</v>
+        <f t="shared" si="30"/>
+        <v>21</v>
       </c>
       <c r="E359">
-        <f t="shared" si="27"/>
-        <v>52</v>
+        <f t="shared" si="31"/>
+        <v>51</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>43822</v>
+        <v>43821</v>
       </c>
       <c r="B360">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C360">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D360">
-        <f t="shared" si="26"/>
-        <v>23</v>
+        <f t="shared" si="30"/>
+        <v>22</v>
       </c>
       <c r="E360">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>43823</v>
+        <v>43822</v>
       </c>
       <c r="B361">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C361">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D361">
-        <f t="shared" si="26"/>
-        <v>24</v>
+        <f t="shared" si="30"/>
+        <v>23</v>
       </c>
       <c r="E361">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>43824</v>
+        <v>43823</v>
       </c>
       <c r="B362">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C362">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D362">
-        <f t="shared" si="26"/>
-        <v>25</v>
+        <f t="shared" si="30"/>
+        <v>24</v>
       </c>
       <c r="E362">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>43825</v>
+        <v>43824</v>
       </c>
       <c r="B363">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C363">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D363">
-        <f t="shared" si="26"/>
-        <v>26</v>
+        <f t="shared" si="30"/>
+        <v>25</v>
       </c>
       <c r="E363">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>43826</v>
+        <v>43825</v>
       </c>
       <c r="B364">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C364">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D364">
-        <f t="shared" si="26"/>
-        <v>27</v>
+        <f t="shared" si="30"/>
+        <v>26</v>
       </c>
       <c r="E364">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>43827</v>
+        <v>43826</v>
       </c>
       <c r="B365">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C365">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D365">
-        <f t="shared" si="26"/>
-        <v>28</v>
+        <f t="shared" si="30"/>
+        <v>27</v>
       </c>
       <c r="E365">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>43828</v>
+        <v>43827</v>
       </c>
       <c r="B366">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C366">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D366">
-        <f t="shared" si="26"/>
-        <v>29</v>
+        <f t="shared" si="30"/>
+        <v>28</v>
       </c>
       <c r="E366">
-        <f t="shared" si="27"/>
-        <v>53</v>
+        <f t="shared" si="31"/>
+        <v>52</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>43829</v>
+        <v>43828</v>
       </c>
       <c r="B367">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C367">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="D367">
-        <f t="shared" si="26"/>
-        <v>30</v>
+        <f t="shared" si="30"/>
+        <v>29</v>
       </c>
       <c r="E367">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>53</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B368">
+        <f t="shared" si="28"/>
+        <v>2019</v>
+      </c>
+      <c r="C368">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="31"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
         <v>43830</v>
       </c>
-      <c r="B368">
-        <f t="shared" si="24"/>
-        <v>2019</v>
-      </c>
-      <c r="C368">
-        <f t="shared" si="25"/>
+      <c r="B369">
+        <f t="shared" si="28"/>
+        <v>2019</v>
+      </c>
+      <c r="C369">
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
-      <c r="D368">
-        <f t="shared" si="26"/>
+      <c r="D369">
+        <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="E368">
-        <f t="shared" si="27"/>
+      <c r="E369">
+        <f t="shared" si="31"/>
         <v>53</v>
       </c>
     </row>
@@ -8260,10 +8437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082B48B6-1501-774C-818C-F75B39B01AEE}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8315,6 +8492,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>2014</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Mobile Documents/com~apple~CloudDocs/Desktop/github-website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B8ADD3-C516-904C-836C-C76C1121C480}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE29FE9-4740-6742-BC40-EBD40EA9E0CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="1540" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -433,8 +434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F081B7-288B-1045-AB76-1CD03FBCB65E}">
   <dimension ref="A1:G369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="F41">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -1562,6 +1564,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -1583,6 +1591,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -1604,6 +1618,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="F44">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -1625,6 +1645,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -1646,6 +1672,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
+      <c r="F46">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -1667,6 +1699,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -1688,8 +1726,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43510</v>
       </c>
@@ -1709,8 +1753,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43511</v>
       </c>
@@ -1730,8 +1780,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43512</v>
       </c>
@@ -1751,8 +1807,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43513</v>
       </c>
@@ -1772,8 +1834,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43514</v>
       </c>
@@ -1793,8 +1861,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43515</v>
       </c>
@@ -1814,8 +1888,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43516</v>
       </c>
@@ -1835,8 +1915,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43517</v>
       </c>
@@ -1856,8 +1942,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43518</v>
       </c>
@@ -1877,8 +1969,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43519</v>
       </c>
@@ -1898,8 +1996,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43520</v>
       </c>
@@ -1919,8 +2023,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43521</v>
       </c>
@@ -1940,8 +2050,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43522</v>
       </c>
@@ -1961,8 +2077,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43523</v>
       </c>
@@ -1982,8 +2104,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43524</v>
       </c>
@@ -2003,8 +2131,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>36</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43525</v>
       </c>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Mobile Documents/com~apple~CloudDocs/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B8ADD3-C516-904C-836C-C76C1121C480}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E1065-C59F-204F-B94B-4E553185B10E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="1540" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
+    <workbookView xWindow="3200" yWindow="1780" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F081B7-288B-1045-AB76-1CD03FBCB65E}">
   <dimension ref="A1:G369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="F41">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -1562,6 +1562,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -1583,6 +1589,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -1604,6 +1616,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="F44">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -1625,6 +1643,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -1646,6 +1670,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
+      <c r="F46">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -1667,6 +1697,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -1688,8 +1724,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43510</v>
       </c>
@@ -1709,8 +1751,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43511</v>
       </c>
@@ -1730,8 +1778,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43512</v>
       </c>
@@ -1751,8 +1805,14 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43513</v>
       </c>
@@ -1772,8 +1832,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43514</v>
       </c>
@@ -1793,8 +1859,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43515</v>
       </c>
@@ -1814,8 +1886,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43516</v>
       </c>
@@ -1835,8 +1913,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43517</v>
       </c>
@@ -1856,8 +1940,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43518</v>
       </c>
@@ -1877,8 +1967,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43519</v>
       </c>
@@ -1898,8 +1994,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43520</v>
       </c>
@@ -1919,8 +2021,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43521</v>
       </c>
@@ -1940,8 +2048,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43522</v>
       </c>
@@ -1961,8 +2075,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43523</v>
       </c>
@@ -1982,8 +2102,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43524</v>
       </c>
@@ -2003,8 +2129,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>36</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43525</v>
       </c>
@@ -2024,8 +2156,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43526</v>
       </c>
@@ -2045,8 +2183,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43527</v>
       </c>
@@ -2066,8 +2210,14 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43528</v>
       </c>
@@ -2087,8 +2237,14 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43529</v>
       </c>
@@ -2109,7 +2265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43530</v>
       </c>
@@ -2130,7 +2286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43531</v>
       </c>
@@ -2151,7 +2307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43532</v>
       </c>
@@ -2172,7 +2328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43533</v>
       </c>
@@ -2193,7 +2349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43534</v>
       </c>
@@ -2214,7 +2370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43535</v>
       </c>
@@ -2235,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43536</v>
       </c>
@@ -2256,7 +2412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43537</v>
       </c>
@@ -2277,7 +2433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43538</v>
       </c>
@@ -2298,7 +2454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43539</v>
       </c>
@@ -2319,7 +2475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43540</v>
       </c>
@@ -2340,7 +2496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43541</v>
       </c>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE29FE9-4740-6742-BC40-EBD40EA9E0CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843BB512-0CB6-1F48-8401-50D6FB63EF7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -435,8 +435,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2158,8 +2158,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43526</v>
       </c>
@@ -2179,8 +2185,14 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43527</v>
       </c>
@@ -2200,8 +2212,14 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43528</v>
       </c>
@@ -2221,8 +2239,14 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43529</v>
       </c>
@@ -2242,8 +2266,14 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>24</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43530</v>
       </c>
@@ -2263,8 +2293,14 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>22</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43531</v>
       </c>
@@ -2284,8 +2320,14 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>27</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43532</v>
       </c>
@@ -2305,8 +2347,14 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43533</v>
       </c>
@@ -2326,8 +2374,14 @@
         <f t="shared" ref="E72:E135" si="15">WEEKNUM(A72)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43534</v>
       </c>
@@ -2347,8 +2401,14 @@
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>13</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43535</v>
       </c>
@@ -2368,8 +2428,14 @@
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43536</v>
       </c>
@@ -2389,8 +2455,14 @@
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43537</v>
       </c>
@@ -2410,8 +2482,14 @@
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43538</v>
       </c>
@@ -2432,7 +2510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43539</v>
       </c>
@@ -2453,7 +2531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43540</v>
       </c>
@@ -2474,7 +2552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43541</v>
       </c>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843BB512-0CB6-1F48-8401-50D6FB63EF7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF8A86-01DB-1B4D-B418-1391969E02B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -435,8 +435,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2509,6 +2509,12 @@
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -2530,6 +2536,12 @@
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -2551,6 +2563,12 @@
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -2572,8 +2590,14 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43542</v>
       </c>
@@ -2593,8 +2617,14 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43543</v>
       </c>
@@ -2614,8 +2644,14 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43544</v>
       </c>
@@ -2635,8 +2671,14 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43545</v>
       </c>
@@ -2656,8 +2698,14 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43546</v>
       </c>
@@ -2677,8 +2725,14 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43547</v>
       </c>
@@ -2698,8 +2752,14 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43548</v>
       </c>
@@ -2719,8 +2779,14 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43549</v>
       </c>
@@ -2740,8 +2806,14 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43550</v>
       </c>
@@ -2761,8 +2833,14 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43551</v>
       </c>
@@ -2782,8 +2860,14 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43552</v>
       </c>
@@ -2803,8 +2887,14 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43553</v>
       </c>
@@ -2824,8 +2914,14 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43554</v>
       </c>
@@ -2845,8 +2941,14 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43555</v>
       </c>
@@ -2866,8 +2968,14 @@
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43556</v>
       </c>
@@ -2887,8 +2995,14 @@
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43557</v>
       </c>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF8A86-01DB-1B4D-B418-1391969E02B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B81A5-5578-B146-9E64-E582A9975CC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Mike X Cohen</t>
+  </si>
+  <si>
+    <t>The Sensory Order</t>
+  </si>
+  <si>
+    <t>Friedrich A. Hayek</t>
   </si>
 </sst>
 </file>
@@ -435,8 +441,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76:G95"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2351,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2378,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2405,7 +2411,7 @@
         <v>13</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2432,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2459,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2486,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2513,7 +2519,7 @@
         <v>6</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2540,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2567,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2594,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2621,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2648,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2675,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2702,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2729,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2756,7 +2762,7 @@
         <v>5</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2783,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2810,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2837,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2864,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2891,7 +2897,7 @@
         <v>8</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2918,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2945,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2972,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2999,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -8763,7 +8769,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082B48B6-1501-774C-818C-F75B39B01AEE}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -8832,6 +8838,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1952</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Mobile Documents/com~apple~CloudDocs/Desktop/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B81A5-5578-B146-9E64-E582A9975CC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B373B-5709-1F49-93CF-4247CD1135B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>Friedrich A. Hayek</t>
+  </si>
+  <si>
+    <t>Principles of Frontal Lobe Function - Second Edition</t>
+  </si>
+  <si>
+    <t>Donald T. Stuss &amp; Robert T. Knight</t>
+  </si>
+  <si>
+    <t>The Oxford Handbook of Event-Related Potential Components</t>
+  </si>
+  <si>
+    <t>Steven J. Luck &amp; Emily S. Kappenman</t>
   </si>
 </sst>
 </file>
@@ -441,8 +453,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72:G95"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3028,8 +3040,14 @@
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43558</v>
       </c>
@@ -3049,8 +3067,14 @@
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43559</v>
       </c>
@@ -3070,8 +3094,14 @@
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43560</v>
       </c>
@@ -3091,8 +3121,14 @@
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>21</v>
+      </c>
+      <c r="G99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43561</v>
       </c>
@@ -3112,8 +3148,14 @@
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43562</v>
       </c>
@@ -3133,8 +3175,14 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43563</v>
       </c>
@@ -3155,7 +3203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43564</v>
       </c>
@@ -3176,7 +3224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43565</v>
       </c>
@@ -3197,7 +3245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43566</v>
       </c>
@@ -3218,7 +3266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43567</v>
       </c>
@@ -3239,7 +3287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43568</v>
       </c>
@@ -3260,7 +3308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43569</v>
       </c>
@@ -3281,7 +3329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43570</v>
       </c>
@@ -3302,7 +3350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43571</v>
       </c>
@@ -3323,7 +3371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43572</v>
       </c>
@@ -3344,7 +3392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43573</v>
       </c>
@@ -8769,17 +8817,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082B48B6-1501-774C-818C-F75B39B01AEE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -8852,6 +8900,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>2013</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>2012</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Mobile Documents/com~apple~CloudDocs/Desktop/github-website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/githup-repos/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B373B-5709-1F49-93CF-4247CD1135B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C309F-6BC0-464B-869B-AE28CEBE02C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Steven J. Luck &amp; Emily S. Kappenman</t>
+  </si>
+  <si>
+    <t>The Hundred-Page Machine Learning Book</t>
+  </si>
+  <si>
+    <t>Andriy Burkov</t>
   </si>
 </sst>
 </file>
@@ -453,8 +459,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3202,6 +3208,12 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
@@ -3223,6 +3235,12 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -3244,6 +3262,12 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -3265,6 +3289,12 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
+      <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -3286,6 +3316,12 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -3307,6 +3343,12 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -3328,6 +3370,12 @@
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -3349,6 +3397,12 @@
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
@@ -3370,6 +3424,12 @@
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -3391,6 +3451,12 @@
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -3412,8 +3478,14 @@
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43574</v>
       </c>
@@ -3433,8 +3505,14 @@
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43575</v>
       </c>
@@ -3454,8 +3532,14 @@
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43576</v>
       </c>
@@ -3475,8 +3559,14 @@
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43577</v>
       </c>
@@ -3496,8 +3586,14 @@
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43578</v>
       </c>
@@ -3517,8 +3613,14 @@
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <v>14</v>
+      </c>
+      <c r="G117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43579</v>
       </c>
@@ -3538,8 +3640,14 @@
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43580</v>
       </c>
@@ -3559,8 +3667,14 @@
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>6</v>
+      </c>
+      <c r="G119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43581</v>
       </c>
@@ -3580,8 +3694,14 @@
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43582</v>
       </c>
@@ -3601,8 +3721,14 @@
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43583</v>
       </c>
@@ -3622,8 +3748,14 @@
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43584</v>
       </c>
@@ -3643,8 +3775,14 @@
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="G123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43585</v>
       </c>
@@ -3664,8 +3802,14 @@
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <v>5</v>
+      </c>
+      <c r="G124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43586</v>
       </c>
@@ -3685,8 +3829,14 @@
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43587</v>
       </c>
@@ -3707,7 +3857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43588</v>
       </c>
@@ -3728,7 +3878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43589</v>
       </c>
@@ -8817,10 +8967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082B48B6-1501-774C-818C-F75B39B01AEE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8928,6 +9078,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/githup-repos/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C309F-6BC0-464B-869B-AE28CEBE02C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A9F823-7918-F441-BB6D-978ADEC10CD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -459,8 +459,8 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I163" sqref="I151:I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3856,6 +3856,12 @@
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>7</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
@@ -3877,6 +3883,12 @@
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>7</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
@@ -3898,8 +3910,14 @@
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43590</v>
       </c>
@@ -3919,8 +3937,14 @@
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43591</v>
       </c>
@@ -3940,8 +3964,14 @@
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43592</v>
       </c>
@@ -3961,8 +3991,14 @@
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43593</v>
       </c>
@@ -3982,8 +4018,14 @@
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43594</v>
       </c>
@@ -4003,8 +4045,14 @@
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43595</v>
       </c>
@@ -4024,8 +4072,14 @@
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43596</v>
       </c>
@@ -4045,8 +4099,14 @@
         <f t="shared" si="15"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43597</v>
       </c>
@@ -4066,8 +4126,14 @@
         <f t="shared" ref="E136:E199" si="19">WEEKNUM(A136)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43598</v>
       </c>
@@ -4087,8 +4153,14 @@
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43599</v>
       </c>
@@ -4108,8 +4180,14 @@
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43600</v>
       </c>
@@ -4129,8 +4207,14 @@
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43601</v>
       </c>
@@ -4150,8 +4234,14 @@
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43602</v>
       </c>
@@ -4171,8 +4261,14 @@
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43603</v>
       </c>
@@ -4192,8 +4288,14 @@
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43604</v>
       </c>
@@ -4213,8 +4315,14 @@
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43605</v>
       </c>
@@ -4234,8 +4342,14 @@
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144">
+        <v>6</v>
+      </c>
+      <c r="G144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43606</v>
       </c>
@@ -4255,8 +4369,14 @@
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145">
+        <v>6</v>
+      </c>
+      <c r="G145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43607</v>
       </c>
@@ -4276,8 +4396,14 @@
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43608</v>
       </c>
@@ -4297,8 +4423,14 @@
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43609</v>
       </c>
@@ -4318,8 +4450,14 @@
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43610</v>
       </c>
@@ -4339,8 +4477,14 @@
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43611</v>
       </c>
@@ -4360,8 +4504,14 @@
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43612</v>
       </c>
@@ -4381,8 +4531,14 @@
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43613</v>
       </c>
@@ -4402,8 +4558,14 @@
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43614</v>
       </c>
@@ -4423,8 +4585,14 @@
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43615</v>
       </c>
@@ -4444,8 +4612,14 @@
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43616</v>
       </c>
@@ -4465,8 +4639,14 @@
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43617</v>
       </c>
@@ -4486,8 +4666,14 @@
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43618</v>
       </c>
@@ -4507,8 +4693,14 @@
         <f t="shared" si="19"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43619</v>
       </c>
@@ -4528,8 +4720,14 @@
         <f t="shared" si="19"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43620</v>
       </c>
@@ -4550,7 +4748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43621</v>
       </c>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/githup-repos/github-website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjk140130/Desktop/githup-repos/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A9F823-7918-F441-BB6D-978ADEC10CD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1247EE12-574F-9743-8C68-3ECB809C0DEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
+    <workbookView xWindow="25680" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -104,6 +103,18 @@
   </si>
   <si>
     <t>Andriy Burkov</t>
+  </si>
+  <si>
+    <t>A Game of Thrones</t>
+  </si>
+  <si>
+    <t>George R. R. Martin</t>
+  </si>
+  <si>
+    <t>The Organization of Behavior</t>
+  </si>
+  <si>
+    <t>D. O. Hebb</t>
   </si>
 </sst>
 </file>
@@ -456,11 +467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F081B7-288B-1045-AB76-1CD03FBCB65E}">
-  <dimension ref="A1:G369"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I163" sqref="I151:I163"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4747,6 +4758,12 @@
         <f t="shared" si="19"/>
         <v>23</v>
       </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+      <c r="G159">
+        <v>7</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
@@ -4768,8 +4785,14 @@
         <f t="shared" si="19"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43622</v>
       </c>
@@ -4789,8 +4812,14 @@
         <f t="shared" si="19"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43623</v>
       </c>
@@ -4810,8 +4839,14 @@
         <f t="shared" si="19"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>4</v>
+      </c>
+      <c r="G162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43624</v>
       </c>
@@ -4831,8 +4866,14 @@
         <f t="shared" si="19"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43625</v>
       </c>
@@ -4852,8 +4893,14 @@
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43626</v>
       </c>
@@ -4873,8 +4920,14 @@
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>4</v>
+      </c>
+      <c r="G165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43627</v>
       </c>
@@ -4894,8 +4947,14 @@
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43628</v>
       </c>
@@ -4915,8 +4974,14 @@
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43629</v>
       </c>
@@ -4936,8 +5001,14 @@
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43630</v>
       </c>
@@ -4957,8 +5028,14 @@
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43631</v>
       </c>
@@ -4978,8 +5055,14 @@
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43632</v>
       </c>
@@ -4999,8 +5082,14 @@
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>16</v>
+      </c>
+      <c r="G171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43633</v>
       </c>
@@ -5020,8 +5109,14 @@
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>9</v>
+      </c>
+      <c r="G172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43634</v>
       </c>
@@ -5041,8 +5136,14 @@
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <v>10</v>
+      </c>
+      <c r="G173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43635</v>
       </c>
@@ -5062,8 +5163,14 @@
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174">
+        <v>8</v>
+      </c>
+      <c r="G174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43636</v>
       </c>
@@ -5083,8 +5190,14 @@
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43637</v>
       </c>
@@ -5104,8 +5217,14 @@
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43638</v>
       </c>
@@ -5125,8 +5244,14 @@
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43639</v>
       </c>
@@ -5146,8 +5271,14 @@
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43640</v>
       </c>
@@ -5167,8 +5298,14 @@
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43641</v>
       </c>
@@ -5188,8 +5325,14 @@
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180">
+        <v>5</v>
+      </c>
+      <c r="G180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43642</v>
       </c>
@@ -5209,8 +5352,14 @@
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43643</v>
       </c>
@@ -5230,8 +5379,14 @@
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182">
+        <v>12</v>
+      </c>
+      <c r="G182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43644</v>
       </c>
@@ -5251,8 +5406,14 @@
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183">
+        <v>20</v>
+      </c>
+      <c r="G183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43645</v>
       </c>
@@ -5272,8 +5433,14 @@
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43646</v>
       </c>
@@ -5293,8 +5460,14 @@
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43647</v>
       </c>
@@ -5314,8 +5487,14 @@
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186">
+        <v>5</v>
+      </c>
+      <c r="G186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43648</v>
       </c>
@@ -5335,8 +5514,14 @@
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187">
+        <v>18</v>
+      </c>
+      <c r="G187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43649</v>
       </c>
@@ -5356,8 +5541,14 @@
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188">
+        <v>4</v>
+      </c>
+      <c r="G188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43650</v>
       </c>
@@ -5377,8 +5568,14 @@
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43651</v>
       </c>
@@ -5398,8 +5595,14 @@
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43652</v>
       </c>
@@ -5419,8 +5622,14 @@
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43653</v>
       </c>
@@ -5440,8 +5649,14 @@
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192">
+        <v>44</v>
+      </c>
+      <c r="G192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43654</v>
       </c>
@@ -5461,8 +5676,14 @@
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193">
+        <v>6</v>
+      </c>
+      <c r="G193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43655</v>
       </c>
@@ -5482,8 +5703,14 @@
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194">
+        <v>8</v>
+      </c>
+      <c r="G194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43656</v>
       </c>
@@ -5503,8 +5730,14 @@
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195">
+        <v>16</v>
+      </c>
+      <c r="G195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43657</v>
       </c>
@@ -5524,8 +5757,14 @@
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43658</v>
       </c>
@@ -5545,8 +5784,14 @@
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43659</v>
       </c>
@@ -5566,8 +5811,14 @@
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43660</v>
       </c>
@@ -5587,29 +5838,41 @@
         <f t="shared" si="19"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43661</v>
       </c>
       <c r="B200">
-        <f t="shared" ref="B200:B263" si="20">YEAR(A200)</f>
+        <f t="shared" ref="B200:B264" si="20">YEAR(A200)</f>
         <v>2019</v>
       </c>
       <c r="C200">
-        <f t="shared" ref="C200:C263" si="21">MONTH(A200)</f>
+        <f t="shared" ref="C200:C264" si="21">MONTH(A200)</f>
         <v>7</v>
       </c>
       <c r="D200">
-        <f t="shared" ref="D200:D263" si="22">DAY(A200)</f>
+        <f t="shared" ref="D200:D264" si="22">DAY(A200)</f>
         <v>15</v>
       </c>
       <c r="E200">
-        <f t="shared" ref="E200:E263" si="23">WEEKNUM(A200)</f>
+        <f t="shared" ref="E200:E264" si="23">WEEKNUM(A200)</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43662</v>
       </c>
@@ -5629,8 +5892,14 @@
         <f t="shared" si="23"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201">
+        <v>4</v>
+      </c>
+      <c r="G201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43663</v>
       </c>
@@ -5650,8 +5919,14 @@
         <f t="shared" si="23"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43664</v>
       </c>
@@ -5671,8 +5946,14 @@
         <f t="shared" si="23"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203">
+        <v>4</v>
+      </c>
+      <c r="G203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43665</v>
       </c>
@@ -5692,8 +5973,14 @@
         <f t="shared" si="23"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43666</v>
       </c>
@@ -5713,8 +6000,14 @@
         <f t="shared" si="23"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43667</v>
       </c>
@@ -5734,8 +6027,14 @@
         <f t="shared" si="23"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43668</v>
       </c>
@@ -5755,8 +6054,14 @@
         <f t="shared" si="23"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43669</v>
       </c>
@@ -5776,8 +6081,14 @@
         <f t="shared" si="23"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43670</v>
       </c>
@@ -5797,8 +6108,14 @@
         <f t="shared" si="23"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43671</v>
       </c>
@@ -5818,8 +6135,14 @@
         <f t="shared" si="23"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43672</v>
       </c>
@@ -5839,8 +6162,14 @@
         <f t="shared" si="23"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43673</v>
       </c>
@@ -5860,8 +6189,14 @@
         <f t="shared" si="23"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43674</v>
       </c>
@@ -5881,8 +6216,14 @@
         <f t="shared" si="23"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43675</v>
       </c>
@@ -5902,8 +6243,14 @@
         <f t="shared" si="23"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43676</v>
       </c>
@@ -5923,8 +6270,14 @@
         <f t="shared" si="23"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43677</v>
       </c>
@@ -5944,8 +6297,14 @@
         <f t="shared" si="23"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43678</v>
       </c>
@@ -5965,8 +6324,14 @@
         <f t="shared" si="23"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43679</v>
       </c>
@@ -5986,8 +6351,14 @@
         <f t="shared" si="23"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43680</v>
       </c>
@@ -6007,8 +6378,14 @@
         <f t="shared" si="23"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43681</v>
       </c>
@@ -6028,8 +6405,14 @@
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43682</v>
       </c>
@@ -6049,8 +6432,14 @@
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221">
+        <v>44</v>
+      </c>
+      <c r="G221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43683</v>
       </c>
@@ -6070,8 +6459,14 @@
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222">
+        <v>44</v>
+      </c>
+      <c r="G222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43684</v>
       </c>
@@ -6091,8 +6486,14 @@
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223">
+        <v>44</v>
+      </c>
+      <c r="G223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43685</v>
       </c>
@@ -6112,8 +6513,14 @@
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224">
+        <v>12</v>
+      </c>
+      <c r="G224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43686</v>
       </c>
@@ -6133,8 +6540,14 @@
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43687</v>
       </c>
@@ -6154,8 +6567,14 @@
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43688</v>
       </c>
@@ -6175,8 +6594,14 @@
         <f t="shared" si="23"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43689</v>
       </c>
@@ -6196,8 +6621,14 @@
         <f t="shared" si="23"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228">
+        <v>14</v>
+      </c>
+      <c r="G228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43690</v>
       </c>
@@ -6217,52 +6648,70 @@
         <f t="shared" si="23"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229">
+        <v>22</v>
+      </c>
+      <c r="G229">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43691</v>
       </c>
       <c r="B230">
+        <f t="shared" ref="B230" si="24">YEAR(A230)</f>
+        <v>2019</v>
+      </c>
+      <c r="C230">
+        <f t="shared" ref="C230" si="25">MONTH(A230)</f>
+        <v>8</v>
+      </c>
+      <c r="D230">
+        <f t="shared" ref="D230" si="26">DAY(A230)</f>
+        <v>14</v>
+      </c>
+      <c r="E230">
+        <f t="shared" ref="E230" si="27">WEEKNUM(A230)</f>
+        <v>33</v>
+      </c>
+      <c r="F230">
+        <v>15</v>
+      </c>
+      <c r="G230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>43691</v>
+      </c>
+      <c r="B231">
         <f t="shared" si="20"/>
         <v>2019</v>
       </c>
-      <c r="C230">
+      <c r="C231">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="D230">
+      <c r="D231">
         <f t="shared" si="22"/>
         <v>14</v>
-      </c>
-      <c r="E230">
-        <f t="shared" si="23"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
-        <v>43692</v>
-      </c>
-      <c r="B231">
-        <f t="shared" si="20"/>
-        <v>2019</v>
-      </c>
-      <c r="C231">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="D231">
-        <f t="shared" si="22"/>
-        <v>15</v>
       </c>
       <c r="E231">
         <f t="shared" si="23"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231">
+        <v>11</v>
+      </c>
+      <c r="G231">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>43693</v>
+        <v>43692</v>
       </c>
       <c r="B232">
         <f t="shared" si="20"/>
@@ -6274,16 +6723,22 @@
       </c>
       <c r="D232">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E232">
         <f t="shared" si="23"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232">
+        <v>12</v>
+      </c>
+      <c r="G232">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>43694</v>
+        <v>43693</v>
       </c>
       <c r="B233">
         <f t="shared" si="20"/>
@@ -6295,16 +6750,16 @@
       </c>
       <c r="D233">
         <f t="shared" si="22"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E233">
         <f t="shared" si="23"/>
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>43695</v>
+        <v>43694</v>
       </c>
       <c r="B234">
         <f t="shared" si="20"/>
@@ -6316,16 +6771,16 @@
       </c>
       <c r="D234">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E234">
         <f t="shared" si="23"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>43696</v>
+        <v>43695</v>
       </c>
       <c r="B235">
         <f t="shared" si="20"/>
@@ -6337,16 +6792,16 @@
       </c>
       <c r="D235">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E235">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>43697</v>
+        <v>43696</v>
       </c>
       <c r="B236">
         <f t="shared" si="20"/>
@@ -6358,16 +6813,16 @@
       </c>
       <c r="D236">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E236">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>43698</v>
+        <v>43697</v>
       </c>
       <c r="B237">
         <f t="shared" si="20"/>
@@ -6379,16 +6834,16 @@
       </c>
       <c r="D237">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E237">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>43699</v>
+        <v>43698</v>
       </c>
       <c r="B238">
         <f t="shared" si="20"/>
@@ -6400,16 +6855,16 @@
       </c>
       <c r="D238">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E238">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>43700</v>
+        <v>43699</v>
       </c>
       <c r="B239">
         <f t="shared" si="20"/>
@@ -6421,16 +6876,16 @@
       </c>
       <c r="D239">
         <f t="shared" si="22"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E239">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>43701</v>
+        <v>43700</v>
       </c>
       <c r="B240">
         <f t="shared" si="20"/>
@@ -6442,7 +6897,7 @@
       </c>
       <c r="D240">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E240">
         <f t="shared" si="23"/>
@@ -6451,7 +6906,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>43702</v>
+        <v>43701</v>
       </c>
       <c r="B241">
         <f t="shared" si="20"/>
@@ -6463,16 +6918,16 @@
       </c>
       <c r="D241">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E241">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>43703</v>
+        <v>43702</v>
       </c>
       <c r="B242">
         <f t="shared" si="20"/>
@@ -6484,7 +6939,7 @@
       </c>
       <c r="D242">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E242">
         <f t="shared" si="23"/>
@@ -6493,7 +6948,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>43704</v>
+        <v>43703</v>
       </c>
       <c r="B243">
         <f t="shared" si="20"/>
@@ -6505,7 +6960,7 @@
       </c>
       <c r="D243">
         <f t="shared" si="22"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E243">
         <f t="shared" si="23"/>
@@ -6514,7 +6969,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>43705</v>
+        <v>43704</v>
       </c>
       <c r="B244">
         <f t="shared" si="20"/>
@@ -6526,7 +6981,7 @@
       </c>
       <c r="D244">
         <f t="shared" si="22"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E244">
         <f t="shared" si="23"/>
@@ -6535,7 +6990,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>43706</v>
+        <v>43705</v>
       </c>
       <c r="B245">
         <f t="shared" si="20"/>
@@ -6547,7 +7002,7 @@
       </c>
       <c r="D245">
         <f t="shared" si="22"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E245">
         <f t="shared" si="23"/>
@@ -6556,7 +7011,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>43707</v>
+        <v>43706</v>
       </c>
       <c r="B246">
         <f t="shared" si="20"/>
@@ -6568,7 +7023,7 @@
       </c>
       <c r="D246">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E246">
         <f t="shared" si="23"/>
@@ -6577,7 +7032,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>43708</v>
+        <v>43707</v>
       </c>
       <c r="B247">
         <f t="shared" si="20"/>
@@ -6589,7 +7044,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E247">
         <f t="shared" si="23"/>
@@ -6598,7 +7053,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>43709</v>
+        <v>43708</v>
       </c>
       <c r="B248">
         <f t="shared" si="20"/>
@@ -6606,20 +7061,20 @@
       </c>
       <c r="C248">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D248">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E248">
         <f t="shared" si="23"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>43710</v>
+        <v>43709</v>
       </c>
       <c r="B249">
         <f t="shared" si="20"/>
@@ -6631,7 +7086,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E249">
         <f t="shared" si="23"/>
@@ -6640,7 +7095,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>43711</v>
+        <v>43710</v>
       </c>
       <c r="B250">
         <f t="shared" si="20"/>
@@ -6652,7 +7107,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E250">
         <f t="shared" si="23"/>
@@ -6661,7 +7116,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>43712</v>
+        <v>43711</v>
       </c>
       <c r="B251">
         <f t="shared" si="20"/>
@@ -6673,7 +7128,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E251">
         <f t="shared" si="23"/>
@@ -6682,7 +7137,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>43713</v>
+        <v>43712</v>
       </c>
       <c r="B252">
         <f t="shared" si="20"/>
@@ -6694,7 +7149,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E252">
         <f t="shared" si="23"/>
@@ -6703,7 +7158,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>43714</v>
+        <v>43713</v>
       </c>
       <c r="B253">
         <f t="shared" si="20"/>
@@ -6715,7 +7170,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E253">
         <f t="shared" si="23"/>
@@ -6724,7 +7179,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>43715</v>
+        <v>43714</v>
       </c>
       <c r="B254">
         <f t="shared" si="20"/>
@@ -6736,7 +7191,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E254">
         <f t="shared" si="23"/>
@@ -6745,7 +7200,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>43716</v>
+        <v>43715</v>
       </c>
       <c r="B255">
         <f t="shared" si="20"/>
@@ -6757,16 +7212,16 @@
       </c>
       <c r="D255">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E255">
         <f t="shared" si="23"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>43717</v>
+        <v>43716</v>
       </c>
       <c r="B256">
         <f t="shared" si="20"/>
@@ -6778,7 +7233,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E256">
         <f t="shared" si="23"/>
@@ -6787,7 +7242,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>43718</v>
+        <v>43717</v>
       </c>
       <c r="B257">
         <f t="shared" si="20"/>
@@ -6799,7 +7254,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E257">
         <f t="shared" si="23"/>
@@ -6808,7 +7263,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>43719</v>
+        <v>43718</v>
       </c>
       <c r="B258">
         <f t="shared" si="20"/>
@@ -6820,7 +7275,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E258">
         <f t="shared" si="23"/>
@@ -6829,7 +7284,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>43720</v>
+        <v>43719</v>
       </c>
       <c r="B259">
         <f t="shared" si="20"/>
@@ -6841,7 +7296,7 @@
       </c>
       <c r="D259">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E259">
         <f t="shared" si="23"/>
@@ -6850,7 +7305,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="B260">
         <f t="shared" si="20"/>
@@ -6862,7 +7317,7 @@
       </c>
       <c r="D260">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E260">
         <f t="shared" si="23"/>
@@ -6871,7 +7326,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43722</v>
+        <v>43721</v>
       </c>
       <c r="B261">
         <f t="shared" si="20"/>
@@ -6883,7 +7338,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E261">
         <f t="shared" si="23"/>
@@ -6892,7 +7347,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="B262">
         <f t="shared" si="20"/>
@@ -6904,16 +7359,16 @@
       </c>
       <c r="D262">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E262">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>43724</v>
+        <v>43723</v>
       </c>
       <c r="B263">
         <f t="shared" si="20"/>
@@ -6925,7 +7380,7 @@
       </c>
       <c r="D263">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E263">
         <f t="shared" si="23"/>
@@ -6934,2227 +7389,2248 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43725</v>
+        <v>43724</v>
       </c>
       <c r="B264">
-        <f t="shared" ref="B264:B327" si="24">YEAR(A264)</f>
+        <f t="shared" si="20"/>
         <v>2019</v>
       </c>
       <c r="C264">
-        <f t="shared" ref="C264:C327" si="25">MONTH(A264)</f>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="D264">
-        <f t="shared" ref="D264:D327" si="26">DAY(A264)</f>
-        <v>17</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="E264">
-        <f t="shared" ref="E264:E327" si="27">WEEKNUM(A264)</f>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>43726</v>
+        <v>43725</v>
       </c>
       <c r="B265">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="B265:B328" si="28">YEAR(A265)</f>
         <v>2019</v>
       </c>
       <c r="C265">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="C265:C328" si="29">MONTH(A265)</f>
         <v>9</v>
       </c>
       <c r="D265">
-        <f t="shared" si="26"/>
-        <v>18</v>
+        <f t="shared" ref="D265:D328" si="30">DAY(A265)</f>
+        <v>17</v>
       </c>
       <c r="E265">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="E265:E328" si="31">WEEKNUM(A265)</f>
         <v>38</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>43727</v>
+        <v>43726</v>
       </c>
       <c r="B266">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C266">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D266">
-        <f t="shared" si="26"/>
-        <v>19</v>
+        <f t="shared" si="30"/>
+        <v>18</v>
       </c>
       <c r="E266">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>38</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>43728</v>
+        <v>43727</v>
       </c>
       <c r="B267">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C267">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D267">
-        <f t="shared" si="26"/>
-        <v>20</v>
+        <f t="shared" si="30"/>
+        <v>19</v>
       </c>
       <c r="E267">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>38</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>43729</v>
+        <v>43728</v>
       </c>
       <c r="B268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D268">
-        <f t="shared" si="26"/>
-        <v>21</v>
+        <f t="shared" si="30"/>
+        <v>20</v>
       </c>
       <c r="E268">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>38</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>43730</v>
+        <v>43729</v>
       </c>
       <c r="B269">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C269">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D269">
-        <f t="shared" si="26"/>
-        <v>22</v>
+        <f t="shared" si="30"/>
+        <v>21</v>
       </c>
       <c r="E269">
-        <f t="shared" si="27"/>
-        <v>39</v>
+        <f t="shared" si="31"/>
+        <v>38</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>43731</v>
+        <v>43730</v>
       </c>
       <c r="B270">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C270">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D270">
-        <f t="shared" si="26"/>
-        <v>23</v>
+        <f t="shared" si="30"/>
+        <v>22</v>
       </c>
       <c r="E270">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="B271">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C271">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D271">
-        <f t="shared" si="26"/>
-        <v>24</v>
+        <f t="shared" si="30"/>
+        <v>23</v>
       </c>
       <c r="E271">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>43733</v>
+        <v>43732</v>
       </c>
       <c r="B272">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C272">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D272">
-        <f t="shared" si="26"/>
-        <v>25</v>
+        <f t="shared" si="30"/>
+        <v>24</v>
       </c>
       <c r="E272">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>43734</v>
+        <v>43733</v>
       </c>
       <c r="B273">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C273">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D273">
-        <f t="shared" si="26"/>
-        <v>26</v>
+        <f t="shared" si="30"/>
+        <v>25</v>
       </c>
       <c r="E273">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>43735</v>
+        <v>43734</v>
       </c>
       <c r="B274">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C274">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D274">
-        <f t="shared" si="26"/>
-        <v>27</v>
+        <f t="shared" si="30"/>
+        <v>26</v>
       </c>
       <c r="E274">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>43736</v>
+        <v>43735</v>
       </c>
       <c r="B275">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C275">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D275">
-        <f t="shared" si="26"/>
-        <v>28</v>
+        <f t="shared" si="30"/>
+        <v>27</v>
       </c>
       <c r="E275">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>43737</v>
+        <v>43736</v>
       </c>
       <c r="B276">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C276">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D276">
-        <f t="shared" si="26"/>
-        <v>29</v>
+        <f t="shared" si="30"/>
+        <v>28</v>
       </c>
       <c r="E276">
-        <f t="shared" si="27"/>
-        <v>40</v>
+        <f t="shared" si="31"/>
+        <v>39</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>43738</v>
+        <v>43737</v>
       </c>
       <c r="B277">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C277">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="D277">
-        <f t="shared" si="26"/>
-        <v>30</v>
+        <f t="shared" si="30"/>
+        <v>29</v>
       </c>
       <c r="E277">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>43739</v>
+        <v>43738</v>
       </c>
       <c r="B278">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C278">
-        <f t="shared" si="25"/>
-        <v>10</v>
+        <f t="shared" si="29"/>
+        <v>9</v>
       </c>
       <c r="D278">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>30</v>
       </c>
       <c r="E278">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>43740</v>
+        <v>43739</v>
       </c>
       <c r="B279">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C279">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D279">
-        <f t="shared" si="26"/>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="E279">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>43741</v>
+        <v>43740</v>
       </c>
       <c r="B280">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C280">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D280">
-        <f t="shared" si="26"/>
-        <v>3</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
       <c r="E280">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>43742</v>
+        <v>43741</v>
       </c>
       <c r="B281">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C281">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D281">
-        <f t="shared" si="26"/>
-        <v>4</v>
+        <f t="shared" si="30"/>
+        <v>3</v>
       </c>
       <c r="E281">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>43743</v>
+        <v>43742</v>
       </c>
       <c r="B282">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C282">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D282">
-        <f t="shared" si="26"/>
-        <v>5</v>
+        <f t="shared" si="30"/>
+        <v>4</v>
       </c>
       <c r="E282">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>43744</v>
+        <v>43743</v>
       </c>
       <c r="B283">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C283">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D283">
-        <f t="shared" si="26"/>
-        <v>6</v>
+        <f t="shared" si="30"/>
+        <v>5</v>
       </c>
       <c r="E283">
-        <f t="shared" si="27"/>
-        <v>41</v>
+        <f t="shared" si="31"/>
+        <v>40</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>43745</v>
+        <v>43744</v>
       </c>
       <c r="B284">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C284">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D284">
-        <f t="shared" si="26"/>
-        <v>7</v>
+        <f t="shared" si="30"/>
+        <v>6</v>
       </c>
       <c r="E284">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>43746</v>
+        <v>43745</v>
       </c>
       <c r="B285">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C285">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D285">
-        <f t="shared" si="26"/>
-        <v>8</v>
+        <f t="shared" si="30"/>
+        <v>7</v>
       </c>
       <c r="E285">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>43747</v>
+        <v>43746</v>
       </c>
       <c r="B286">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C286">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D286">
-        <f t="shared" si="26"/>
-        <v>9</v>
+        <f t="shared" si="30"/>
+        <v>8</v>
       </c>
       <c r="E286">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>43748</v>
+        <v>43747</v>
       </c>
       <c r="B287">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C287">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D287">
-        <f t="shared" si="26"/>
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>9</v>
       </c>
       <c r="E287">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>43749</v>
+        <v>43748</v>
       </c>
       <c r="B288">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C288">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D288">
-        <f t="shared" si="26"/>
-        <v>11</v>
+        <f t="shared" si="30"/>
+        <v>10</v>
       </c>
       <c r="E288">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>43750</v>
+        <v>43749</v>
       </c>
       <c r="B289">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C289">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D289">
-        <f t="shared" si="26"/>
-        <v>12</v>
+        <f t="shared" si="30"/>
+        <v>11</v>
       </c>
       <c r="E289">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>43751</v>
+        <v>43750</v>
       </c>
       <c r="B290">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C290">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D290">
-        <f t="shared" si="26"/>
-        <v>13</v>
+        <f t="shared" si="30"/>
+        <v>12</v>
       </c>
       <c r="E290">
-        <f t="shared" si="27"/>
-        <v>42</v>
+        <f t="shared" si="31"/>
+        <v>41</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>43752</v>
+        <v>43751</v>
       </c>
       <c r="B291">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D291">
-        <f t="shared" si="26"/>
-        <v>14</v>
+        <f t="shared" si="30"/>
+        <v>13</v>
       </c>
       <c r="E291">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>43753</v>
+        <v>43752</v>
       </c>
       <c r="B292">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C292">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D292">
-        <f t="shared" si="26"/>
-        <v>15</v>
+        <f t="shared" si="30"/>
+        <v>14</v>
       </c>
       <c r="E292">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>43754</v>
+        <v>43753</v>
       </c>
       <c r="B293">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C293">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D293">
-        <f t="shared" si="26"/>
-        <v>16</v>
+        <f t="shared" si="30"/>
+        <v>15</v>
       </c>
       <c r="E293">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>43755</v>
+        <v>43754</v>
       </c>
       <c r="B294">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C294">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D294">
-        <f t="shared" si="26"/>
-        <v>17</v>
+        <f t="shared" si="30"/>
+        <v>16</v>
       </c>
       <c r="E294">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>43756</v>
+        <v>43755</v>
       </c>
       <c r="B295">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C295">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D295">
-        <f t="shared" si="26"/>
-        <v>18</v>
+        <f t="shared" si="30"/>
+        <v>17</v>
       </c>
       <c r="E295">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>43757</v>
+        <v>43756</v>
       </c>
       <c r="B296">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C296">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D296">
-        <f t="shared" si="26"/>
-        <v>19</v>
+        <f t="shared" si="30"/>
+        <v>18</v>
       </c>
       <c r="E296">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>43758</v>
+        <v>43757</v>
       </c>
       <c r="B297">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C297">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D297">
-        <f t="shared" si="26"/>
-        <v>20</v>
+        <f t="shared" si="30"/>
+        <v>19</v>
       </c>
       <c r="E297">
-        <f t="shared" si="27"/>
-        <v>43</v>
+        <f t="shared" si="31"/>
+        <v>42</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>43759</v>
+        <v>43758</v>
       </c>
       <c r="B298">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C298">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D298">
-        <f t="shared" si="26"/>
-        <v>21</v>
+        <f t="shared" si="30"/>
+        <v>20</v>
       </c>
       <c r="E298">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>43760</v>
+        <v>43759</v>
       </c>
       <c r="B299">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C299">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D299">
-        <f t="shared" si="26"/>
-        <v>22</v>
+        <f t="shared" si="30"/>
+        <v>21</v>
       </c>
       <c r="E299">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>43761</v>
+        <v>43760</v>
       </c>
       <c r="B300">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C300">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D300">
-        <f t="shared" si="26"/>
-        <v>23</v>
+        <f t="shared" si="30"/>
+        <v>22</v>
       </c>
       <c r="E300">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>43762</v>
+        <v>43761</v>
       </c>
       <c r="B301">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C301">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D301">
-        <f t="shared" si="26"/>
-        <v>24</v>
+        <f t="shared" si="30"/>
+        <v>23</v>
       </c>
       <c r="E301">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B302">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C302">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D302">
-        <f t="shared" si="26"/>
-        <v>25</v>
+        <f t="shared" si="30"/>
+        <v>24</v>
       </c>
       <c r="E302">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B303">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C303">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D303">
-        <f t="shared" si="26"/>
-        <v>26</v>
+        <f t="shared" si="30"/>
+        <v>25</v>
       </c>
       <c r="E303">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>43765</v>
+        <v>43764</v>
       </c>
       <c r="B304">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C304">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D304">
-        <f t="shared" si="26"/>
-        <v>27</v>
+        <f t="shared" si="30"/>
+        <v>26</v>
       </c>
       <c r="E304">
-        <f t="shared" si="27"/>
-        <v>44</v>
+        <f t="shared" si="31"/>
+        <v>43</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>43766</v>
+        <v>43765</v>
       </c>
       <c r="B305">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C305">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D305">
-        <f t="shared" si="26"/>
-        <v>28</v>
+        <f t="shared" si="30"/>
+        <v>27</v>
       </c>
       <c r="E305">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="B306">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C306">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D306">
-        <f t="shared" si="26"/>
-        <v>29</v>
+        <f t="shared" si="30"/>
+        <v>28</v>
       </c>
       <c r="E306">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>43768</v>
+        <v>43767</v>
       </c>
       <c r="B307">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C307">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D307">
-        <f t="shared" si="26"/>
-        <v>30</v>
+        <f t="shared" si="30"/>
+        <v>29</v>
       </c>
       <c r="E307">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>43769</v>
+        <v>43768</v>
       </c>
       <c r="B308">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C308">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="D308">
-        <f t="shared" si="26"/>
-        <v>31</v>
+        <f t="shared" si="30"/>
+        <v>30</v>
       </c>
       <c r="E308">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>43770</v>
+        <v>43769</v>
       </c>
       <c r="B309">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C309">
-        <f t="shared" si="25"/>
-        <v>11</v>
+        <f t="shared" si="29"/>
+        <v>10</v>
       </c>
       <c r="D309">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>31</v>
       </c>
       <c r="E309">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>43771</v>
+        <v>43770</v>
       </c>
       <c r="B310">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C310">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D310">
-        <f t="shared" si="26"/>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="E310">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>43772</v>
+        <v>43771</v>
       </c>
       <c r="B311">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C311">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D311">
-        <f t="shared" si="26"/>
-        <v>3</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
       <c r="E311">
-        <f t="shared" si="27"/>
-        <v>45</v>
+        <f t="shared" si="31"/>
+        <v>44</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>43773</v>
+        <v>43772</v>
       </c>
       <c r="B312">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C312">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D312">
-        <f t="shared" si="26"/>
-        <v>4</v>
+        <f t="shared" si="30"/>
+        <v>3</v>
       </c>
       <c r="E312">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>45</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>43774</v>
+        <v>43773</v>
       </c>
       <c r="B313">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C313">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D313">
-        <f t="shared" si="26"/>
-        <v>5</v>
+        <f t="shared" si="30"/>
+        <v>4</v>
       </c>
       <c r="E313">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>45</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>43775</v>
+        <v>43774</v>
       </c>
       <c r="B314">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C314">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D314">
-        <f t="shared" si="26"/>
-        <v>6</v>
+        <f t="shared" si="30"/>
+        <v>5</v>
       </c>
       <c r="E314">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>45</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>43776</v>
+        <v>43775</v>
       </c>
       <c r="B315">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C315">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D315">
-        <f t="shared" si="26"/>
-        <v>7</v>
+        <f t="shared" si="30"/>
+        <v>6</v>
       </c>
       <c r="E315">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>45</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>43777</v>
+        <v>43776</v>
       </c>
       <c r="B316">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C316">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D316">
-        <f t="shared" si="26"/>
-        <v>8</v>
+        <f t="shared" si="30"/>
+        <v>7</v>
       </c>
       <c r="E316">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>45</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>43778</v>
+        <v>43777</v>
       </c>
       <c r="B317">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C317">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D317">
-        <f t="shared" si="26"/>
-        <v>9</v>
+        <f t="shared" si="30"/>
+        <v>8</v>
       </c>
       <c r="E317">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>43779</v>
+        <v>43778</v>
       </c>
       <c r="B318">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C318">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D318">
-        <f t="shared" si="26"/>
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>9</v>
       </c>
       <c r="E318">
-        <f t="shared" si="27"/>
-        <v>46</v>
+        <f t="shared" si="31"/>
+        <v>45</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>43780</v>
+        <v>43779</v>
       </c>
       <c r="B319">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C319">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D319">
-        <f t="shared" si="26"/>
-        <v>11</v>
+        <f t="shared" si="30"/>
+        <v>10</v>
       </c>
       <c r="E319">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="B320">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C320">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D320">
-        <f t="shared" si="26"/>
-        <v>12</v>
+        <f t="shared" si="30"/>
+        <v>11</v>
       </c>
       <c r="E320">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>43782</v>
+        <v>43781</v>
       </c>
       <c r="B321">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C321">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D321">
-        <f t="shared" si="26"/>
-        <v>13</v>
+        <f t="shared" si="30"/>
+        <v>12</v>
       </c>
       <c r="E321">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>43783</v>
+        <v>43782</v>
       </c>
       <c r="B322">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C322">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D322">
-        <f t="shared" si="26"/>
-        <v>14</v>
+        <f t="shared" si="30"/>
+        <v>13</v>
       </c>
       <c r="E322">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>43784</v>
+        <v>43783</v>
       </c>
       <c r="B323">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C323">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D323">
-        <f t="shared" si="26"/>
-        <v>15</v>
+        <f t="shared" si="30"/>
+        <v>14</v>
       </c>
       <c r="E323">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>43785</v>
+        <v>43784</v>
       </c>
       <c r="B324">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C324">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D324">
-        <f t="shared" si="26"/>
-        <v>16</v>
+        <f t="shared" si="30"/>
+        <v>15</v>
       </c>
       <c r="E324">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>43786</v>
+        <v>43785</v>
       </c>
       <c r="B325">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C325">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D325">
-        <f t="shared" si="26"/>
-        <v>17</v>
+        <f t="shared" si="30"/>
+        <v>16</v>
       </c>
       <c r="E325">
-        <f t="shared" si="27"/>
-        <v>47</v>
+        <f t="shared" si="31"/>
+        <v>46</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>43787</v>
+        <v>43786</v>
       </c>
       <c r="B326">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C326">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D326">
-        <f t="shared" si="26"/>
-        <v>18</v>
+        <f t="shared" si="30"/>
+        <v>17</v>
       </c>
       <c r="E326">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>43788</v>
+        <v>43787</v>
       </c>
       <c r="B327">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C327">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D327">
-        <f t="shared" si="26"/>
-        <v>19</v>
+        <f t="shared" si="30"/>
+        <v>18</v>
       </c>
       <c r="E327">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>43789</v>
+        <v>43788</v>
       </c>
       <c r="B328">
-        <f t="shared" ref="B328:B369" si="28">YEAR(A328)</f>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="C328">
-        <f t="shared" ref="C328:C369" si="29">MONTH(A328)</f>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="D328">
-        <f t="shared" ref="D328:D369" si="30">DAY(A328)</f>
-        <v>20</v>
+        <f t="shared" si="30"/>
+        <v>19</v>
       </c>
       <c r="E328">
-        <f t="shared" ref="E328:E369" si="31">WEEKNUM(A328)</f>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>43790</v>
+        <v>43789</v>
       </c>
       <c r="B329">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="B329:B370" si="32">YEAR(A329)</f>
         <v>2019</v>
       </c>
       <c r="C329">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="C329:C370" si="33">MONTH(A329)</f>
         <v>11</v>
       </c>
       <c r="D329">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" ref="D329:D370" si="34">DAY(A329)</f>
+        <v>20</v>
       </c>
       <c r="E329">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="E329:E370" si="35">WEEKNUM(A329)</f>
         <v>47</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>43791</v>
+        <v>43790</v>
       </c>
       <c r="B330">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C330">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="D330">
-        <f t="shared" si="30"/>
-        <v>22</v>
+        <f t="shared" si="34"/>
+        <v>21</v>
       </c>
       <c r="E330">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>47</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>43792</v>
+        <v>43791</v>
       </c>
       <c r="B331">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C331">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="D331">
-        <f t="shared" si="30"/>
-        <v>23</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="E331">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>47</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>43793</v>
+        <v>43792</v>
       </c>
       <c r="B332">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C332">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="D332">
-        <f t="shared" si="30"/>
-        <v>24</v>
+        <f t="shared" si="34"/>
+        <v>23</v>
       </c>
       <c r="E332">
-        <f t="shared" si="31"/>
-        <v>48</v>
+        <f t="shared" si="35"/>
+        <v>47</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>43794</v>
+        <v>43793</v>
       </c>
       <c r="B333">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C333">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="D333">
-        <f t="shared" si="30"/>
-        <v>25</v>
+        <f t="shared" si="34"/>
+        <v>24</v>
       </c>
       <c r="E333">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>48</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>43795</v>
+        <v>43794</v>
       </c>
       <c r="B334">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C334">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="D334">
-        <f t="shared" si="30"/>
-        <v>26</v>
+        <f t="shared" si="34"/>
+        <v>25</v>
       </c>
       <c r="E334">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>48</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>43796</v>
+        <v>43795</v>
       </c>
       <c r="B335">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C335">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="D335">
-        <f t="shared" si="30"/>
-        <v>27</v>
+        <f t="shared" si="34"/>
+        <v>26</v>
       </c>
       <c r="E335">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>48</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="B336">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C336">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="D336">
-        <f t="shared" si="30"/>
-        <v>28</v>
+        <f t="shared" si="34"/>
+        <v>27</v>
       </c>
       <c r="E336">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>48</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>43798</v>
+        <v>43797</v>
       </c>
       <c r="B337">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C337">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="D337">
-        <f t="shared" si="30"/>
-        <v>29</v>
+        <f t="shared" si="34"/>
+        <v>28</v>
       </c>
       <c r="E337">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>48</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>43799</v>
+        <v>43798</v>
       </c>
       <c r="B338">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C338">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="D338">
-        <f t="shared" si="30"/>
-        <v>30</v>
+        <f t="shared" si="34"/>
+        <v>29</v>
       </c>
       <c r="E338">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>48</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>43800</v>
+        <v>43799</v>
       </c>
       <c r="B339">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C339">
-        <f t="shared" si="29"/>
-        <v>12</v>
+        <f t="shared" si="33"/>
+        <v>11</v>
       </c>
       <c r="D339">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>30</v>
       </c>
       <c r="E339">
-        <f t="shared" si="31"/>
-        <v>49</v>
+        <f t="shared" si="35"/>
+        <v>48</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>43801</v>
+        <v>43800</v>
       </c>
       <c r="B340">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C340">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D340">
-        <f t="shared" si="30"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="E340">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>43802</v>
+        <v>43801</v>
       </c>
       <c r="B341">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C341">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D341">
-        <f t="shared" si="30"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="E341">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>43803</v>
+        <v>43802</v>
       </c>
       <c r="B342">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C342">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D342">
-        <f t="shared" si="30"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="E342">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>43804</v>
+        <v>43803</v>
       </c>
       <c r="B343">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C343">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D343">
-        <f t="shared" si="30"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="E343">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>43805</v>
+        <v>43804</v>
       </c>
       <c r="B344">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C344">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D344">
-        <f t="shared" si="30"/>
-        <v>6</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="E344">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>43806</v>
+        <v>43805</v>
       </c>
       <c r="B345">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C345">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D345">
-        <f t="shared" si="30"/>
-        <v>7</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="E345">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>43807</v>
+        <v>43806</v>
       </c>
       <c r="B346">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C346">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D346">
-        <f t="shared" si="30"/>
-        <v>8</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="E346">
-        <f t="shared" si="31"/>
-        <v>50</v>
+        <f t="shared" si="35"/>
+        <v>49</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>43808</v>
+        <v>43807</v>
       </c>
       <c r="B347">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C347">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D347">
-        <f t="shared" si="30"/>
-        <v>9</v>
+        <f t="shared" si="34"/>
+        <v>8</v>
       </c>
       <c r="E347">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>43809</v>
+        <v>43808</v>
       </c>
       <c r="B348">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C348">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D348">
-        <f t="shared" si="30"/>
-        <v>10</v>
+        <f t="shared" si="34"/>
+        <v>9</v>
       </c>
       <c r="E348">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>43810</v>
+        <v>43809</v>
       </c>
       <c r="B349">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C349">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D349">
-        <f t="shared" si="30"/>
-        <v>11</v>
+        <f t="shared" si="34"/>
+        <v>10</v>
       </c>
       <c r="E349">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>43811</v>
+        <v>43810</v>
       </c>
       <c r="B350">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C350">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D350">
-        <f t="shared" si="30"/>
-        <v>12</v>
+        <f t="shared" si="34"/>
+        <v>11</v>
       </c>
       <c r="E350">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="B351">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C351">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D351">
-        <f t="shared" si="30"/>
-        <v>13</v>
+        <f t="shared" si="34"/>
+        <v>12</v>
       </c>
       <c r="E351">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>43813</v>
+        <v>43812</v>
       </c>
       <c r="B352">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C352">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D352">
-        <f t="shared" si="30"/>
-        <v>14</v>
+        <f t="shared" si="34"/>
+        <v>13</v>
       </c>
       <c r="E352">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>43814</v>
+        <v>43813</v>
       </c>
       <c r="B353">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C353">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D353">
-        <f t="shared" si="30"/>
-        <v>15</v>
+        <f t="shared" si="34"/>
+        <v>14</v>
       </c>
       <c r="E353">
-        <f t="shared" si="31"/>
-        <v>51</v>
+        <f t="shared" si="35"/>
+        <v>50</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>43815</v>
+        <v>43814</v>
       </c>
       <c r="B354">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C354">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D354">
-        <f t="shared" si="30"/>
-        <v>16</v>
+        <f t="shared" si="34"/>
+        <v>15</v>
       </c>
       <c r="E354">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>51</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="B355">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C355">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D355">
-        <f t="shared" si="30"/>
-        <v>17</v>
+        <f t="shared" si="34"/>
+        <v>16</v>
       </c>
       <c r="E355">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>51</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>43817</v>
+        <v>43816</v>
       </c>
       <c r="B356">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C356">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D356">
-        <f t="shared" si="30"/>
-        <v>18</v>
+        <f t="shared" si="34"/>
+        <v>17</v>
       </c>
       <c r="E356">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>51</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>43818</v>
+        <v>43817</v>
       </c>
       <c r="B357">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C357">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D357">
-        <f t="shared" si="30"/>
-        <v>19</v>
+        <f t="shared" si="34"/>
+        <v>18</v>
       </c>
       <c r="E357">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>51</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>43819</v>
+        <v>43818</v>
       </c>
       <c r="B358">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C358">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D358">
-        <f t="shared" si="30"/>
-        <v>20</v>
+        <f t="shared" si="34"/>
+        <v>19</v>
       </c>
       <c r="E358">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>51</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>43820</v>
+        <v>43819</v>
       </c>
       <c r="B359">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C359">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D359">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>20</v>
       </c>
       <c r="E359">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>51</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>43821</v>
+        <v>43820</v>
       </c>
       <c r="B360">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C360">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D360">
-        <f t="shared" si="30"/>
-        <v>22</v>
+        <f t="shared" si="34"/>
+        <v>21</v>
       </c>
       <c r="E360">
-        <f t="shared" si="31"/>
-        <v>52</v>
+        <f t="shared" si="35"/>
+        <v>51</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>43822</v>
+        <v>43821</v>
       </c>
       <c r="B361">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C361">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D361">
-        <f t="shared" si="30"/>
-        <v>23</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="E361">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>52</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>43823</v>
+        <v>43822</v>
       </c>
       <c r="B362">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C362">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D362">
-        <f t="shared" si="30"/>
-        <v>24</v>
+        <f t="shared" si="34"/>
+        <v>23</v>
       </c>
       <c r="E362">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>52</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>43824</v>
+        <v>43823</v>
       </c>
       <c r="B363">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C363">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D363">
-        <f t="shared" si="30"/>
-        <v>25</v>
+        <f t="shared" si="34"/>
+        <v>24</v>
       </c>
       <c r="E363">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>52</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>43825</v>
+        <v>43824</v>
       </c>
       <c r="B364">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C364">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D364">
-        <f t="shared" si="30"/>
-        <v>26</v>
+        <f t="shared" si="34"/>
+        <v>25</v>
       </c>
       <c r="E364">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>52</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>43826</v>
+        <v>43825</v>
       </c>
       <c r="B365">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C365">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D365">
-        <f t="shared" si="30"/>
-        <v>27</v>
+        <f t="shared" si="34"/>
+        <v>26</v>
       </c>
       <c r="E365">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>43827</v>
+        <v>43826</v>
       </c>
       <c r="B366">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C366">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D366">
-        <f t="shared" si="30"/>
-        <v>28</v>
+        <f t="shared" si="34"/>
+        <v>27</v>
       </c>
       <c r="E366">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>52</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>43828</v>
+        <v>43827</v>
       </c>
       <c r="B367">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C367">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D367">
-        <f t="shared" si="30"/>
-        <v>29</v>
+        <f t="shared" si="34"/>
+        <v>28</v>
       </c>
       <c r="E367">
-        <f t="shared" si="31"/>
-        <v>53</v>
+        <f t="shared" si="35"/>
+        <v>52</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>43829</v>
+        <v>43828</v>
       </c>
       <c r="B368">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C368">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="D368">
-        <f t="shared" si="30"/>
-        <v>30</v>
+        <f t="shared" si="34"/>
+        <v>29</v>
       </c>
       <c r="E368">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>53</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B369">
+        <f t="shared" si="32"/>
+        <v>2019</v>
+      </c>
+      <c r="C369">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="34"/>
+        <v>30</v>
+      </c>
+      <c r="E369">
+        <f t="shared" si="35"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
         <v>43830</v>
       </c>
-      <c r="B369">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C369">
-        <f t="shared" si="29"/>
+      <c r="B370">
+        <f t="shared" si="32"/>
+        <v>2019</v>
+      </c>
+      <c r="C370">
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
-      <c r="D369">
-        <f t="shared" si="30"/>
+      <c r="D370">
+        <f t="shared" si="34"/>
         <v>31</v>
       </c>
-      <c r="E369">
-        <f t="shared" si="31"/>
+      <c r="E370">
+        <f t="shared" si="35"/>
         <v>53</v>
       </c>
     </row>
@@ -9165,10 +9641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082B48B6-1501-774C-818C-F75B39B01AEE}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9290,6 +9766,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>1996</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>1949</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjk140130/Desktop/githup-repos/github-website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/githup-repos/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1247EE12-574F-9743-8C68-3ECB809C0DEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E2B5E-4365-3048-9FD4-B8F1EC42BAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25680" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reading-data" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -115,6 +116,12 @@
   </si>
   <si>
     <t>D. O. Hebb</t>
+  </si>
+  <si>
+    <t>The Disordered Mind</t>
+  </si>
+  <si>
+    <t>Eric R. Kandel</t>
   </si>
 </sst>
 </file>
@@ -467,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F081B7-288B-1045-AB76-1CD03FBCB65E}">
-  <dimension ref="A1:G370"/>
+  <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F232" sqref="F232"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H293" sqref="H293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5850,19 +5857,19 @@
         <v>43661</v>
       </c>
       <c r="B200">
-        <f t="shared" ref="B200:B264" si="20">YEAR(A200)</f>
+        <f t="shared" ref="B200:B267" si="20">YEAR(A200)</f>
         <v>2019</v>
       </c>
       <c r="C200">
-        <f t="shared" ref="C200:C264" si="21">MONTH(A200)</f>
+        <f t="shared" ref="C200:C267" si="21">MONTH(A200)</f>
         <v>7</v>
       </c>
       <c r="D200">
-        <f t="shared" ref="D200:D264" si="22">DAY(A200)</f>
+        <f t="shared" ref="D200:D267" si="22">DAY(A200)</f>
         <v>15</v>
       </c>
       <c r="E200">
-        <f t="shared" ref="E200:E264" si="23">WEEKNUM(A200)</f>
+        <f t="shared" ref="E200:E267" si="23">WEEKNUM(A200)</f>
         <v>29</v>
       </c>
       <c r="F200">
@@ -6738,112 +6745,142 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B233">
+        <f t="shared" ref="B233" si="28">YEAR(A233)</f>
+        <v>2019</v>
+      </c>
+      <c r="C233">
+        <f t="shared" ref="C233" si="29">MONTH(A233)</f>
+        <v>8</v>
+      </c>
+      <c r="D233">
+        <f t="shared" ref="D233" si="30">DAY(A233)</f>
+        <v>15</v>
+      </c>
+      <c r="E233">
+        <f t="shared" ref="E233" si="31">WEEKNUM(A233)</f>
+        <v>33</v>
+      </c>
+      <c r="F233">
+        <v>17</v>
+      </c>
+      <c r="G233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
         <v>43693</v>
       </c>
-      <c r="B233">
+      <c r="B234">
         <f t="shared" si="20"/>
         <v>2019</v>
       </c>
-      <c r="C233">
+      <c r="C234">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="D233">
+      <c r="D234">
         <f t="shared" si="22"/>
         <v>16</v>
-      </c>
-      <c r="E233">
-        <f t="shared" si="23"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
-        <v>43694</v>
-      </c>
-      <c r="B234">
-        <f t="shared" si="20"/>
-        <v>2019</v>
-      </c>
-      <c r="C234">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="D234">
-        <f t="shared" si="22"/>
-        <v>17</v>
       </c>
       <c r="E234">
         <f t="shared" si="23"/>
         <v>33</v>
       </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>8</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B235">
+        <f t="shared" ref="B235" si="32">YEAR(A235)</f>
+        <v>2019</v>
+      </c>
+      <c r="C235">
+        <f t="shared" ref="C235" si="33">MONTH(A235)</f>
+        <v>8</v>
+      </c>
+      <c r="D235">
+        <f t="shared" ref="D235" si="34">DAY(A235)</f>
+        <v>16</v>
+      </c>
+      <c r="E235">
+        <f t="shared" ref="E235" si="35">WEEKNUM(A235)</f>
+        <v>33</v>
+      </c>
+      <c r="F235">
+        <v>13</v>
+      </c>
+      <c r="G235">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>43694</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="20"/>
+        <v>2019</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="23"/>
+        <v>33</v>
+      </c>
+      <c r="F236">
+        <v>12</v>
+      </c>
+      <c r="G236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
         <v>43695</v>
       </c>
-      <c r="B235">
+      <c r="B237">
         <f t="shared" si="20"/>
         <v>2019</v>
       </c>
-      <c r="C235">
+      <c r="C237">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="D235">
+      <c r="D237">
         <f t="shared" si="22"/>
         <v>18</v>
-      </c>
-      <c r="E235">
-        <f t="shared" si="23"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
-        <v>43696</v>
-      </c>
-      <c r="B236">
-        <f t="shared" si="20"/>
-        <v>2019</v>
-      </c>
-      <c r="C236">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="D236">
-        <f t="shared" si="22"/>
-        <v>19</v>
-      </c>
-      <c r="E236">
-        <f t="shared" si="23"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
-        <v>43697</v>
-      </c>
-      <c r="B237">
-        <f t="shared" si="20"/>
-        <v>2019</v>
-      </c>
-      <c r="C237">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="D237">
-        <f t="shared" si="22"/>
-        <v>20</v>
       </c>
       <c r="E237">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
+      <c r="F237">
+        <v>41</v>
+      </c>
+      <c r="G237">
+        <v>8</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>43698</v>
+        <v>43696</v>
       </c>
       <c r="B238">
         <f t="shared" si="20"/>
@@ -6855,37 +6892,49 @@
       </c>
       <c r="D238">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E238">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
+      <c r="F238">
+        <v>15</v>
+      </c>
+      <c r="G238">
+        <v>8</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>43699</v>
+        <v>43696</v>
       </c>
       <c r="B239">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="B239" si="36">YEAR(A239)</f>
         <v>2019</v>
       </c>
       <c r="C239">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="C239" si="37">MONTH(A239)</f>
         <v>8</v>
       </c>
       <c r="D239">
-        <f t="shared" si="22"/>
-        <v>22</v>
+        <f t="shared" ref="D239" si="38">DAY(A239)</f>
+        <v>19</v>
       </c>
       <c r="E239">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="E239" si="39">WEEKNUM(A239)</f>
         <v>34</v>
+      </c>
+      <c r="F239">
+        <v>9</v>
+      </c>
+      <c r="G239">
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>43700</v>
+        <v>43697</v>
       </c>
       <c r="B240">
         <f t="shared" si="20"/>
@@ -6897,16 +6946,22 @@
       </c>
       <c r="D240">
         <f t="shared" si="22"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E240">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240">
+        <v>16</v>
+      </c>
+      <c r="G240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>43701</v>
+        <v>43698</v>
       </c>
       <c r="B241">
         <f t="shared" si="20"/>
@@ -6918,16 +6973,22 @@
       </c>
       <c r="D241">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E241">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241">
+        <v>8</v>
+      </c>
+      <c r="G241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>43702</v>
+        <v>43699</v>
       </c>
       <c r="B242">
         <f t="shared" si="20"/>
@@ -6939,16 +7000,22 @@
       </c>
       <c r="D242">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E242">
         <f t="shared" si="23"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="F242">
+        <v>10</v>
+      </c>
+      <c r="G242">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>43703</v>
+        <v>43700</v>
       </c>
       <c r="B243">
         <f t="shared" si="20"/>
@@ -6960,16 +7027,22 @@
       </c>
       <c r="D243">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E243">
         <f t="shared" si="23"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>43704</v>
+        <v>43701</v>
       </c>
       <c r="B244">
         <f t="shared" si="20"/>
@@ -6981,16 +7054,22 @@
       </c>
       <c r="D244">
         <f t="shared" si="22"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E244">
         <f t="shared" si="23"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="F244">
+        <v>10</v>
+      </c>
+      <c r="G244">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>43705</v>
+        <v>43702</v>
       </c>
       <c r="B245">
         <f t="shared" si="20"/>
@@ -7002,16 +7081,22 @@
       </c>
       <c r="D245">
         <f t="shared" si="22"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E245">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245">
+        <v>6</v>
+      </c>
+      <c r="G245">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>43706</v>
+        <v>43703</v>
       </c>
       <c r="B246">
         <f t="shared" si="20"/>
@@ -7023,16 +7108,22 @@
       </c>
       <c r="D246">
         <f t="shared" si="22"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E246">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246">
+        <v>14</v>
+      </c>
+      <c r="G246">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>43707</v>
+        <v>43704</v>
       </c>
       <c r="B247">
         <f t="shared" si="20"/>
@@ -7044,16 +7135,22 @@
       </c>
       <c r="D247">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E247">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247">
+        <v>13</v>
+      </c>
+      <c r="G247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>43708</v>
+        <v>43705</v>
       </c>
       <c r="B248">
         <f t="shared" si="20"/>
@@ -7065,16 +7162,22 @@
       </c>
       <c r="D248">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E248">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F248">
+        <v>11</v>
+      </c>
+      <c r="G248">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>43709</v>
+        <v>43706</v>
       </c>
       <c r="B249">
         <f t="shared" si="20"/>
@@ -7082,20 +7185,26 @@
       </c>
       <c r="C249">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D249">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E249">
         <f t="shared" si="23"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>43710</v>
+        <v>43707</v>
       </c>
       <c r="B250">
         <f t="shared" si="20"/>
@@ -7103,20 +7212,26 @@
       </c>
       <c r="C250">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D250">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E250">
         <f t="shared" si="23"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>43711</v>
+        <v>43708</v>
       </c>
       <c r="B251">
         <f t="shared" si="20"/>
@@ -7124,20 +7239,26 @@
       </c>
       <c r="C251">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D251">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E251">
         <f t="shared" si="23"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="F251">
+        <v>14</v>
+      </c>
+      <c r="G251">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>43712</v>
+        <v>43709</v>
       </c>
       <c r="B252">
         <f t="shared" si="20"/>
@@ -7149,16 +7270,22 @@
       </c>
       <c r="D252">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E252">
         <f t="shared" si="23"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>43713</v>
+        <v>43710</v>
       </c>
       <c r="B253">
         <f t="shared" si="20"/>
@@ -7170,16 +7297,22 @@
       </c>
       <c r="D253">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E253">
         <f t="shared" si="23"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>43714</v>
+        <v>43711</v>
       </c>
       <c r="B254">
         <f t="shared" si="20"/>
@@ -7191,16 +7324,22 @@
       </c>
       <c r="D254">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E254">
         <f t="shared" si="23"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>43715</v>
+        <v>43712</v>
       </c>
       <c r="B255">
         <f t="shared" si="20"/>
@@ -7212,16 +7351,22 @@
       </c>
       <c r="D255">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E255">
         <f t="shared" si="23"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255">
+        <v>6</v>
+      </c>
+      <c r="G255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>43716</v>
+        <v>43713</v>
       </c>
       <c r="B256">
         <f t="shared" si="20"/>
@@ -7233,16 +7378,22 @@
       </c>
       <c r="D256">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E256">
         <f t="shared" si="23"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>43717</v>
+        <v>43714</v>
       </c>
       <c r="B257">
         <f t="shared" si="20"/>
@@ -7254,16 +7405,22 @@
       </c>
       <c r="D257">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E257">
         <f t="shared" si="23"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>43718</v>
+        <v>43715</v>
       </c>
       <c r="B258">
         <f t="shared" si="20"/>
@@ -7275,16 +7432,22 @@
       </c>
       <c r="D258">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E258">
         <f t="shared" si="23"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>43719</v>
+        <v>43716</v>
       </c>
       <c r="B259">
         <f t="shared" si="20"/>
@@ -7296,16 +7459,22 @@
       </c>
       <c r="D259">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E259">
         <f t="shared" si="23"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43720</v>
+        <v>43717</v>
       </c>
       <c r="B260">
         <f t="shared" si="20"/>
@@ -7317,16 +7486,22 @@
       </c>
       <c r="D260">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E260">
         <f t="shared" si="23"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43721</v>
+        <v>43718</v>
       </c>
       <c r="B261">
         <f t="shared" si="20"/>
@@ -7338,16 +7513,22 @@
       </c>
       <c r="D261">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E261">
         <f t="shared" si="23"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>43722</v>
+        <v>43719</v>
       </c>
       <c r="B262">
         <f t="shared" si="20"/>
@@ -7359,16 +7540,22 @@
       </c>
       <c r="D262">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E262">
         <f t="shared" si="23"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262">
+        <v>8</v>
+      </c>
+      <c r="G262">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>43723</v>
+        <v>43720</v>
       </c>
       <c r="B263">
         <f t="shared" si="20"/>
@@ -7380,16 +7567,22 @@
       </c>
       <c r="D263">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E263">
         <f t="shared" si="23"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43724</v>
+        <v>43721</v>
       </c>
       <c r="B264">
         <f t="shared" si="20"/>
@@ -7401,2236 +7594,2461 @@
       </c>
       <c r="D264">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E264">
         <f t="shared" si="23"/>
+        <v>37</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>43722</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="20"/>
+        <v>2019</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="23"/>
+        <v>37</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>43723</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="20"/>
+        <v>2019</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>43724</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="20"/>
+        <v>2019</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="23"/>
+        <v>38</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
         <v>43725</v>
       </c>
-      <c r="B265">
-        <f t="shared" ref="B265:B328" si="28">YEAR(A265)</f>
-        <v>2019</v>
-      </c>
-      <c r="C265">
-        <f t="shared" ref="C265:C328" si="29">MONTH(A265)</f>
+      <c r="B268">
+        <f t="shared" ref="B268:B331" si="40">YEAR(A268)</f>
+        <v>2019</v>
+      </c>
+      <c r="C268">
+        <f t="shared" ref="C268:C331" si="41">MONTH(A268)</f>
         <v>9</v>
       </c>
-      <c r="D265">
-        <f t="shared" ref="D265:D328" si="30">DAY(A265)</f>
+      <c r="D268">
+        <f t="shared" ref="D268:D331" si="42">DAY(A268)</f>
         <v>17</v>
       </c>
-      <c r="E265">
-        <f t="shared" ref="E265:E328" si="31">WEEKNUM(A265)</f>
+      <c r="E268">
+        <f t="shared" ref="E268:E331" si="43">WEEKNUM(A268)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
         <v>43726</v>
       </c>
-      <c r="B266">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C266">
-        <f t="shared" si="29"/>
+      <c r="B269">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D266">
-        <f t="shared" si="30"/>
+      <c r="D269">
+        <f t="shared" si="42"/>
         <v>18</v>
       </c>
-      <c r="E266">
-        <f t="shared" si="31"/>
+      <c r="E269">
+        <f t="shared" si="43"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
         <v>43727</v>
       </c>
-      <c r="B267">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C267">
-        <f t="shared" si="29"/>
+      <c r="B270">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D267">
-        <f t="shared" si="30"/>
+      <c r="D270">
+        <f t="shared" si="42"/>
         <v>19</v>
       </c>
-      <c r="E267">
-        <f t="shared" si="31"/>
+      <c r="E270">
+        <f t="shared" si="43"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
         <v>43728</v>
       </c>
-      <c r="B268">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C268">
-        <f t="shared" si="29"/>
+      <c r="B271">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D268">
-        <f t="shared" si="30"/>
+      <c r="D271">
+        <f t="shared" si="42"/>
         <v>20</v>
       </c>
-      <c r="E268">
-        <f t="shared" si="31"/>
+      <c r="E271">
+        <f t="shared" si="43"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
         <v>43729</v>
       </c>
-      <c r="B269">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C269">
-        <f t="shared" si="29"/>
+      <c r="B272">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D269">
-        <f t="shared" si="30"/>
+      <c r="D272">
+        <f t="shared" si="42"/>
         <v>21</v>
       </c>
-      <c r="E269">
-        <f t="shared" si="31"/>
+      <c r="E272">
+        <f t="shared" si="43"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
         <v>43730</v>
       </c>
-      <c r="B270">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C270">
-        <f t="shared" si="29"/>
+      <c r="B273">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D270">
-        <f t="shared" si="30"/>
+      <c r="D273">
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
-      <c r="E270">
-        <f t="shared" si="31"/>
+      <c r="E273">
+        <f t="shared" si="43"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
         <v>43731</v>
       </c>
-      <c r="B271">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C271">
-        <f t="shared" si="29"/>
+      <c r="B274">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D271">
-        <f t="shared" si="30"/>
+      <c r="D274">
+        <f t="shared" si="42"/>
         <v>23</v>
       </c>
-      <c r="E271">
-        <f t="shared" si="31"/>
+      <c r="E274">
+        <f t="shared" si="43"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
+      <c r="F274">
+        <v>6</v>
+      </c>
+      <c r="G274">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
         <v>43732</v>
       </c>
-      <c r="B272">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C272">
-        <f t="shared" si="29"/>
+      <c r="B275">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D272">
-        <f t="shared" si="30"/>
+      <c r="D275">
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
-      <c r="E272">
-        <f t="shared" si="31"/>
+      <c r="E275">
+        <f t="shared" si="43"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
+      <c r="F275">
+        <v>2</v>
+      </c>
+      <c r="G275">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
         <v>43733</v>
       </c>
-      <c r="B273">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C273">
-        <f t="shared" si="29"/>
+      <c r="B276">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D273">
-        <f t="shared" si="30"/>
+      <c r="D276">
+        <f t="shared" si="42"/>
         <v>25</v>
       </c>
-      <c r="E273">
-        <f t="shared" si="31"/>
+      <c r="E276">
+        <f t="shared" si="43"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
+      <c r="F276">
+        <v>11</v>
+      </c>
+      <c r="G276">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
         <v>43734</v>
       </c>
-      <c r="B274">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C274">
-        <f t="shared" si="29"/>
+      <c r="B277">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D274">
-        <f t="shared" si="30"/>
+      <c r="D277">
+        <f t="shared" si="42"/>
         <v>26</v>
       </c>
-      <c r="E274">
-        <f t="shared" si="31"/>
+      <c r="E277">
+        <f t="shared" si="43"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
         <v>43735</v>
       </c>
-      <c r="B275">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C275">
-        <f t="shared" si="29"/>
+      <c r="B278">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D275">
-        <f t="shared" si="30"/>
+      <c r="D278">
+        <f t="shared" si="42"/>
         <v>27</v>
       </c>
-      <c r="E275">
-        <f t="shared" si="31"/>
+      <c r="E278">
+        <f t="shared" si="43"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
         <v>43736</v>
       </c>
-      <c r="B276">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C276">
-        <f t="shared" si="29"/>
+      <c r="B279">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D276">
-        <f t="shared" si="30"/>
+      <c r="D279">
+        <f t="shared" si="42"/>
         <v>28</v>
       </c>
-      <c r="E276">
-        <f t="shared" si="31"/>
+      <c r="E279">
+        <f t="shared" si="43"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
         <v>43737</v>
       </c>
-      <c r="B277">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C277">
-        <f t="shared" si="29"/>
+      <c r="B280">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D277">
-        <f t="shared" si="30"/>
+      <c r="D280">
+        <f t="shared" si="42"/>
         <v>29</v>
       </c>
-      <c r="E277">
-        <f t="shared" si="31"/>
+      <c r="E280">
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
+      <c r="F280">
+        <v>5</v>
+      </c>
+      <c r="G280">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
         <v>43738</v>
       </c>
-      <c r="B278">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C278">
-        <f t="shared" si="29"/>
+      <c r="B281">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="D278">
-        <f t="shared" si="30"/>
+      <c r="D281">
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
-      <c r="E278">
-        <f t="shared" si="31"/>
+      <c r="E281">
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
+      <c r="F281">
+        <v>8</v>
+      </c>
+      <c r="G281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
         <v>43739</v>
       </c>
-      <c r="B279">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C279">
-        <f t="shared" si="29"/>
+      <c r="B282">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D279">
-        <f t="shared" si="30"/>
+      <c r="D282">
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="E279">
-        <f t="shared" si="31"/>
+      <c r="E282">
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+      <c r="F282">
+        <v>16</v>
+      </c>
+      <c r="G282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
         <v>43740</v>
       </c>
-      <c r="B280">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C280">
-        <f t="shared" si="29"/>
+      <c r="B283">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D280">
-        <f t="shared" si="30"/>
+      <c r="D283">
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
-      <c r="E280">
-        <f t="shared" si="31"/>
+      <c r="E283">
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
         <v>43741</v>
       </c>
-      <c r="B281">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C281">
-        <f t="shared" si="29"/>
+      <c r="B284">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D281">
-        <f t="shared" si="30"/>
+      <c r="D284">
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="E281">
-        <f t="shared" si="31"/>
+      <c r="E284">
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
         <v>43742</v>
       </c>
-      <c r="B282">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C282">
-        <f t="shared" si="29"/>
+      <c r="B285">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D282">
-        <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="E282">
-        <f t="shared" si="31"/>
+      <c r="D285">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
         <v>43743</v>
       </c>
-      <c r="B283">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C283">
-        <f t="shared" si="29"/>
+      <c r="B286">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D283">
-        <f t="shared" si="30"/>
+      <c r="D286">
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
-      <c r="E283">
-        <f t="shared" si="31"/>
+      <c r="E286">
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
         <v>43744</v>
       </c>
-      <c r="B284">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C284">
-        <f t="shared" si="29"/>
+      <c r="B287">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D284">
-        <f t="shared" si="30"/>
+      <c r="D287">
+        <f t="shared" si="42"/>
         <v>6</v>
       </c>
-      <c r="E284">
-        <f t="shared" si="31"/>
+      <c r="E287">
+        <f t="shared" si="43"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
         <v>43745</v>
       </c>
-      <c r="B285">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C285">
-        <f t="shared" si="29"/>
+      <c r="B288">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D285">
-        <f t="shared" si="30"/>
+      <c r="D288">
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
-      <c r="E285">
-        <f t="shared" si="31"/>
+      <c r="E288">
+        <f t="shared" si="43"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
         <v>43746</v>
       </c>
-      <c r="B286">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C286">
-        <f t="shared" si="29"/>
+      <c r="B289">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D286">
-        <f t="shared" si="30"/>
-        <v>8</v>
-      </c>
-      <c r="E286">
-        <f t="shared" si="31"/>
+      <c r="D289">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="43"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
+      <c r="F289">
+        <v>14</v>
+      </c>
+      <c r="G289">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
         <v>43747</v>
       </c>
-      <c r="B287">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C287">
-        <f t="shared" si="29"/>
+      <c r="B290">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D287">
-        <f t="shared" si="30"/>
+      <c r="D290">
+        <f t="shared" si="42"/>
         <v>9</v>
       </c>
-      <c r="E287">
-        <f t="shared" si="31"/>
+      <c r="E290">
+        <f t="shared" si="43"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
+      <c r="F290">
+        <v>8</v>
+      </c>
+      <c r="G290">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
         <v>43748</v>
       </c>
-      <c r="B288">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C288">
-        <f t="shared" si="29"/>
+      <c r="B291">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D288">
-        <f t="shared" si="30"/>
+      <c r="D291">
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="E288">
-        <f t="shared" si="31"/>
+      <c r="E291">
+        <f t="shared" si="43"/>
         <v>41</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
         <v>43749</v>
       </c>
-      <c r="B289">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C289">
-        <f t="shared" si="29"/>
+      <c r="B292">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D289">
-        <f t="shared" si="30"/>
+      <c r="D292">
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="E289">
-        <f t="shared" si="31"/>
+      <c r="E292">
+        <f t="shared" si="43"/>
         <v>41</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
         <v>43750</v>
       </c>
-      <c r="B290">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C290">
-        <f t="shared" si="29"/>
+      <c r="B293">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D290">
-        <f t="shared" si="30"/>
+      <c r="D293">
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
-      <c r="E290">
-        <f t="shared" si="31"/>
+      <c r="E293">
+        <f t="shared" si="43"/>
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
         <v>43751</v>
       </c>
-      <c r="B291">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C291">
-        <f t="shared" si="29"/>
+      <c r="B294">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D291">
-        <f t="shared" si="30"/>
+      <c r="D294">
+        <f t="shared" si="42"/>
         <v>13</v>
       </c>
-      <c r="E291">
-        <f t="shared" si="31"/>
+      <c r="E294">
+        <f t="shared" si="43"/>
         <v>42</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
         <v>43752</v>
       </c>
-      <c r="B292">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C292">
-        <f t="shared" si="29"/>
+      <c r="B295">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D292">
-        <f t="shared" si="30"/>
+      <c r="D295">
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
-      <c r="E292">
-        <f t="shared" si="31"/>
+      <c r="E295">
+        <f t="shared" si="43"/>
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
         <v>43753</v>
       </c>
-      <c r="B293">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C293">
-        <f t="shared" si="29"/>
+      <c r="B296">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D293">
-        <f t="shared" si="30"/>
+      <c r="D296">
+        <f t="shared" si="42"/>
         <v>15</v>
       </c>
-      <c r="E293">
-        <f t="shared" si="31"/>
+      <c r="E296">
+        <f t="shared" si="43"/>
         <v>42</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
         <v>43754</v>
       </c>
-      <c r="B294">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C294">
-        <f t="shared" si="29"/>
+      <c r="B297">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D294">
-        <f t="shared" si="30"/>
+      <c r="D297">
+        <f t="shared" si="42"/>
         <v>16</v>
       </c>
-      <c r="E294">
-        <f t="shared" si="31"/>
+      <c r="E297">
+        <f t="shared" si="43"/>
         <v>42</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
         <v>43755</v>
       </c>
-      <c r="B295">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C295">
-        <f t="shared" si="29"/>
+      <c r="B298">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D295">
-        <f t="shared" si="30"/>
+      <c r="D298">
+        <f t="shared" si="42"/>
         <v>17</v>
       </c>
-      <c r="E295">
-        <f t="shared" si="31"/>
+      <c r="E298">
+        <f t="shared" si="43"/>
         <v>42</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
         <v>43756</v>
       </c>
-      <c r="B296">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C296">
-        <f t="shared" si="29"/>
+      <c r="B299">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D296">
-        <f t="shared" si="30"/>
+      <c r="D299">
+        <f t="shared" si="42"/>
         <v>18</v>
       </c>
-      <c r="E296">
-        <f t="shared" si="31"/>
+      <c r="E299">
+        <f t="shared" si="43"/>
         <v>42</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
         <v>43757</v>
       </c>
-      <c r="B297">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C297">
-        <f t="shared" si="29"/>
+      <c r="B300">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D297">
-        <f t="shared" si="30"/>
+      <c r="D300">
+        <f t="shared" si="42"/>
         <v>19</v>
       </c>
-      <c r="E297">
-        <f t="shared" si="31"/>
+      <c r="E300">
+        <f t="shared" si="43"/>
         <v>42</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
         <v>43758</v>
       </c>
-      <c r="B298">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C298">
-        <f t="shared" si="29"/>
+      <c r="B301">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D298">
-        <f t="shared" si="30"/>
+      <c r="D301">
+        <f t="shared" si="42"/>
         <v>20</v>
       </c>
-      <c r="E298">
-        <f t="shared" si="31"/>
+      <c r="E301">
+        <f t="shared" si="43"/>
         <v>43</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
         <v>43759</v>
       </c>
-      <c r="B299">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C299">
-        <f t="shared" si="29"/>
+      <c r="B302">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D299">
-        <f t="shared" si="30"/>
+      <c r="D302">
+        <f t="shared" si="42"/>
         <v>21</v>
       </c>
-      <c r="E299">
-        <f t="shared" si="31"/>
+      <c r="E302">
+        <f t="shared" si="43"/>
         <v>43</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
         <v>43760</v>
       </c>
-      <c r="B300">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C300">
-        <f t="shared" si="29"/>
+      <c r="B303">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D300">
-        <f t="shared" si="30"/>
+      <c r="D303">
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
-      <c r="E300">
-        <f t="shared" si="31"/>
+      <c r="E303">
+        <f t="shared" si="43"/>
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
         <v>43761</v>
       </c>
-      <c r="B301">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C301">
-        <f t="shared" si="29"/>
+      <c r="B304">
+        <f t="shared" si="40"/>
+        <v>2019</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="D301">
-        <f t="shared" si="30"/>
+      <c r="D304">
+        <f t="shared" si="42"/>
         <v>23</v>
       </c>
-      <c r="E301">
-        <f t="shared" si="31"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>43762</v>
-      </c>
-      <c r="B302">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C302">
-        <f t="shared" si="29"/>
-        <v>10</v>
-      </c>
-      <c r="D302">
-        <f t="shared" si="30"/>
-        <v>24</v>
-      </c>
-      <c r="E302">
-        <f t="shared" si="31"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
-        <v>43763</v>
-      </c>
-      <c r="B303">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C303">
-        <f t="shared" si="29"/>
-        <v>10</v>
-      </c>
-      <c r="D303">
-        <f t="shared" si="30"/>
-        <v>25</v>
-      </c>
-      <c r="E303">
-        <f t="shared" si="31"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
-        <v>43764</v>
-      </c>
-      <c r="B304">
-        <f t="shared" si="28"/>
-        <v>2019</v>
-      </c>
-      <c r="C304">
-        <f t="shared" si="29"/>
-        <v>10</v>
-      </c>
-      <c r="D304">
-        <f t="shared" si="30"/>
-        <v>26</v>
-      </c>
       <c r="E304">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>43</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>43765</v>
+        <v>43762</v>
       </c>
       <c r="B305">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C305">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="D305">
-        <f t="shared" si="30"/>
-        <v>27</v>
+        <f t="shared" si="42"/>
+        <v>24</v>
       </c>
       <c r="E305">
-        <f t="shared" si="31"/>
-        <v>44</v>
+        <f t="shared" si="43"/>
+        <v>43</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>43766</v>
+        <v>43763</v>
       </c>
       <c r="B306">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C306">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="D306">
-        <f t="shared" si="30"/>
-        <v>28</v>
+        <f t="shared" si="42"/>
+        <v>25</v>
       </c>
       <c r="E306">
-        <f t="shared" si="31"/>
-        <v>44</v>
+        <f t="shared" si="43"/>
+        <v>43</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>43767</v>
+        <v>43764</v>
       </c>
       <c r="B307">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C307">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="D307">
-        <f t="shared" si="30"/>
-        <v>29</v>
+        <f t="shared" si="42"/>
+        <v>26</v>
       </c>
       <c r="E307">
-        <f t="shared" si="31"/>
-        <v>44</v>
+        <f t="shared" si="43"/>
+        <v>43</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>43768</v>
+        <v>43765</v>
       </c>
       <c r="B308">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C308">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="D308">
-        <f t="shared" si="30"/>
-        <v>30</v>
+        <f t="shared" si="42"/>
+        <v>27</v>
       </c>
       <c r="E308">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>43769</v>
+        <v>43766</v>
       </c>
       <c r="B309">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C309">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="D309">
-        <f t="shared" si="30"/>
-        <v>31</v>
+        <f t="shared" si="42"/>
+        <v>28</v>
       </c>
       <c r="E309">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>44</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>43770</v>
+        <v>43767</v>
       </c>
       <c r="B310">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C310">
-        <f t="shared" si="29"/>
-        <v>11</v>
+        <f t="shared" si="41"/>
+        <v>10</v>
       </c>
       <c r="D310">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="42"/>
+        <v>29</v>
       </c>
       <c r="E310">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>44</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>43771</v>
+        <v>43768</v>
       </c>
       <c r="B311">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C311">
-        <f t="shared" si="29"/>
-        <v>11</v>
+        <f t="shared" si="41"/>
+        <v>10</v>
       </c>
       <c r="D311">
-        <f t="shared" si="30"/>
-        <v>2</v>
+        <f t="shared" si="42"/>
+        <v>30</v>
       </c>
       <c r="E311">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>44</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>43772</v>
+        <v>43769</v>
       </c>
       <c r="B312">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C312">
-        <f t="shared" si="29"/>
-        <v>11</v>
+        <f t="shared" si="41"/>
+        <v>10</v>
       </c>
       <c r="D312">
-        <f t="shared" si="30"/>
-        <v>3</v>
+        <f t="shared" si="42"/>
+        <v>31</v>
       </c>
       <c r="E312">
-        <f t="shared" si="31"/>
-        <v>45</v>
+        <f t="shared" si="43"/>
+        <v>44</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>43773</v>
+        <v>43770</v>
       </c>
       <c r="B313">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C313">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D313">
-        <f t="shared" si="30"/>
-        <v>4</v>
+        <f t="shared" si="42"/>
+        <v>1</v>
       </c>
       <c r="E313">
-        <f t="shared" si="31"/>
-        <v>45</v>
+        <f t="shared" si="43"/>
+        <v>44</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>43774</v>
+        <v>43771</v>
       </c>
       <c r="B314">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C314">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D314">
-        <f t="shared" si="30"/>
-        <v>5</v>
+        <f t="shared" si="42"/>
+        <v>2</v>
       </c>
       <c r="E314">
-        <f t="shared" si="31"/>
-        <v>45</v>
+        <f t="shared" si="43"/>
+        <v>44</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>43775</v>
+        <v>43772</v>
       </c>
       <c r="B315">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C315">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D315">
-        <f t="shared" si="30"/>
-        <v>6</v>
+        <f t="shared" si="42"/>
+        <v>3</v>
       </c>
       <c r="E315">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>45</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>43776</v>
+        <v>43773</v>
       </c>
       <c r="B316">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C316">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D316">
-        <f t="shared" si="30"/>
-        <v>7</v>
+        <f t="shared" si="42"/>
+        <v>4</v>
       </c>
       <c r="E316">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>45</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>43777</v>
+        <v>43774</v>
       </c>
       <c r="B317">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C317">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D317">
-        <f t="shared" si="30"/>
-        <v>8</v>
+        <f t="shared" si="42"/>
+        <v>5</v>
       </c>
       <c r="E317">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>43778</v>
+        <v>43775</v>
       </c>
       <c r="B318">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C318">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D318">
-        <f t="shared" si="30"/>
-        <v>9</v>
+        <f t="shared" si="42"/>
+        <v>6</v>
       </c>
       <c r="E318">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>45</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>43779</v>
+        <v>43776</v>
       </c>
       <c r="B319">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C319">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D319">
-        <f t="shared" si="30"/>
-        <v>10</v>
+        <f t="shared" si="42"/>
+        <v>7</v>
       </c>
       <c r="E319">
-        <f t="shared" si="31"/>
-        <v>46</v>
+        <f t="shared" si="43"/>
+        <v>45</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>43780</v>
+        <v>43777</v>
       </c>
       <c r="B320">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C320">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D320">
-        <f t="shared" si="30"/>
-        <v>11</v>
+        <f t="shared" si="42"/>
+        <v>8</v>
       </c>
       <c r="E320">
-        <f t="shared" si="31"/>
-        <v>46</v>
+        <f t="shared" si="43"/>
+        <v>45</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>43781</v>
+        <v>43778</v>
       </c>
       <c r="B321">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C321">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D321">
-        <f t="shared" si="30"/>
-        <v>12</v>
+        <f t="shared" si="42"/>
+        <v>9</v>
       </c>
       <c r="E321">
-        <f t="shared" si="31"/>
-        <v>46</v>
+        <f t="shared" si="43"/>
+        <v>45</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>43782</v>
+        <v>43779</v>
       </c>
       <c r="B322">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C322">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D322">
-        <f t="shared" si="30"/>
-        <v>13</v>
+        <f t="shared" si="42"/>
+        <v>10</v>
       </c>
       <c r="E322">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>46</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>43783</v>
+        <v>43780</v>
       </c>
       <c r="B323">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C323">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D323">
-        <f t="shared" si="30"/>
-        <v>14</v>
+        <f t="shared" si="42"/>
+        <v>11</v>
       </c>
       <c r="E323">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>46</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>43784</v>
+        <v>43781</v>
       </c>
       <c r="B324">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C324">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D324">
-        <f t="shared" si="30"/>
-        <v>15</v>
+        <f t="shared" si="42"/>
+        <v>12</v>
       </c>
       <c r="E324">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>46</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>43785</v>
+        <v>43782</v>
       </c>
       <c r="B325">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C325">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D325">
-        <f t="shared" si="30"/>
-        <v>16</v>
+        <f t="shared" si="42"/>
+        <v>13</v>
       </c>
       <c r="E325">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>46</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>43786</v>
+        <v>43783</v>
       </c>
       <c r="B326">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C326">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D326">
-        <f t="shared" si="30"/>
-        <v>17</v>
+        <f t="shared" si="42"/>
+        <v>14</v>
       </c>
       <c r="E326">
-        <f t="shared" si="31"/>
-        <v>47</v>
+        <f t="shared" si="43"/>
+        <v>46</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>43787</v>
+        <v>43784</v>
       </c>
       <c r="B327">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C327">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D327">
-        <f t="shared" si="30"/>
-        <v>18</v>
+        <f t="shared" si="42"/>
+        <v>15</v>
       </c>
       <c r="E327">
-        <f t="shared" si="31"/>
-        <v>47</v>
+        <f t="shared" si="43"/>
+        <v>46</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>43788</v>
+        <v>43785</v>
       </c>
       <c r="B328">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C328">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D328">
-        <f t="shared" si="30"/>
-        <v>19</v>
+        <f t="shared" si="42"/>
+        <v>16</v>
       </c>
       <c r="E328">
-        <f t="shared" si="31"/>
-        <v>47</v>
+        <f t="shared" si="43"/>
+        <v>46</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>43789</v>
+        <v>43786</v>
       </c>
       <c r="B329">
-        <f t="shared" ref="B329:B370" si="32">YEAR(A329)</f>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C329">
-        <f t="shared" ref="C329:C370" si="33">MONTH(A329)</f>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D329">
-        <f t="shared" ref="D329:D370" si="34">DAY(A329)</f>
-        <v>20</v>
+        <f t="shared" si="42"/>
+        <v>17</v>
       </c>
       <c r="E329">
-        <f t="shared" ref="E329:E370" si="35">WEEKNUM(A329)</f>
+        <f t="shared" si="43"/>
         <v>47</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>43790</v>
+        <v>43787</v>
       </c>
       <c r="B330">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C330">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D330">
-        <f t="shared" si="34"/>
-        <v>21</v>
+        <f t="shared" si="42"/>
+        <v>18</v>
       </c>
       <c r="E330">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>47</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>43791</v>
+        <v>43788</v>
       </c>
       <c r="B331">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>2019</v>
       </c>
       <c r="C331">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="D331">
-        <f t="shared" si="34"/>
-        <v>22</v>
+        <f t="shared" si="42"/>
+        <v>19</v>
       </c>
       <c r="E331">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>47</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>43792</v>
+        <v>43789</v>
       </c>
       <c r="B332">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="B332:B373" si="44">YEAR(A332)</f>
         <v>2019</v>
       </c>
       <c r="C332">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="C332:C373" si="45">MONTH(A332)</f>
         <v>11</v>
       </c>
       <c r="D332">
-        <f t="shared" si="34"/>
-        <v>23</v>
+        <f t="shared" ref="D332:D373" si="46">DAY(A332)</f>
+        <v>20</v>
       </c>
       <c r="E332">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="E332:E373" si="47">WEEKNUM(A332)</f>
         <v>47</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>43793</v>
+        <v>43790</v>
       </c>
       <c r="B333">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C333">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="D333">
-        <f t="shared" si="34"/>
-        <v>24</v>
+        <f t="shared" si="46"/>
+        <v>21</v>
       </c>
       <c r="E333">
-        <f t="shared" si="35"/>
-        <v>48</v>
+        <f t="shared" si="47"/>
+        <v>47</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>43794</v>
+        <v>43791</v>
       </c>
       <c r="B334">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C334">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="D334">
-        <f t="shared" si="34"/>
-        <v>25</v>
+        <f t="shared" si="46"/>
+        <v>22</v>
       </c>
       <c r="E334">
-        <f t="shared" si="35"/>
-        <v>48</v>
+        <f t="shared" si="47"/>
+        <v>47</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>43795</v>
+        <v>43792</v>
       </c>
       <c r="B335">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C335">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="D335">
-        <f t="shared" si="34"/>
-        <v>26</v>
+        <f t="shared" si="46"/>
+        <v>23</v>
       </c>
       <c r="E335">
-        <f t="shared" si="35"/>
-        <v>48</v>
+        <f t="shared" si="47"/>
+        <v>47</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>43796</v>
+        <v>43793</v>
       </c>
       <c r="B336">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C336">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="D336">
-        <f t="shared" si="34"/>
-        <v>27</v>
+        <f t="shared" si="46"/>
+        <v>24</v>
       </c>
       <c r="E336">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>48</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>43797</v>
+        <v>43794</v>
       </c>
       <c r="B337">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C337">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="D337">
-        <f t="shared" si="34"/>
-        <v>28</v>
+        <f t="shared" si="46"/>
+        <v>25</v>
       </c>
       <c r="E337">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>48</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>43798</v>
+        <v>43795</v>
       </c>
       <c r="B338">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C338">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="D338">
-        <f t="shared" si="34"/>
-        <v>29</v>
+        <f t="shared" si="46"/>
+        <v>26</v>
       </c>
       <c r="E338">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>48</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>43799</v>
+        <v>43796</v>
       </c>
       <c r="B339">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C339">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="D339">
-        <f t="shared" si="34"/>
-        <v>30</v>
+        <f t="shared" si="46"/>
+        <v>27</v>
       </c>
       <c r="E339">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>48</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>43800</v>
+        <v>43797</v>
       </c>
       <c r="B340">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C340">
-        <f t="shared" si="33"/>
-        <v>12</v>
+        <f t="shared" si="45"/>
+        <v>11</v>
       </c>
       <c r="D340">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" si="46"/>
+        <v>28</v>
       </c>
       <c r="E340">
-        <f t="shared" si="35"/>
-        <v>49</v>
+        <f t="shared" si="47"/>
+        <v>48</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>43801</v>
+        <v>43798</v>
       </c>
       <c r="B341">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C341">
-        <f t="shared" si="33"/>
-        <v>12</v>
+        <f t="shared" si="45"/>
+        <v>11</v>
       </c>
       <c r="D341">
-        <f t="shared" si="34"/>
-        <v>2</v>
+        <f t="shared" si="46"/>
+        <v>29</v>
       </c>
       <c r="E341">
-        <f t="shared" si="35"/>
-        <v>49</v>
+        <f t="shared" si="47"/>
+        <v>48</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>43802</v>
+        <v>43799</v>
       </c>
       <c r="B342">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C342">
-        <f t="shared" si="33"/>
-        <v>12</v>
+        <f t="shared" si="45"/>
+        <v>11</v>
       </c>
       <c r="D342">
-        <f t="shared" si="34"/>
-        <v>3</v>
+        <f t="shared" si="46"/>
+        <v>30</v>
       </c>
       <c r="E342">
-        <f t="shared" si="35"/>
-        <v>49</v>
+        <f t="shared" si="47"/>
+        <v>48</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>43803</v>
+        <v>43800</v>
       </c>
       <c r="B343">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C343">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D343">
-        <f t="shared" si="34"/>
-        <v>4</v>
+        <f t="shared" si="46"/>
+        <v>1</v>
       </c>
       <c r="E343">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>49</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>43804</v>
+        <v>43801</v>
       </c>
       <c r="B344">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C344">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D344">
-        <f t="shared" si="34"/>
-        <v>5</v>
+        <f t="shared" si="46"/>
+        <v>2</v>
       </c>
       <c r="E344">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>49</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>43805</v>
+        <v>43802</v>
       </c>
       <c r="B345">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C345">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D345">
-        <f t="shared" si="34"/>
-        <v>6</v>
+        <f t="shared" si="46"/>
+        <v>3</v>
       </c>
       <c r="E345">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>49</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>43806</v>
+        <v>43803</v>
       </c>
       <c r="B346">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C346">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D346">
-        <f t="shared" si="34"/>
-        <v>7</v>
+        <f t="shared" si="46"/>
+        <v>4</v>
       </c>
       <c r="E346">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>49</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>43807</v>
+        <v>43804</v>
       </c>
       <c r="B347">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C347">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D347">
-        <f t="shared" si="34"/>
-        <v>8</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="E347">
-        <f t="shared" si="35"/>
-        <v>50</v>
+        <f t="shared" si="47"/>
+        <v>49</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>43808</v>
+        <v>43805</v>
       </c>
       <c r="B348">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C348">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D348">
-        <f t="shared" si="34"/>
-        <v>9</v>
+        <f t="shared" si="46"/>
+        <v>6</v>
       </c>
       <c r="E348">
-        <f t="shared" si="35"/>
-        <v>50</v>
+        <f t="shared" si="47"/>
+        <v>49</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>43809</v>
+        <v>43806</v>
       </c>
       <c r="B349">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C349">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D349">
-        <f t="shared" si="34"/>
-        <v>10</v>
+        <f t="shared" si="46"/>
+        <v>7</v>
       </c>
       <c r="E349">
-        <f t="shared" si="35"/>
-        <v>50</v>
+        <f t="shared" si="47"/>
+        <v>49</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>43810</v>
+        <v>43807</v>
       </c>
       <c r="B350">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C350">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D350">
-        <f t="shared" si="34"/>
-        <v>11</v>
+        <f t="shared" si="46"/>
+        <v>8</v>
       </c>
       <c r="E350">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>50</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>43811</v>
+        <v>43808</v>
       </c>
       <c r="B351">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C351">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D351">
-        <f t="shared" si="34"/>
-        <v>12</v>
+        <f t="shared" si="46"/>
+        <v>9</v>
       </c>
       <c r="E351">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>50</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>43812</v>
+        <v>43809</v>
       </c>
       <c r="B352">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C352">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D352">
-        <f t="shared" si="34"/>
-        <v>13</v>
+        <f t="shared" si="46"/>
+        <v>10</v>
       </c>
       <c r="E352">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>50</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>43813</v>
+        <v>43810</v>
       </c>
       <c r="B353">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C353">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D353">
-        <f t="shared" si="34"/>
-        <v>14</v>
+        <f t="shared" si="46"/>
+        <v>11</v>
       </c>
       <c r="E353">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>50</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>43814</v>
+        <v>43811</v>
       </c>
       <c r="B354">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C354">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D354">
-        <f t="shared" si="34"/>
-        <v>15</v>
+        <f t="shared" si="46"/>
+        <v>12</v>
       </c>
       <c r="E354">
-        <f t="shared" si="35"/>
-        <v>51</v>
+        <f t="shared" si="47"/>
+        <v>50</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>43815</v>
+        <v>43812</v>
       </c>
       <c r="B355">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C355">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D355">
-        <f t="shared" si="34"/>
-        <v>16</v>
+        <f t="shared" si="46"/>
+        <v>13</v>
       </c>
       <c r="E355">
-        <f t="shared" si="35"/>
-        <v>51</v>
+        <f t="shared" si="47"/>
+        <v>50</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>43816</v>
+        <v>43813</v>
       </c>
       <c r="B356">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C356">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D356">
-        <f t="shared" si="34"/>
-        <v>17</v>
+        <f t="shared" si="46"/>
+        <v>14</v>
       </c>
       <c r="E356">
-        <f t="shared" si="35"/>
-        <v>51</v>
+        <f t="shared" si="47"/>
+        <v>50</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>43817</v>
+        <v>43814</v>
       </c>
       <c r="B357">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C357">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D357">
-        <f t="shared" si="34"/>
-        <v>18</v>
+        <f t="shared" si="46"/>
+        <v>15</v>
       </c>
       <c r="E357">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>51</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>43818</v>
+        <v>43815</v>
       </c>
       <c r="B358">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C358">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D358">
-        <f t="shared" si="34"/>
-        <v>19</v>
+        <f t="shared" si="46"/>
+        <v>16</v>
       </c>
       <c r="E358">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>51</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>43819</v>
+        <v>43816</v>
       </c>
       <c r="B359">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C359">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D359">
-        <f t="shared" si="34"/>
-        <v>20</v>
+        <f t="shared" si="46"/>
+        <v>17</v>
       </c>
       <c r="E359">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>51</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>43820</v>
+        <v>43817</v>
       </c>
       <c r="B360">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C360">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D360">
-        <f t="shared" si="34"/>
-        <v>21</v>
+        <f t="shared" si="46"/>
+        <v>18</v>
       </c>
       <c r="E360">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>51</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>43821</v>
+        <v>43818</v>
       </c>
       <c r="B361">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C361">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D361">
-        <f t="shared" si="34"/>
-        <v>22</v>
+        <f t="shared" si="46"/>
+        <v>19</v>
       </c>
       <c r="E361">
-        <f t="shared" si="35"/>
-        <v>52</v>
+        <f t="shared" si="47"/>
+        <v>51</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>43822</v>
+        <v>43819</v>
       </c>
       <c r="B362">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C362">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D362">
-        <f t="shared" si="34"/>
-        <v>23</v>
+        <f t="shared" si="46"/>
+        <v>20</v>
       </c>
       <c r="E362">
-        <f t="shared" si="35"/>
-        <v>52</v>
+        <f t="shared" si="47"/>
+        <v>51</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>43823</v>
+        <v>43820</v>
       </c>
       <c r="B363">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C363">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D363">
-        <f t="shared" si="34"/>
-        <v>24</v>
+        <f t="shared" si="46"/>
+        <v>21</v>
       </c>
       <c r="E363">
-        <f t="shared" si="35"/>
-        <v>52</v>
+        <f t="shared" si="47"/>
+        <v>51</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>43824</v>
+        <v>43821</v>
       </c>
       <c r="B364">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C364">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D364">
-        <f t="shared" si="34"/>
-        <v>25</v>
+        <f t="shared" si="46"/>
+        <v>22</v>
       </c>
       <c r="E364">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>52</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>43825</v>
+        <v>43822</v>
       </c>
       <c r="B365">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C365">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D365">
-        <f t="shared" si="34"/>
-        <v>26</v>
+        <f t="shared" si="46"/>
+        <v>23</v>
       </c>
       <c r="E365">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>43826</v>
+        <v>43823</v>
       </c>
       <c r="B366">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C366">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D366">
-        <f t="shared" si="34"/>
-        <v>27</v>
+        <f t="shared" si="46"/>
+        <v>24</v>
       </c>
       <c r="E366">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>52</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>43827</v>
+        <v>43824</v>
       </c>
       <c r="B367">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C367">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D367">
-        <f t="shared" si="34"/>
-        <v>28</v>
+        <f t="shared" si="46"/>
+        <v>25</v>
       </c>
       <c r="E367">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>52</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>43828</v>
+        <v>43825</v>
       </c>
       <c r="B368">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C368">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D368">
-        <f t="shared" si="34"/>
-        <v>29</v>
+        <f t="shared" si="46"/>
+        <v>26</v>
       </c>
       <c r="E368">
-        <f t="shared" si="35"/>
-        <v>53</v>
+        <f t="shared" si="47"/>
+        <v>52</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>43829</v>
+        <v>43826</v>
       </c>
       <c r="B369">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2019</v>
       </c>
       <c r="C369">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="D369">
-        <f t="shared" si="34"/>
-        <v>30</v>
+        <f t="shared" si="46"/>
+        <v>27</v>
       </c>
       <c r="E369">
-        <f t="shared" si="35"/>
-        <v>53</v>
+        <f t="shared" si="47"/>
+        <v>52</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B370">
+        <f t="shared" si="44"/>
+        <v>2019</v>
+      </c>
+      <c r="C370">
+        <f t="shared" si="45"/>
+        <v>12</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="46"/>
+        <v>28</v>
+      </c>
+      <c r="E370">
+        <f t="shared" si="47"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B371">
+        <f t="shared" si="44"/>
+        <v>2019</v>
+      </c>
+      <c r="C371">
+        <f t="shared" si="45"/>
+        <v>12</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="46"/>
+        <v>29</v>
+      </c>
+      <c r="E371">
+        <f t="shared" si="47"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B372">
+        <f t="shared" si="44"/>
+        <v>2019</v>
+      </c>
+      <c r="C372">
+        <f t="shared" si="45"/>
+        <v>12</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="46"/>
+        <v>30</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="47"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
         <v>43830</v>
       </c>
-      <c r="B370">
-        <f t="shared" si="32"/>
-        <v>2019</v>
-      </c>
-      <c r="C370">
-        <f t="shared" si="33"/>
+      <c r="B373">
+        <f t="shared" si="44"/>
+        <v>2019</v>
+      </c>
+      <c r="C373">
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
-      <c r="D370">
-        <f t="shared" si="34"/>
+      <c r="D373">
+        <f t="shared" si="46"/>
         <v>31</v>
       </c>
-      <c r="E370">
-        <f t="shared" si="35"/>
+      <c r="E373">
+        <f t="shared" si="47"/>
         <v>53</v>
       </c>
     </row>
@@ -9641,10 +10059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082B48B6-1501-774C-818C-F75B39B01AEE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9794,6 +10212,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/githup-repos/github-website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-repos/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E2B5E-4365-3048-9FD4-B8F1EC42BAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51327A85-9AB4-6445-9C59-5BA6E922E585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>date</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>Eric R. Kandel</t>
+  </si>
+  <si>
+    <t>The Signal and the Noise: Why So Many Predictions Fail but Some Don't</t>
+  </si>
+  <si>
+    <t>Nate Silver</t>
+  </si>
+  <si>
+    <t>The Lady Tasting Tea: How Statistics Revolutionized Science in the Twentieth Century</t>
+  </si>
+  <si>
+    <t>David Salsburg</t>
+  </si>
+  <si>
+    <t>Understanding Behavioral Bia$: A Guide to Improving Financial Decision-Making</t>
+  </si>
+  <si>
+    <t>Daniel C. Krawczyk &amp; George H. Baxter</t>
   </si>
 </sst>
 </file>
@@ -474,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F081B7-288B-1045-AB76-1CD03FBCB65E}">
-  <dimension ref="A1:G373"/>
+  <dimension ref="A1:G375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H293" sqref="H293"/>
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G367" sqref="G367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8329,6 +8347,12 @@
         <f t="shared" si="43"/>
         <v>41</v>
       </c>
+      <c r="F291">
+        <v>26</v>
+      </c>
+      <c r="G291">
+        <v>10</v>
+      </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
@@ -8350,6 +8374,12 @@
         <f t="shared" si="43"/>
         <v>41</v>
       </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>10</v>
+      </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
@@ -8371,6 +8401,12 @@
         <f t="shared" si="43"/>
         <v>41</v>
       </c>
+      <c r="F293">
+        <v>46</v>
+      </c>
+      <c r="G293">
+        <v>10</v>
+      </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
@@ -8392,6 +8428,12 @@
         <f t="shared" si="43"/>
         <v>42</v>
       </c>
+      <c r="F294">
+        <v>48</v>
+      </c>
+      <c r="G294">
+        <v>10</v>
+      </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
@@ -8413,6 +8455,12 @@
         <f t="shared" si="43"/>
         <v>42</v>
       </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+      <c r="G295">
+        <v>10</v>
+      </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
@@ -8434,6 +8482,12 @@
         <f t="shared" si="43"/>
         <v>42</v>
       </c>
+      <c r="F296">
+        <v>48</v>
+      </c>
+      <c r="G296">
+        <v>10</v>
+      </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
@@ -8455,6 +8509,12 @@
         <f t="shared" si="43"/>
         <v>42</v>
       </c>
+      <c r="F297">
+        <v>6</v>
+      </c>
+      <c r="G297">
+        <v>10</v>
+      </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
@@ -8476,6 +8536,12 @@
         <f t="shared" si="43"/>
         <v>42</v>
       </c>
+      <c r="F298">
+        <v>13</v>
+      </c>
+      <c r="G298">
+        <v>10</v>
+      </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
@@ -8497,6 +8563,12 @@
         <f t="shared" si="43"/>
         <v>42</v>
       </c>
+      <c r="F299">
+        <v>27</v>
+      </c>
+      <c r="G299">
+        <v>10</v>
+      </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
@@ -8518,6 +8590,12 @@
         <f t="shared" si="43"/>
         <v>42</v>
       </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>10</v>
+      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
@@ -8539,6 +8617,12 @@
         <f t="shared" si="43"/>
         <v>43</v>
       </c>
+      <c r="F301">
+        <v>14</v>
+      </c>
+      <c r="G301">
+        <v>10</v>
+      </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
@@ -8560,6 +8644,12 @@
         <f t="shared" si="43"/>
         <v>43</v>
       </c>
+      <c r="F302">
+        <v>6</v>
+      </c>
+      <c r="G302">
+        <v>10</v>
+      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
@@ -8581,6 +8671,12 @@
         <f t="shared" si="43"/>
         <v>43</v>
       </c>
+      <c r="F303">
+        <v>42</v>
+      </c>
+      <c r="G303">
+        <v>10</v>
+      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
@@ -8602,8 +8698,14 @@
         <f t="shared" si="43"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F304">
+        <v>8</v>
+      </c>
+      <c r="G304">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>43762</v>
       </c>
@@ -8623,8 +8725,14 @@
         <f t="shared" si="43"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305">
+        <v>6</v>
+      </c>
+      <c r="G305">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>43763</v>
       </c>
@@ -8644,8 +8752,14 @@
         <f t="shared" si="43"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>43764</v>
       </c>
@@ -8665,8 +8779,14 @@
         <f t="shared" si="43"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>43765</v>
       </c>
@@ -8686,8 +8806,14 @@
         <f t="shared" si="43"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>43766</v>
       </c>
@@ -8707,8 +8833,14 @@
         <f t="shared" si="43"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>43767</v>
       </c>
@@ -8728,8 +8860,14 @@
         <f t="shared" si="43"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>43768</v>
       </c>
@@ -8749,8 +8887,14 @@
         <f t="shared" si="43"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>43769</v>
       </c>
@@ -8770,8 +8914,14 @@
         <f t="shared" si="43"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>43770</v>
       </c>
@@ -8791,8 +8941,14 @@
         <f t="shared" si="43"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>43771</v>
       </c>
@@ -8812,8 +8968,14 @@
         <f t="shared" si="43"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>43772</v>
       </c>
@@ -8833,8 +8995,14 @@
         <f t="shared" si="43"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F315">
+        <v>2</v>
+      </c>
+      <c r="G315">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>43773</v>
       </c>
@@ -8854,8 +9022,14 @@
         <f t="shared" si="43"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F316">
+        <v>8</v>
+      </c>
+      <c r="G316">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>43774</v>
       </c>
@@ -8875,8 +9049,14 @@
         <f t="shared" si="43"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317">
+        <v>6</v>
+      </c>
+      <c r="G317">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>43775</v>
       </c>
@@ -8896,8 +9076,14 @@
         <f t="shared" si="43"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>43776</v>
       </c>
@@ -8917,8 +9103,14 @@
         <f t="shared" si="43"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>43777</v>
       </c>
@@ -8938,8 +9130,14 @@
         <f t="shared" si="43"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>43778</v>
       </c>
@@ -8959,8 +9157,14 @@
         <f t="shared" si="43"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>43779</v>
       </c>
@@ -8980,8 +9184,14 @@
         <f t="shared" si="43"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F322">
+        <v>8</v>
+      </c>
+      <c r="G322">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>43780</v>
       </c>
@@ -9001,8 +9211,14 @@
         <f t="shared" si="43"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>43781</v>
       </c>
@@ -9022,8 +9238,14 @@
         <f t="shared" si="43"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>43782</v>
       </c>
@@ -9043,8 +9265,14 @@
         <f t="shared" si="43"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>43783</v>
       </c>
@@ -9064,8 +9292,14 @@
         <f t="shared" si="43"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>43784</v>
       </c>
@@ -9085,8 +9319,14 @@
         <f t="shared" si="43"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>43785</v>
       </c>
@@ -9106,8 +9346,14 @@
         <f t="shared" si="43"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>43786</v>
       </c>
@@ -9127,8 +9373,14 @@
         <f t="shared" si="43"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>43787</v>
       </c>
@@ -9148,8 +9400,14 @@
         <f t="shared" si="43"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>43788</v>
       </c>
@@ -9169,29 +9427,41 @@
         <f t="shared" si="43"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F331">
+        <v>10</v>
+      </c>
+      <c r="G331">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>43789</v>
       </c>
       <c r="B332">
-        <f t="shared" ref="B332:B373" si="44">YEAR(A332)</f>
+        <f t="shared" ref="B332:B375" si="44">YEAR(A332)</f>
         <v>2019</v>
       </c>
       <c r="C332">
-        <f t="shared" ref="C332:C373" si="45">MONTH(A332)</f>
+        <f t="shared" ref="C332:C375" si="45">MONTH(A332)</f>
         <v>11</v>
       </c>
       <c r="D332">
-        <f t="shared" ref="D332:D373" si="46">DAY(A332)</f>
+        <f t="shared" ref="D332:D375" si="46">DAY(A332)</f>
         <v>20</v>
       </c>
       <c r="E332">
-        <f t="shared" ref="E332:E373" si="47">WEEKNUM(A332)</f>
+        <f t="shared" ref="E332:E375" si="47">WEEKNUM(A332)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F332">
+        <v>8</v>
+      </c>
+      <c r="G332">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>43790</v>
       </c>
@@ -9211,8 +9481,14 @@
         <f t="shared" si="47"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F333">
+        <v>10</v>
+      </c>
+      <c r="G333">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>43791</v>
       </c>
@@ -9232,8 +9508,14 @@
         <f t="shared" si="47"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>43792</v>
       </c>
@@ -9253,8 +9535,14 @@
         <f t="shared" si="47"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F335">
+        <v>18</v>
+      </c>
+      <c r="G335">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>43793</v>
       </c>
@@ -9274,8 +9562,14 @@
         <f t="shared" si="47"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F336">
+        <v>14</v>
+      </c>
+      <c r="G336">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>43794</v>
       </c>
@@ -9295,8 +9589,14 @@
         <f t="shared" si="47"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F337">
+        <v>8</v>
+      </c>
+      <c r="G337">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>43795</v>
       </c>
@@ -9316,8 +9616,14 @@
         <f t="shared" si="47"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>43796</v>
       </c>
@@ -9337,8 +9643,14 @@
         <f t="shared" si="47"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F339">
+        <v>7</v>
+      </c>
+      <c r="G339">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>43797</v>
       </c>
@@ -9358,8 +9670,14 @@
         <f t="shared" si="47"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>43798</v>
       </c>
@@ -9379,52 +9697,70 @@
         <f t="shared" si="47"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F341">
+        <v>22</v>
+      </c>
+      <c r="G341">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B342">
+        <f t="shared" ref="B342" si="48">YEAR(A342)</f>
+        <v>2019</v>
+      </c>
+      <c r="C342">
+        <f t="shared" ref="C342" si="49">MONTH(A342)</f>
+        <v>11</v>
+      </c>
+      <c r="D342">
+        <f t="shared" ref="D342" si="50">DAY(A342)</f>
+        <v>29</v>
+      </c>
+      <c r="E342">
+        <f t="shared" ref="E342" si="51">WEEKNUM(A342)</f>
+        <v>48</v>
+      </c>
+      <c r="F342">
+        <v>16</v>
+      </c>
+      <c r="G342">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
         <v>43799</v>
       </c>
-      <c r="B342">
+      <c r="B343">
         <f t="shared" si="44"/>
         <v>2019</v>
       </c>
-      <c r="C342">
+      <c r="C343">
         <f t="shared" si="45"/>
         <v>11</v>
       </c>
-      <c r="D342">
+      <c r="D343">
         <f t="shared" si="46"/>
         <v>30</v>
       </c>
-      <c r="E342">
+      <c r="E343">
         <f t="shared" si="47"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
+      <c r="F343">
+        <v>33</v>
+      </c>
+      <c r="G343">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
         <v>43800</v>
-      </c>
-      <c r="B343">
-        <f t="shared" si="44"/>
-        <v>2019</v>
-      </c>
-      <c r="C343">
-        <f t="shared" si="45"/>
-        <v>12</v>
-      </c>
-      <c r="D343">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="E343">
-        <f t="shared" si="47"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
-        <v>43801</v>
       </c>
       <c r="B344">
         <f t="shared" si="44"/>
@@ -9436,37 +9772,49 @@
       </c>
       <c r="D344">
         <f t="shared" si="46"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E344">
         <f t="shared" si="47"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F344">
+        <v>52</v>
+      </c>
+      <c r="G344">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>43802</v>
+        <v>43800</v>
       </c>
       <c r="B345">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="B345" si="52">YEAR(A345)</f>
         <v>2019</v>
       </c>
       <c r="C345">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="C345" si="53">MONTH(A345)</f>
         <v>12</v>
       </c>
       <c r="D345">
-        <f t="shared" si="46"/>
-        <v>3</v>
+        <f t="shared" ref="D345" si="54">DAY(A345)</f>
+        <v>1</v>
       </c>
       <c r="E345">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E345" si="55">WEEKNUM(A345)</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F345">
+        <v>25</v>
+      </c>
+      <c r="G345">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>43803</v>
+        <v>43801</v>
       </c>
       <c r="B346">
         <f t="shared" si="44"/>
@@ -9478,16 +9826,22 @@
       </c>
       <c r="D346">
         <f t="shared" si="46"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E346">
         <f t="shared" si="47"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>43804</v>
+        <v>43802</v>
       </c>
       <c r="B347">
         <f t="shared" si="44"/>
@@ -9499,16 +9853,22 @@
       </c>
       <c r="D347">
         <f t="shared" si="46"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E347">
         <f t="shared" si="47"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>43805</v>
+        <v>43803</v>
       </c>
       <c r="B348">
         <f t="shared" si="44"/>
@@ -9520,16 +9880,22 @@
       </c>
       <c r="D348">
         <f t="shared" si="46"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E348">
         <f t="shared" si="47"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>43806</v>
+        <v>43804</v>
       </c>
       <c r="B349">
         <f t="shared" si="44"/>
@@ -9541,16 +9907,22 @@
       </c>
       <c r="D349">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E349">
         <f t="shared" si="47"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F349">
+        <v>8</v>
+      </c>
+      <c r="G349">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>43807</v>
+        <v>43805</v>
       </c>
       <c r="B350">
         <f t="shared" si="44"/>
@@ -9562,16 +9934,22 @@
       </c>
       <c r="D350">
         <f t="shared" si="46"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E350">
         <f t="shared" si="47"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>43808</v>
+        <v>43806</v>
       </c>
       <c r="B351">
         <f t="shared" si="44"/>
@@ -9583,16 +9961,22 @@
       </c>
       <c r="D351">
         <f t="shared" si="46"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E351">
         <f t="shared" si="47"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>43809</v>
+        <v>43807</v>
       </c>
       <c r="B352">
         <f t="shared" si="44"/>
@@ -9604,16 +9988,22 @@
       </c>
       <c r="D352">
         <f t="shared" si="46"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E352">
         <f t="shared" si="47"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>43810</v>
+        <v>43808</v>
       </c>
       <c r="B353">
         <f t="shared" si="44"/>
@@ -9625,16 +10015,22 @@
       </c>
       <c r="D353">
         <f t="shared" si="46"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E353">
         <f t="shared" si="47"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F353">
+        <v>6</v>
+      </c>
+      <c r="G353">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>43811</v>
+        <v>43809</v>
       </c>
       <c r="B354">
         <f t="shared" si="44"/>
@@ -9646,16 +10042,22 @@
       </c>
       <c r="D354">
         <f t="shared" si="46"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E354">
         <f t="shared" si="47"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F354">
+        <v>12</v>
+      </c>
+      <c r="G354">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>43812</v>
+        <v>43810</v>
       </c>
       <c r="B355">
         <f t="shared" si="44"/>
@@ -9667,16 +10069,22 @@
       </c>
       <c r="D355">
         <f t="shared" si="46"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E355">
         <f t="shared" si="47"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>43813</v>
+        <v>43811</v>
       </c>
       <c r="B356">
         <f t="shared" si="44"/>
@@ -9688,16 +10096,22 @@
       </c>
       <c r="D356">
         <f t="shared" si="46"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E356">
         <f t="shared" si="47"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>43814</v>
+        <v>43812</v>
       </c>
       <c r="B357">
         <f t="shared" si="44"/>
@@ -9709,16 +10123,22 @@
       </c>
       <c r="D357">
         <f t="shared" si="46"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E357">
         <f t="shared" si="47"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>43815</v>
+        <v>43813</v>
       </c>
       <c r="B358">
         <f t="shared" si="44"/>
@@ -9730,16 +10150,22 @@
       </c>
       <c r="D358">
         <f t="shared" si="46"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E358">
         <f t="shared" si="47"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>43816</v>
+        <v>43814</v>
       </c>
       <c r="B359">
         <f t="shared" si="44"/>
@@ -9751,16 +10177,22 @@
       </c>
       <c r="D359">
         <f t="shared" si="46"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E359">
         <f t="shared" si="47"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>43817</v>
+        <v>43815</v>
       </c>
       <c r="B360">
         <f t="shared" si="44"/>
@@ -9772,16 +10204,22 @@
       </c>
       <c r="D360">
         <f t="shared" si="46"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E360">
         <f t="shared" si="47"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>43818</v>
+        <v>43816</v>
       </c>
       <c r="B361">
         <f t="shared" si="44"/>
@@ -9793,16 +10231,22 @@
       </c>
       <c r="D361">
         <f t="shared" si="46"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E361">
         <f t="shared" si="47"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>43819</v>
+        <v>43817</v>
       </c>
       <c r="B362">
         <f t="shared" si="44"/>
@@ -9814,16 +10258,22 @@
       </c>
       <c r="D362">
         <f t="shared" si="46"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E362">
         <f t="shared" si="47"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>43820</v>
+        <v>43818</v>
       </c>
       <c r="B363">
         <f t="shared" si="44"/>
@@ -9835,16 +10285,22 @@
       </c>
       <c r="D363">
         <f t="shared" si="46"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E363">
         <f t="shared" si="47"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F363">
+        <v>7</v>
+      </c>
+      <c r="G363">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>43821</v>
+        <v>43819</v>
       </c>
       <c r="B364">
         <f t="shared" si="44"/>
@@ -9856,16 +10312,22 @@
       </c>
       <c r="D364">
         <f t="shared" si="46"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E364">
         <f t="shared" si="47"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>43822</v>
+        <v>43820</v>
       </c>
       <c r="B365">
         <f t="shared" si="44"/>
@@ -9877,16 +10339,22 @@
       </c>
       <c r="D365">
         <f t="shared" si="46"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E365">
         <f t="shared" si="47"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>43823</v>
+        <v>43821</v>
       </c>
       <c r="B366">
         <f t="shared" si="44"/>
@@ -9898,16 +10366,22 @@
       </c>
       <c r="D366">
         <f t="shared" si="46"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E366">
         <f t="shared" si="47"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F366">
+        <v>25</v>
+      </c>
+      <c r="G366">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>43824</v>
+        <v>43822</v>
       </c>
       <c r="B367">
         <f t="shared" si="44"/>
@@ -9919,16 +10393,16 @@
       </c>
       <c r="D367">
         <f t="shared" si="46"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E367">
         <f t="shared" si="47"/>
         <v>52</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>43825</v>
+        <v>43823</v>
       </c>
       <c r="B368">
         <f t="shared" si="44"/>
@@ -9940,7 +10414,7 @@
       </c>
       <c r="D368">
         <f t="shared" si="46"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E368">
         <f t="shared" si="47"/>
@@ -9949,7 +10423,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>43826</v>
+        <v>43824</v>
       </c>
       <c r="B369">
         <f t="shared" si="44"/>
@@ -9961,7 +10435,7 @@
       </c>
       <c r="D369">
         <f t="shared" si="46"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E369">
         <f t="shared" si="47"/>
@@ -9970,7 +10444,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>43827</v>
+        <v>43825</v>
       </c>
       <c r="B370">
         <f t="shared" si="44"/>
@@ -9982,7 +10456,7 @@
       </c>
       <c r="D370">
         <f t="shared" si="46"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E370">
         <f t="shared" si="47"/>
@@ -9991,7 +10465,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>43828</v>
+        <v>43826</v>
       </c>
       <c r="B371">
         <f t="shared" si="44"/>
@@ -10003,16 +10477,16 @@
       </c>
       <c r="D371">
         <f t="shared" si="46"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E371">
         <f t="shared" si="47"/>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>43829</v>
+        <v>43827</v>
       </c>
       <c r="B372">
         <f t="shared" si="44"/>
@@ -10024,16 +10498,16 @@
       </c>
       <c r="D372">
         <f t="shared" si="46"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E372">
         <f t="shared" si="47"/>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>43830</v>
+        <v>43828</v>
       </c>
       <c r="B373">
         <f t="shared" si="44"/>
@@ -10045,9 +10519,51 @@
       </c>
       <c r="D373">
         <f t="shared" si="46"/>
+        <v>29</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="47"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B374">
+        <f t="shared" si="44"/>
+        <v>2019</v>
+      </c>
+      <c r="C374">
+        <f t="shared" si="45"/>
+        <v>12</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="46"/>
+        <v>30</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="47"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B375">
+        <f t="shared" si="44"/>
+        <v>2019</v>
+      </c>
+      <c r="C375">
+        <f t="shared" si="45"/>
+        <v>12</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="46"/>
         <v>31</v>
       </c>
-      <c r="E373">
+      <c r="E375">
         <f t="shared" si="47"/>
         <v>53</v>
       </c>
@@ -10059,17 +10575,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082B48B6-1501-774C-818C-F75B39B01AEE}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -10226,6 +10742,48 @@
         <v>29</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>2012</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>2001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2019</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my-reads.xlsx
+++ b/data/my-reads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/github-repos/github-website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51327A85-9AB4-6445-9C59-5BA6E922E585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7260EC0-749F-6543-9D5E-CB273E2115D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6A43893A-E979-8943-8C08-0CBFF629ACEC}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -495,8 +497,8 @@
   <dimension ref="A1:G375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G367" sqref="G367"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G371" sqref="G371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10399,6 +10401,12 @@
         <f t="shared" si="47"/>
         <v>52</v>
       </c>
+      <c r="F367">
+        <v>35</v>
+      </c>
+      <c r="G367">
+        <v>12</v>
+      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
@@ -10420,8 +10428,14 @@
         <f t="shared" si="47"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43824</v>
       </c>
@@ -10441,8 +10455,14 @@
         <f t="shared" si="47"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43825</v>
       </c>
@@ -10462,8 +10482,14 @@
         <f t="shared" si="47"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F370">
+        <v>48</v>
+      </c>
+      <c r="G370">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43826</v>
       </c>
@@ -10484,7 +10510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43827</v>
       </c>
@@ -10505,7 +10531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43828</v>
       </c>
@@ -10526,7 +10552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43829</v>
       </c>
@@ -10547,7 +10573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43830</v>
       </c>
